--- a/records.xlsx
+++ b/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D296"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High performance, low environmental impact. #Frascold’s ATEX-HT series is designed to meet the challenges of modern #HVAC s</t>
+          <t>Industrial refrigeration is evolving, and CO2 is gaining ground. Copeland’s Vilter CO2 transcritical single-screw compresso</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High performance, low environmental impact.#Frascold’s ATEX-HT series is designed to meet the challenges of modern #HVAC systems, with semi-hermetic #compressors capable of operating with #natural #hydrocarbons at temperatures up to 13502f°C.Ideal for high-temperature #HeatPumps and process applications, it’s a reliable choice for those seeking efficiency, durability and sustainability in a single technology. Learn more about the technical features and application benefits in the full #article: https:/</t>
+          <t>Industrial refrigeration is evolving, and CO2 is gaining ground. Copeland’s Vilter CO2 transcritical single-screw compressor was designed to withstand high pressures and overcome the limitations of multiple-compressor rack systems in high-tonnage industrial applications. Combined with our CO2 subcritical single-screw compressor, we’re providing complete CO2 solutions that enable the next generation of reliable, efficient and sustainable industrial refrigeration.Discover the future of industrial CO2. #Indu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330525237005979648</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330608633992372230</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danfoss Live Online-Event: GEG ­effektiv um­set­zen</t>
+          <t>GEA GROUP News</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> | Druckvorschau Im Danfoss-Event werden zentrale Anforderungen der Gesetzesnovelle erläutert und Best Practices zur Steigerung der Gebäudeenergieeffizienz vorgestellt.</t>
+          <t xml:space="preserve"> GEA Group is one of the world’s largest suppliers of systems and components to the food beverage , and pharmaceutical sectors.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.sbz-online.de/meldungen/03062025-11-bis-1230-uhr-online-danfoss-live-online-event-geg-effektiv-umsetzen</t>
+          <t>https://www.industryemea.com/companies/733-gea-group-news</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,413 +502,413 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danfoss welcomes Danish Foreign Minister Lars Løkke Rasmussen to landmark factory visit in Tianjin, China</t>
+          <t>We’re excited to announce the launch of our Heat Recovery Tool!  Excess heat is a huge untapped energy source, and r</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 19, 2025 As part of a high-level visit to China, Danish Minister for Foreign Affairs, Lars Løkke Rasmussen, toured Danfoss’ pioneering</t>
+          <t>We’re excited to announce the launch of our Heat Recovery Tool!  Excess heat is a huge untapped energy source, and recovering it can bring you numerous advantages: - Energy efficiency - Reduced carbon emissions - Cost savings Our tool is designed to help you unlock the potential of heat recovery in your operations. It provides essential data to evaluate heat recovery opportunities effectively.  Watch the video to learn more, then head over to our website: https://bit.ly/4jRyukILet’s get starte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88767</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330548185385295873</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danfoss welcomes Danish Foreign Minister Lars Løkke Rasmussen to landmark factory visit in Tianjin, China</t>
+          <t>High performance, low environmental impact. #Frascold’s ATEX-HT series is designed to meet the challenges of modern #HVAC s</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>As part of a high-level visit to China, Danish Minister for Foreign Affairs, Lars Løkke Rasmussen, toured Danfoss’ pioneering factory in Tianjin on May 18, highlighting the strong economic ties between Denmark and China and the role of green innovation in their future cooperation.</t>
+          <t>High performance, low environmental impact.#Frascold’s ATEX-HT series is designed to meet the challenges of modern #HVAC systems, with semi-hermetic #compressors capable of operating with #natural #hydrocarbons at temperatures up to 13502f°C.Ideal for high-temperature #HeatPumps and process applications, it’s a reliable choice for those seeking efficiency, durability and sustainability in a single technology. Learn more about the technical features and application benefits in the full #article: https:/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/cf/danfoss-welcomes-danish-foreign-minister-lars-loekke-rasmussen-to-landmark-factory-visit-in-tianjin-china/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330525237005979648</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Last Saturday, May 17th, we had the pleasure of hosting Rotary Italia at Officine Mario Dorin!  A global network of </t>
+          <t>Proud to see Copeland leading the way as the Awards Partner at #REFCOLD India 2025! Hear from Mr. Jaya Kumar Kandanchathampilli,</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Last Saturday, May 17th, we had the pleasure of hosting Rotary Italia at Officine Mario Dorin! A global network of professionals committed to ethical leadership and community service - a network in which several of our own team members proudly take part mario dorin - Giovanni Dorin - Massimo Casini - Giacomo PisanoDuring the visit, we confirmed our strong shared values: friendship, integrity, professionalism, and solidarityGuests were very impressed by how deeply #sustainability is embedded in Dorin’</t>
+          <t>Proud to see Copeland leading the way as the Awards Partner at #REFCOLD India 2025! Hear from Mr. Jaya Kumar Kandanchathampilli, Vice President Sales, India, Middle East &amp; Africa, on how Copeland is driving cold chain innovation across the region.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330172222973677568</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330827210309750784</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Supermarkets play a crucial role in shaping a more sustainable future. But with refrigeration alone accounting for the largest s</t>
+          <t>Danfoss Live Online-Event: GEG ­effektiv um­set­zen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Supermarkets play a crucial role in shaping a more sustainable future. But with refrigeration alone accounting for the largest share of energy consumption, how can food retailers stay competitive while reducing their environmental footprint?At Danfoss, we believe the answer lies in smart, scalable solutions that optimize efficiency—from case to cloud. Our Smart Store concept brings these solutions to life, demonstrating how supermarkets can cut operational costs, minimize food loss, and reduce emissions—a</t>
+          <t xml:space="preserve"> | Druckvorschau Im Danfoss-Event werden zentrale Anforderungen der Gesetzesnovelle erläutert und Best Practices zur Steigerung der Gebäudeenergieeffizienz vorgestellt.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330134631184334849</t>
+          <t>https://www.sbz-online.de/meldungen/03062025-11-bis-1230-uhr-online-danfoss-live-online-event-geg-effektiv-umsetzen</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Danfoss eHydraulic Power Module enables electrification of 200-tonne SANY crawler crane</t>
+          <t>Modulating compressors: Scroll, digital, VFD—what’s the difference, and how do you know which one is right for your applica</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 13, 2025 HUZHOU, China – Danfoss Power Solutions’ Editron division has delivered its first eHydraulic Power Module to SANY for the electrification of a 200-tonne lattice-boom crawler crane.</t>
+          <t>Modulating compressors: Scroll, digital, VFD—what’s the difference, and how do you know which one is right for your application? In this quick breakdown, Tony Mormino cuts through the confusion and explains when and why you’d use each type.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88755</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330638465769897985</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Torben Christensen named Chief Financial Officer of Danfoss Power Solutions</t>
+          <t>Danfoss welcomes Danish Foreign Minister Lars Løkke Rasmussen to landmark factory visit in Tianjin, China</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 1, 2025 NORDBORG, Denmark – Danfoss today announced that Torben Christensen has been named Chief Financial Officer of Danfoss Power Solutions, effective immediately.</t>
+          <t xml:space="preserve"> May 19, 2025 As part of a high-level visit to China, Danish Minister for Foreign Affairs, Lars Løkke Rasmussen, toured Danfoss’ pioneering</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88745</t>
+          <t>https://www.ejarn.com/article/detail/88767</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Danfoss at the 36th China Refrigeration Exposition, leading the industry’s green transformation with innovative technologies</t>
+          <t>Danfoss welcomes Danish Foreign Minister Lars Løkke Rasmussen to landmark factory visit in Tianjin, China</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 14, 2025 China · Shanghai - 27 April-29, the 36th China Refrigeration Exhibition will take place at the Shanghai New International Expo Centre.</t>
+          <t>As part of a high-level visit to China, Danish Minister for Foreign Affairs, Lars Løkke Rasmussen, toured Danfoss’ pioneering factory in Tianjin on May 18, highlighting the strong economic ties between Denmark and China and the role of green innovation in their future cooperation.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88744</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/cf/danfoss-welcomes-danish-foreign-minister-lars-loekke-rasmussen-to-landmark-factory-visit-in-tianjin-china/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The AK-CC55 controller is the all-in-one solution for refrigeration appliances and cold storage rooms. Featuring adaptive defros</t>
+          <t xml:space="preserve">Last Saturday, May 17th, we had the pleasure of hosting Rotary Italia at Officine Mario Dorin!  A global network of </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The AK-CC55 controller is the all-in-one solution for refrigeration appliances and cold storage rooms. Featuring adaptive defrost, which saves energy and maintains food quality by defrosting only what’s needed to keep the evaporator ice-free. Plus, the controller offers the option of using hot gas for efficient defrosting  Our animation shows how it works in detail. For more information, explore the data sheets available here: https://bit.ly/3Ar4RoM#HotGasDefrosting #AKCC55 #Controller #Animation</t>
+          <t>Last Saturday, May 17th, we had the pleasure of hosting Rotary Italia at Officine Mario Dorin! A global network of professionals committed to ethical leadership and community service - a network in which several of our own team members proudly take part mario dorin - Giovanni Dorin - Massimo Casini - Giacomo PisanoDuring the visit, we confirmed our strong shared values: friendship, integrity, professionalism, and solidarityGuests were very impressed by how deeply #sustainability is embedded in Dorin’</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7329423726788136960</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330172222973677568</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Introducing H48T-CH, the latest innovation in brazed plate heat exchangers  Designed specifically for 140 bar transc</t>
+          <t>Supermarkets play a crucial role in shaping a more sustainable future. But with refrigeration alone accounting for the largest s</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Introducing H48T-CH, the latest innovation in brazed plate heat exchangers  Designed specifically for 140 bar transcritical CO₂ systems, H48T-CH features the patented Micro Plate™ technology to optimize heat recovery applications with water and CO₂. The result? Improved heat transfer, enhanced system efficiency, and a reduced environmental footprint.02f Its compact, frame-free design allows for easier installation and more space-efficient CO₂ systems—supporting the industry’s shift toward sustainable, hi</t>
+          <t>Supermarkets play a crucial role in shaping a more sustainable future. But with refrigeration alone accounting for the largest share of energy consumption, how can food retailers stay competitive while reducing their environmental footprint?At Danfoss, we believe the answer lies in smart, scalable solutions that optimize efficiency—from case to cloud. Our Smart Store concept brings these solutions to life, demonstrating how supermarkets can cut operational costs, minimize food loss, and reduce emissions—a</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7329097796450512896</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330134631184334849</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>In this video interview, TEON walks us through their T140 dual-stage air-to-water unit, developed with #Frascold #compressors an</t>
+          <t>Danfoss eHydraulic Power Module enables electrification of 200-tonne SANY crawler crane</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>In this video interview, TEON walks us through their T140 dual-stage air-to-water unit, developed with #Frascold #compressors and #NaturalRefrigerants.Designed to ensure reliable performance in challenging conditions, the system uses #R290 in the low stage and #R600a in the high stage, operating efficiently from -20°C outdoor temperature up to 90°C supply temperature. The configuration also allows for flexible installation and reduced acoustic impact , key factors in modern #HVAC design.Discover how Fra</t>
+          <t xml:space="preserve"> May 13, 2025 HUZHOU, China – Danfoss Power Solutions’ Editron division has delivered its first eHydraulic Power Module to SANY for the electrification of a 200-tonne lattice-boom crawler crane.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7329086445384552448</t>
+          <t>https://www.ejarn.com/article/detail/88755</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Danfoss to launch AK-CC25 controller for refrigerated display cases</t>
+          <t>Torben Christensen named Chief Financial Officer of Danfoss Power Solutions</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Danfoss has announced the upcoming launch of the AK-CC25, a new controller designed for plug-in and remote TXV refrigerated display cases.</t>
+          <t xml:space="preserve"> May 1, 2025 NORDBORG, Denmark – Danfoss today announced that Torben Christensen has been named Chief Financial Officer of Danfoss Power Solutions, effective immediately.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/new-items/danfoss-to-launch-ak-cc25-controller-for-refrigerated-display-cases/</t>
+          <t>https://www.ejarn.com/article/detail/88745</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>We’re excited to announce that we’ll be exhibiting at CHINA (FUZHOU)INTERNATIONAL SEAFOOD &amp; FISHERIES EXPO!  \ud</t>
+          <t>Danfoss at the 36th China Refrigeration Exposition, leading the industry’s green transformation with innovative technologies</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>We’re excited to announce that we’ll be exhibiting at CHINA (FUZHOU)INTERNATIONAL SEAFOOD &amp; FISHERIES EXPO!    Venue: Fuzhou Strait International Conference &amp; Exhibition Center Date: June 13-15, 2025 Booth: 2B33 We look forward to seeing you there! #SnowmanGroup #SRMTEC #refrigerationsolutions #HVAC</t>
+          <t xml:space="preserve"> April 14, 2025 China · Shanghai - 27 April-29, the 36th China Refrigeration Exhibition will take place at the Shanghai New International Expo Centre.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7329054419453468672</t>
+          <t>https://www.ejarn.com/article/detail/88744</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>We’re excited to kick off #CIBF2025 in Shenzhen, China! At our booth, Copeland is showcasing groundbreaking technologies dr</t>
+          <t>The AK-CC55 controller is the all-in-one solution for refrigeration appliances and cold storage rooms. Featuring adaptive defros</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>We’re excited to kick off #CIBF2025 in Shenzhen, China! At our booth, Copeland is showcasing groundbreaking technologies driving the energy transition and accelerating the adoption of low-GWP refrigerants.From battery R&amp;D and manufacturing to transportation, energy storage and E-buses, we’re delivering innovative solutions that redefine sustainability in the battery industry.Our technologies enhance operational efficiency, extend equipment lifecycles, and lower emissions, advancing the future of greener</t>
+          <t>The AK-CC55 controller is the all-in-one solution for refrigeration appliances and cold storage rooms. Featuring adaptive defrost, which saves energy and maintains food quality by defrosting only what’s needed to keep the evaporator ice-free. Plus, the controller offers the option of using hot gas for efficient defrosting  Our animation shows how it works in detail. For more information, explore the data sheets available here: https://bit.ly/3Ar4RoM#HotGasDefrosting #AKCC55 #Controller #Animation</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328947453569781762</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7329423726788136960</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Danfoss set to introduce new case controller</t>
+          <t>Introducing H48T-CH, the latest innovation in brazed plate heat exchangers  Designed specifically for 140 bar transc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DENMARK: Danfoss is set to introduce a new high performance controller for plug-in and remote TXV refrigerated display cases.</t>
+          <t>Introducing H48T-CH, the latest innovation in brazed plate heat exchangers  Designed specifically for 140 bar transcritical CO₂ systems, H48T-CH features the patented Micro Plate™ technology to optimize heat recovery applications with water and CO₂. The result? Improved heat transfer, enhanced system efficiency, and a reduced environmental footprint.02f Its compact, frame-free design allows for easier installation and more space-efficient CO₂ systems—supporting the industry’s shift toward sustainable, hi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.coolingpost.com/products/danfoss-set-to-introduce-new-case-controller/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7329097796450512896</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Read how the Vilter VQ95 industrial heat pump accelerates the energy transition in the food processing industry.</t>
+          <t>In this video interview, TEON walks us through their T140 dual-stage air-to-water unit, developed with #Frascold #compressors an</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Read how the Vilter VQ95 industrial heat pump accelerates the energy transition in the food processing industry.</t>
+          <t>In this video interview, TEON walks us through their T140 dual-stage air-to-water unit, developed with #Frascold #compressors and #NaturalRefrigerants.Designed to ensure reliable performance in challenging conditions, the system uses #R290 in the low stage and #R600a in the high stage, operating efficiently from -20°C outdoor temperature up to 90°C supply temperature. The configuration also allows for flexible installation and reduced acoustic impact , key factors in modern #HVAC design.Discover how Fra</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328812148271263744</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7329086445384552448</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit May 20-2</t>
+          <t>Danfoss to launch AK-CC25 controller for refrigerated display cases</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit May 20-22 in St. Paul, MN. The FREE event offers #refrigeration #technicians diverse training opportunities on the latest CO2 and propane technologies from leading industry experts.Gain knowledge of the latest #natural #refrigerant capabilities to prepare for the future of refrigeration: https://ow.ly/AyVz50VTg8E#GoNatRefs</t>
+          <t xml:space="preserve"> Danfoss has announced the upcoming launch of the AK-CC25, a new controller designed for plug-in and remote TXV refrigerated display cases.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328796847500607488</t>
+          <t>https://refindustry.com/news/new-items/danfoss-to-launch-ak-cc25-controller-for-refrigerated-display-cases/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Danfoss eHydraulic Power Module enables electrification of 200-tonne SANY crawler crane</t>
+          <t>We’re excited to announce that we’ll be exhibiting at CHINA (FUZHOU)INTERNATIONAL SEAFOOD &amp; FISHERIES EXPO!  \ud</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SANY is working to develop fully electric versions of its higher capacity crawler cranes, having previously electrified its lower capacity models.</t>
+          <t>We’re excited to announce that we’ll be exhibiting at CHINA (FUZHOU)INTERNATIONAL SEAFOOD &amp; FISHERIES EXPO!    Venue: Fuzhou Strait International Conference &amp; Exhibition Center Date: June 13-15, 2025 Booth: 2B33 We look forward to seeing you there! #SnowmanGroup #SRMTEC #refrigerationsolutions #HVAC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-ehydraulic-power-module-enables-electrification-of-200-tonne-sany-crawler-crane/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7329054419453468672</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mathieu Canal talks about how the Chinese heat pump market is constantly evolving, and how we’re addressing the legislative</t>
+          <t>We’re excited to kick off #CIBF2025 in Shenzhen, China! At our booth, Copeland is showcasing groundbreaking technologies dr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mathieu Canal talks about how the Chinese heat pump market is constantly evolving, and how we’re addressing the legislative and technological changes with solutions meeting the customers’ requirements. An example of this is our PSF scroll compressor for R32 that is capable of operating at down to –40°C, appropriate for low ambient conditions. We’re also expanding into the industrial heat pump market, addressing process heating needs above 100°C.  Learn more about our approach to these market shifts: ht</t>
+          <t>We’re excited to kick off #CIBF2025 in Shenzhen, China! At our booth, Copeland is showcasing groundbreaking technologies driving the energy transition and accelerating the adoption of low-GWP refrigerants.From battery R&amp;D and manufacturing to transportation, energy storage and E-buses, we’re delivering innovative solutions that redefine sustainability in the battery industry.Our technologies enhance operational efficiency, extend equipment lifecycles, and lower emissions, advancing the future of greener</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328705762799591425</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328947453569781762</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATMOsphere Australia 2025 – Wrapped! We were proud to be #bronzesponsors of this year’s #ATMO</t>
+          <t>Danfoss set to introduce new case controller</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATMOsphere Australia 2025 – Wrapped!We were proud to be #bronzesponsors of this year’s #ATMO #Australia, where natural refrigerants and sustainable innovation took center stage.From powerful panel discussions to insightful case studies, the event was a fantastic opportunity to connect with industry leaders and reaffirm our commitment to a cleaner, greener future - one #CO₂ #Dorin #Compressor at a time.At Dorin, we continue to pioneer #natural #refrigeration solutions that help reduce climate impac</t>
+          <t>DENMARK: Danfoss is set to introduce a new high performance controller for plug-in and remote TXV refrigerated display cases.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328686987610140672</t>
+          <t>https://www.coolingpost.com/products/danfoss-set-to-introduce-new-case-controller/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -920,17 +920,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Danfoss launches DST G290 propane gas sensor with photoacoustic technology</t>
+          <t>Read how the Vilter VQ95 industrial heat pump accelerates the energy transition in the food processing industry.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Danfoss Sensing Solutions has introduced the DST G290 Gas Sensor series for use in HVAC and commercial refrigeration systems operating with propane (R290) refrigerant.</t>
+          <t>Read how the Vilter VQ95 industrial heat pump accelerates the energy transition in the food processing industry.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/new-items/danfoss-launches-dst-g290-propane-gas-sensor-with-photoacoustic-technology/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328812148271263744</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -942,127 +942,127 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cooltherm is approved Turbocor service provider</t>
+          <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit May 20-2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>UK: Bristol-based Cooltherm has been accredited as an approved service provider for the Danfoss Turbocor oil-less compressor.</t>
+          <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit May 20-22 in St. Paul, MN. The FREE event offers #refrigeration #technicians diverse training opportunities on the latest CO2 and propane technologies from leading industry experts.Gain knowledge of the latest #natural #refrigerant capabilities to prepare for the future of refrigeration: https://ow.ly/AyVz50VTg8E#GoNatRefs</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.coolingpost.com/uk-news/cooltherm-is-approved-turbocor-service-provider/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328796847500607488</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Danfoss ensures accurate, reliable propane leak detection with new DST G290 Gas Sensor</t>
+          <t>Danfoss eHydraulic Power Module enables electrification of 200-tonne SANY crawler crane</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The new line of gas detection sensors by Danfoss Sensing Solutions features photoacoustic technology and a patented inverted design and is intended for HVAC and commercial refrigeration systems.</t>
+          <t xml:space="preserve"> SANY is working to develop fully electric versions of its higher capacity crawler cranes, having previously electrified its lower capacity models.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/sen/danfoss-ensures-accurate-reliable-propane-leak-detection-with-new-dst-g290-gas-sensor/</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-ehydraulic-power-module-enables-electrification-of-200-tonne-sany-crawler-crane/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>We are hiring! SRM Italy is constantly growing and committed to global projects. We are currently looking for motivated and dete</t>
+          <t>Mathieu Canal talks about how the Chinese heat pump market is constantly evolving, and how we’re addressing the legislative</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>We are hiring!SRM Italy is constantly growing and committed to global projects.We are currently looking for motivated and determined individuals to grow with us in the following roles: Sales Area Manager Production Planner Senior Designer - Compressor DesignIn a young, dynamic and multicultural environment, where professionals from all over the world collaborate, we promote a stimulating working environment, oriented towards continuous development and the enhancement of individual skills.We ar</t>
+          <t>Mathieu Canal talks about how the Chinese heat pump market is constantly evolving, and how we’re addressing the legislative and technological changes with solutions meeting the customers’ requirements. An example of this is our PSF scroll compressor for R32 that is capable of operating at down to –40°C, appropriate for low ambient conditions. We’re also expanding into the industrial heat pump market, addressing process heating needs above 100°C.  Learn more about our approach to these market shifts: ht</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328429684067581952</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328705762799591425</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Voting for the HVAC All-Star Awards, an annual recognition of excellence and innovation in the heating, ventilation, air conditi</t>
+          <t xml:space="preserve"> ATMOsphere Australia 2025 – Wrapped! We were proud to be #bronzesponsors of this year’s #ATMO</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Voting for the HVAC All-Star Awards, an annual recognition of excellence and innovation in the heating, ventilation, air conditioning and refrigeration industry, began on May 12 and will end on May 30. These awards celebrate groundbreaking products, technologies and industry leaders shaping the future of HVAC.Team Copeland has been named as a finalist in three categories: Legends Award: Rajan Rajendran Commercial Product of the Year: Copeland Mobile with Scout AI Residential Product of the Year: Cop</t>
+          <t xml:space="preserve"> ATMOsphere Australia 2025 – Wrapped!We were proud to be #bronzesponsors of this year’s #ATMO #Australia, where natural refrigerants and sustainable innovation took center stage.From powerful panel discussions to insightful case studies, the event was a fantastic opportunity to connect with industry leaders and reaffirm our commitment to a cleaner, greener future - one #CO₂ #Dorin #Compressor at a time.At Dorin, we continue to pioneer #natural #refrigeration solutions that help reduce climate impac</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328426514293608451</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328686987610140672</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New 80,000 sq. ft. chilled facility opens at Port Freeport</t>
+          <t>Danfoss launches DST G290 propane gas sensor with photoacoustic technology</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fresh Del Monte Produce Inc. (NYSE: FDP), Freeport Warehouse LLC, a subsidiary of North American Stevedoring Holding Co., and Port Freeport have</t>
+          <t xml:space="preserve"> Danfoss Sensing Solutions has introduced the DST G290 Gas Sensor series for use in HVAC and commercial refrigeration systems operating with propane (R290) refrigerant.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.freshplaza.com/europe/article/9731899/new-80-000-sq-ft-chilled-facility-opens-at-port-freeport/</t>
+          <t>https://refindustry.com/news/new-items/danfoss-launches-dst-g290-propane-gas-sensor-with-photoacoustic-technology/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-15</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>“Over the past five years at Vertiv, I’ve had the chance to grow from an AP Specialist to a Team Leader, and looking b</t>
+          <t>Cooltherm is approved Turbocor service provider</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>“Over the past five years at Vertiv, I’ve had the chance to grow from an AP Specialist to a Team Leader, and looking back, it’s been an incredible journey. One of the most memorable moments for me was being part of the transition of the AP process. It was a great opportunity to apply my process knowledge while also learning a lot. The support I’ve received from the team, the opportunities to grow over the years, and the flexibility to take on new challenges have all played a key role in my development.” - D</t>
+          <t>UK: Bristol-based Cooltherm has been accredited as an approved service provider for the Danfoss Turbocor oil-less compressor.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328388663216660480</t>
+          <t>https://www.coolingpost.com/uk-news/cooltherm-is-approved-turbocor-service-provider/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1074,17 +1074,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Heating Tallinn More Efficiently with Innovative GEA Heat Pumps – The Future Starts Today  As citi</t>
+          <t>Danfoss ensures accurate, reliable propane leak detection with new DST G290 Gas Sensor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Heating Tallinn More Efficiently with Innovative GEA Heat Pumps – The Future Starts Today As cities move toward climate neutrality, decarbonizing district heating networks is stepping into the spotlight. In Estonia, Utilitas has teamed up with GEA to upgrade its Väo energy complex with four state-of-the-art GEA heat pumps, including the first-ever GEA Grasso L XHP screw compressor. Watch the full video to see how GEA’s ammonia-based heat pump technology is helping Estonia’s capital lead the way tow</t>
+          <t>The new line of gas detection sensors by Danfoss Sensing Solutions features photoacoustic technology and a patented inverted design and is intended for HVAC and commercial refrigeration systems.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328381759912349696</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/sen/danfoss-ensures-accurate-reliable-propane-leak-detection-with-new-dst-g290-gas-sensor/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1096,17 +1096,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Legislation is a powerful catalyst for advancing waste heat recovery, setting standards, providing incentives and creating oppor</t>
+          <t>We are hiring! SRM Italy is constantly growing and committed to global projects. We are currently looking for motivated and dete</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Legislation is a powerful catalyst for advancing waste heat recovery, setting standards, providing incentives and creating opportunities for businesses and municipalities. The urgency to act is clear: stakeholders who fail to embrace these legislative drivers risk falling behind in a rapidly evolving energy landscape. 02fKey legislative drivers: - Clean Industrial Deal:02fA comprehensive plan supporting European industry, promoting low-carbon transitions and enhancing conditions for waste heat recovery. -</t>
+          <t>We are hiring!SRM Italy is constantly growing and committed to global projects.We are currently looking for motivated and determined individuals to grow with us in the following roles: Sales Area Manager Production Planner Senior Designer - Compressor DesignIn a young, dynamic and multicultural environment, where professionals from all over the world collaborate, we promote a stimulating working environment, oriented towards continuous development and the enhancement of individual skills.We ar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328328321409179648</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328429684067581952</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1118,17 +1118,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nyt forskningssamarbejde skal skabe billig og ren energi</t>
+          <t>Voting for the HVAC All-Star Awards, an annual recognition of excellence and innovation in the heating, ventilation, air conditi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nyt forskningssamarbejde mellem Danfoss, DTU Kemiteknik og Saltpower skal skabe billig og ren energi fra vand gennem naturlig proces.</t>
+          <t>Voting for the HVAC All-Star Awards, an annual recognition of excellence and innovation in the heating, ventilation, air conditioning and refrigeration industry, began on May 12 and will end on May 30. These awards celebrate groundbreaking products, technologies and industry leaders shaping the future of HVAC.Team Copeland has been named as a finalist in three categories: Legends Award: Rajan Rajendran Commercial Product of the Year: Copeland Mobile with Scout AI Residential Product of the Year: Cop</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://energiwatch.dk/Energinyt/strategi/article18179755.ece</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328426514293608451</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1140,17 +1140,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Danfoss to showcase solutions that decarbonize transportation at ACT Expo 2025</t>
+          <t>New 80,000 sq. ft. chilled facility opens at Port Freeport</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 22, 2025 NORDBORG, Denmark – Danfoss will exhibit solutions that enable high-performance commercial vehicles at the Advanced Clean</t>
+          <t xml:space="preserve"> Fresh Del Monte Produce Inc. (NYSE: FDP), Freeport Warehouse LLC, a subsidiary of North American Stevedoring Holding Co., and Port Freeport have</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88697</t>
+          <t>https://www.freshplaza.com/europe/article/9731899/new-80-000-sq-ft-chilled-facility-opens-at-port-freeport/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1162,17 +1162,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Danfoss and Assemblin Caverion Group strengthen partnership to drive building renovation and decarbonization</t>
+          <t>“Over the past five years at Vertiv, I’ve had the chance to grow from an AP Specialist to a Team Leader, and looking b</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 2, 2025 Danfoss and Assemblin Caverion Group have reaffirmed their commitment to accelerating the decarbonization of buildings with a newly signed framework agreement.</t>
+          <t>“Over the past five years at Vertiv, I’ve had the chance to grow from an AP Specialist to a Team Leader, and looking back, it’s been an incredible journey. One of the most memorable moments for me was being part of the transition of the AP process. It was a great opportunity to apply my process knowledge while also learning a lot. The support I’ve received from the team, the opportunities to grow over the years, and the flexibility to take on new challenges have all played a key role in my development.” - D</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88695</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328388663216660480</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1184,17 +1184,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>At Copeland, we’ve developed robust and comprehensive solutions to tackle challenges across the entire lithium battery valu</t>
+          <t xml:space="preserve"> Heating Tallinn More Efficiently with Innovative GEA Heat Pumps – The Future Starts Today  As citi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>At Copeland, we’ve developed robust and comprehensive solutions to tackle challenges across the entire lithium battery value chain.Our cutting-edge solutions enable cost reduction and efficiency improvements across a diverse range of lithium battery applications—including R&amp;D, manufacturing, transportation, and energy storage &amp; E-bus thermal management.Visit our booth at #CIBF2025 to discover how we’re shaping a brighter future for the battery industry with our innovative solutions. Learn more at: https</t>
+          <t xml:space="preserve"> Heating Tallinn More Efficiently with Innovative GEA Heat Pumps – The Future Starts Today As cities move toward climate neutrality, decarbonizing district heating networks is stepping into the spotlight. In Estonia, Utilitas has teamed up with GEA to upgrade its Väo energy complex with four state-of-the-art GEA heat pumps, including the first-ever GEA Grasso L XHP screw compressor. Watch the full video to see how GEA’s ammonia-based heat pump technology is helping Estonia’s capital lead the way tow</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328237684320018434</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328381759912349696</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1206,17 +1206,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Innomotics and Danfoss Drives Strengthen Partnership to Deliver Comprehensive Motor and Drive Solutions</t>
+          <t>Legislation is a powerful catalyst for advancing waste heat recovery, setting standards, providing incentives and creating oppor</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global</t>
+          <t>Legislation is a powerful catalyst for advancing waste heat recovery, setting standards, providing incentives and creating opportunities for businesses and municipalities. The urgency to act is clear: stakeholders who fail to embrace these legislative drivers risk falling behind in a rapidly evolving energy landscape. 02fKey legislative drivers: - Clean Industrial Deal:02fA comprehensive plan supporting European industry, promoting low-carbon transitions and enhancing conditions for waste heat recovery. -</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88694</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328328321409179648</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1228,127 +1228,127 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Copeland Partners With Mysa Smart Thermostats</t>
+          <t>Nyt forskningssamarbejde skal skabe billig og ren energi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 13, 2025 ST. LOUIS — Copeland is expanding its partnership with Mysa Smart Thermostats in the U.S. after successfully adding Mysa products to its portfolio in the Canadian market.</t>
+          <t>Nyt forskningssamarbejde mellem Danfoss, DTU Kemiteknik og Saltpower skal skabe billig og ren energi fra vand gennem naturlig proces.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.achrnews.com/articles/164611-copeland-partners-with-mysa-smart-thermostats</t>
+          <t>https://energiwatch.dk/Energinyt/strategi/article18179755.ece</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Danfoss launches CO2/water brazed heat exchanger for transcritical systems</t>
+          <t>Danfoss to showcase solutions that decarbonize transportation at ACT Expo 2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Danfoss has introduced a new CO2/water brazed heat exchanger, model H48T-CH, designed for use in CO2 transcritical systems.</t>
+          <t xml:space="preserve"> April 22, 2025 NORDBORG, Denmark – Danfoss will exhibit solutions that enable high-performance commercial vehicles at the Advanced Clean</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/new-items/danfoss-launches-co2-water-brazed-heat-exchanger-for-transcritical-systems/</t>
+          <t>https://www.ejarn.com/article/detail/88697</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Introducing the Danfoss CO₂/Water Brazed Heat Exchanger for Transcritical Systems</t>
+          <t>Danfoss and Assemblin Caverion Group strengthen partnership to drive building renovation and decarbonization</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are excited to announce the launch of our latest innovation in the Micro Plate™ technology—the CO /Water brazed heat exchanger (model H48T-CH). Designed</t>
+          <t xml:space="preserve"> April 2, 2025 Danfoss and Assemblin Caverion Group have reaffirmed their commitment to accelerating the decarbonization of buildings with a newly signed framework agreement.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dcs/introducing-the-danfoss-co2water-brazed-heat-exchanger-for-transcritical-systems/</t>
+          <t>https://www.ejarn.com/article/detail/88695</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability</t>
+          <t>At Copeland, we’ve developed robust and comprehensive solutions to tackle challenges across the entire lithium battery valu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability” classification, attention to safety, design and compliance is needed to adhere to Underwriters Laboratories (UL) compliance guidelines.Copeland is continuously improving compression and condensing unit technologies and is committed to developing safe, A2L-optimized compression, controls and electrical componentry.Read our latest blog that explores electrical component considerations fo</t>
+          <t>At Copeland, we’ve developed robust and comprehensive solutions to tackle challenges across the entire lithium battery value chain.Our cutting-edge solutions enable cost reduction and efficiency improvements across a diverse range of lithium battery applications—including R&amp;D, manufacturing, transportation, and energy storage &amp; E-bus thermal management.Visit our booth at #CIBF2025 to discover how we’re shaping a brighter future for the battery industry with our innovative solutions. Learn more at: https</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327724401351688194</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328237684320018434</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">The journey from cows to milk cartons requires a lot of energy and hot water, whether it’s for pasteurization, cleaning or </t>
+          <t>Innomotics and Danfoss Drives Strengthen Partnership to Deliver Comprehensive Motor and Drive Solutions</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The journey from cows to milk cartons requires a lot of energy and hot water, whether it’s for pasteurization, cleaning or other production processes. Copeland’s Vilter VQ95 #industrialheatpump is helping dairy facilities reclaim waste heat and cut fossil fuel use while enhancing performance. One prominent Canadian dairy producer is deploying the energy-efficient, ammonia-based VQ95 for its pasteurization and clean-in-place processes as part of its energy transition.Discover how we’re helping dairy facili</t>
+          <t xml:space="preserve"> Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328057250541903872</t>
+          <t>https://www.ejarn.com/article/detail/88694</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manag</t>
+          <t>Copeland Partners With Mysa Smart Thermostats</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manage the transition from defrost to cooling, ensuring optimal temperature, humidity, and airflow. Discover techniques like drip down time to prevent moisture spread and snap freezing to enhance system efficiency.  Listen to the full episode now: https://bit.ly/438NJyK#TakingTheTemperatureOnHVACR #Refrigeration #Cooling #EnergyEfficiency #DanfossClimateSolutions</t>
+          <t xml:space="preserve"> May 13, 2025 ST. LOUIS — Copeland is expanding its partnership with Mysa Smart Thermostats in the U.S. after successfully adding Mysa products to its portfolio in the Canadian market.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328015991475474434</t>
+          <t>https://www.achrnews.com/articles/164611-copeland-partners-with-mysa-smart-thermostats</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1360,17 +1360,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Copeland News</t>
+          <t>Danfoss launches CO2/water brazed heat exchanger for transcritical systems</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Copeland , formerly known as Emerson Climate Technologies, is a global leader in HVACR (heating, ventilation, air conditioning, and refrigeration) solutions.</t>
+          <t xml:space="preserve"> Danfoss has introduced a new CO2/water brazed heat exchanger, model H48T-CH, designed for use in CO2 transcritical systems.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.industryemea.com/companies/3780-copeland-news</t>
+          <t>https://refindustry.com/news/new-items/danfoss-launches-co2-water-brazed-heat-exchanger-for-transcritical-systems/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1382,17 +1382,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Copeland expands US partnership with Mysa smart thermostats</t>
+          <t>Introducing the Danfoss CO₂/Water Brazed Heat Exchanger for Transcritical Systems</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Copeland strengthens collaboration with Mysa to integrate their smart thermostat technology, offering enhanced energy efficiency and control for HVAC systems.</t>
+          <t xml:space="preserve"> We are excited to announce the launch of our latest innovation in the Micro Plate™ technology—the CO /Water brazed heat exchanger (model H48T-CH). Designed</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.industryemea.com/news/95110-copeland-expands-us-partnership-with-mysa-smart-thermostats</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dcs/introducing-the-danfoss-co2water-brazed-heat-exchanger-for-transcritical-systems/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1404,17 +1404,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in</t>
+          <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in Denmark, installed by Frigotermica s.r.l. on an offshore platform.This application demands maximum #reliability even under extreme conditions: a corrosion-resistant Peralluman structure, low-GWP #R1234ze #refrigerant and components optimized for high performance and continuous operation at ambient temperatures of up to 40°C.The core of the system? Our #reciprocating #compresso</t>
+          <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability” classification, attention to safety, design and compliance is needed to adhere to Underwriters Laboratories (UL) compliance guidelines.Copeland is continuously improving compression and condensing unit technologies and is committed to developing safe, A2L-optimized compression, controls and electrical componentry.Read our latest blog that explores electrical component considerations fo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327991912190111744</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327724401351688194</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1426,17 +1426,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sustainability is more than a goal at Copeland, it’s a steadfast commitment fueled by continuous innovation. Our variable s</t>
+          <t xml:space="preserve">The journey from cows to milk cartons requires a lot of energy and hot water, whether it’s for pasteurization, cleaning or </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sustainability is more than a goal at Copeland, it’s a steadfast commitment fueled by continuous innovation.Our variable speed solutions for energy storage, including ZEV/YEV compressors, deliver exceptional efficiency and reliability. Designed to support multiple low-GWP refrigerants, they address the global demand for low-carbon technologies.Join us at #CIBF2025 to explore how our advanced technologies are driving progress in energy storage.Learn more at: https://ow.ly/rAS650VQaY2</t>
+          <t>The journey from cows to milk cartons requires a lot of energy and hot water, whether it’s for pasteurization, cleaning or other production processes. Copeland’s Vilter VQ95 #industrialheatpump is helping dairy facilities reclaim waste heat and cut fossil fuel use while enhancing performance. One prominent Canadian dairy producer is deploying the energy-efficient, ammonia-based VQ95 for its pasteurization and clean-in-place processes as part of its energy transition.Discover how we’re helping dairy facili</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327875317472071682</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328057250541903872</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1448,127 +1448,127 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Copeland expands U.S. smart thermostat offering with Mysa partnership</t>
+          <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manag</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Copeland has announced the expansion of its partnership with Canadian-based Mysa Smart Thermostats to the U.S. market.</t>
+          <t>In our latest podcast episode, we talk all about the processes involved in refrigeration systems  Learn how to manage the transition from defrost to cooling, ensuring optimal temperature, humidity, and airflow. Discover techniques like drip down time to prevent moisture spread and snap freezing to enhance system efficiency.  Listen to the full episode now: https://bit.ly/438NJyK#TakingTheTemperatureOnHVACR #Refrigeration #Cooling #EnergyEfficiency #DanfossClimateSolutions</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/market-news/copeland-expands-u-s-smart-thermostat-offering-with-mysa-partnership/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328015991475474434</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability</t>
+          <t>Copeland News</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability” classification, attention to safety, design and compliance is needed to adhere to Underwriters Laboratories (UL) compliance guidelines.Copeland is continuously improving compression and condensing unit technologies and is committed to developing safe, A2L-optimized compression, controls and electrical componentry.Read our latest blog that explores electrical component considerations fo</t>
+          <t xml:space="preserve"> Copeland , formerly known as Emerson Climate Technologies, is a global leader in HVACR (heating, ventilation, air conditioning, and refrigeration) solutions.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327724401351688194</t>
+          <t>https://www.industryemea.com/companies/3780-copeland-news</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Copeland is proud to announce the expansion of smart thermostat options to the U.S. wholesale market. Adding to Copeland’s portf</t>
+          <t>Copeland expands US partnership with Mysa smart thermostats</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Copeland is proud to announce the expansion of smart thermostat options to the U.S. wholesale market. Adding to Copeland’s portfolio of Sensi smart thermostats, Mysa’s innovative solutions for in-floor, mini-split and baseboard heating systems will offer an unmatched range of sustainable options for homeowners.By leveraging Copeland’s extensive HVACR and electrical distribution network, this partnership expands our ability to deliver innovative, climate-friendly solutions to contractors and their custome</t>
+          <t>Copeland strengthens collaboration with Mysa to integrate their smart thermostat technology, offering enhanced energy efficiency and control for HVAC systems.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327686570721923073</t>
+          <t>https://www.industryemea.com/news/95110-copeland-expands-us-partnership-with-mysa-smart-thermostats</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Copeland Expands Partnership with Canadian-based Mysa Smart Thermostats in the U.S.</t>
+          <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ST. LOUIS (May 12, 2025) – Copeland, a global provider of sustainable climate solutions, has announced it is expanding its partnership with Mysa in</t>
+          <t>Five rooftop units equipped with #Frascold semi-hermetic #compressors are cooling the #electrical #substations of a wind farm in Denmark, installed by Frigotermica s.r.l. on an offshore platform.This application demands maximum #reliability even under extreme conditions: a corrosion-resistant Peralluman structure, low-GWP #R1234ze #refrigerant and components optimized for high performance and continuous operation at ambient temperatures of up to 40°C.The core of the system? Our #reciprocating #compresso</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.copeland.com/en-us/news/copeland-expands-partnership-with-mysa</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327991912190111744</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Discover how Building Automation and Control Systems (BACS) can transform energy use in Europe’s building stock. Buildings are c</t>
+          <t>Sustainability is more than a goal at Copeland, it’s a steadfast commitment fueled by continuous innovation. Our variable s</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Discover how Building Automation and Control Systems (BACS) can transform energy use in Europe’s building stock. Buildings are central to our lives, yet 75% of EU buildings are energy inefficient. The revised EPBD targets renovation to improve quality of life and combat climate change.  Join us as we’re kicking off the Retrofit RETHINK Live events season on May 27th, followed by another session on June 12th. Learn how BACS can boost your building’s value, cut energy bills, and improve comfort—all while st</t>
+          <t>Sustainability is more than a goal at Copeland, it’s a steadfast commitment fueled by continuous innovation.Our variable speed solutions for energy storage, including ZEV/YEV compressors, deliver exceptional efficiency and reliability. Designed to support multiple low-GWP refrigerants, they address the global demand for low-carbon technologies.Join us at #CIBF2025 to explore how our advanced technologies are driving progress in energy storage.Learn more at: https://ow.ly/rAS650VQaY2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327641203301052419</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327875317472071682</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-13</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copeland is proud to showcase our latest innovations at #CIBF2025 in Shenzhen, China, from May 15-17. Join us at Hall 13, Booth </t>
+          <t>Copeland expands U.S. smart thermostat offering with Mysa partnership</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Copeland is proud to showcase our latest innovations at #CIBF2025 in Shenzhen, China, from May 15-17. Join us at Hall 13, Booth T13065 to explore cutting-edge solutions for applications such as energy stations, E-buses, process heat pumps, test chambers, and process chillers.Experience live demonstrations, engage with industry experts, and discover tailored solutions that support a cleaner, more energy-efficient future.Learn more at: https://ow.ly/aBOM50VQ9Yo</t>
+          <t xml:space="preserve"> Copeland has announced the expansion of its partnership with Canadian-based Mysa Smart Thermostats to the U.S. market.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327512918676123648</t>
+          <t>https://refindustry.com/news/market-news/copeland-expands-u-s-smart-thermostat-offering-with-mysa-partnership/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1580,171 +1580,171 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Copeland’s Enhanced Vapor Injection (EVI) helps deliver superior performance in cold climates while supporting HVAC electrificat</t>
+          <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Copeland’s Enhanced Vapor Injection (EVI) helps deliver superior performance in cold climates while supporting HVAC electrification and decarbonization.Learn more: https://lnkd.in/gW95CwPf</t>
+          <t>A2L refrigerants present unique considerations for the commercial refrigeration sector. With their “lower flammability” classification, attention to safety, design and compliance is needed to adhere to Underwriters Laboratories (UL) compliance guidelines.Copeland is continuously improving compression and condensing unit technologies and is committed to developing safe, A2L-optimized compression, controls and electrical componentry.Read our latest blog that explores electrical component considerations fo</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328056504303964162</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327724401351688194</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>I recently had the opportunity to visit the PAK’n SAVE hypermarket in Pukekohe, #NewZealand. It was great to see that their refr</t>
+          <t>Copeland is proud to announce the expansion of smart thermostat options to the U.S. wholesale market. Adding to Copeland’s portf</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>I recently had the opportunity to visit the PAK’n SAVE hypermarket in Pukekohe, #NewZealand. It was great to see that their refrigeration plant has been successfully powered for nearly ten years by two Arneg #CO2 TK racks equipped with Officine Mario Dorin SpA #CD400 compressors.It’s a testament to the #reliability and #sustainability of our #compressors that it plays a vital role in keeping daily goods fresh for consumers #worldwide. We are proud to contribute to green #refrigeration with natural refrige</t>
+          <t>Copeland is proud to announce the expansion of smart thermostat options to the U.S. wholesale market. Adding to Copeland’s portfolio of Sensi smart thermostats, Mysa’s innovative solutions for in-floor, mini-split and baseboard heating systems will offer an unmatched range of sustainable options for homeowners.By leveraging Copeland’s extensive HVACR and electrical distribution network, this partnership expands our ability to deliver innovative, climate-friendly solutions to contractors and their custome</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327594875355336704</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327686570721923073</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-05-10</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Copeland is redefining the potential of sustainable CO₂ in HVACR systems. Partnering with a leading pharmacy retail innovat</t>
+          <t>Copeland Expands Partnership with Canadian-based Mysa Smart Thermostats in the U.S.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Copeland is redefining the potential of sustainable CO₂ in HVACR systems. Partnering with a leading pharmacy retail innovator, we helped them upgrade their CO2 refrigeration system to an integrated HVAC solution that provides year-round space cooling, heating and refrigeration.Designed with advanced heat reclaim and geothermal capabilities, the full system upgrade leverages Copeland’s end-to-end expertise in compression, controls, drives, and valves—the cutting edge of environmentally friendly innovation.</t>
+          <t xml:space="preserve"> ST. LOUIS (May 12, 2025) – Copeland, a global provider of sustainable climate solutions, has announced it is expanding its partnership with Mysa in</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326607574546403330</t>
+          <t>https://www.copeland.com/en-us/news/copeland-expands-partnership-with-mysa</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Wege zur effektiven Umsetzung des GEG</t>
+          <t>Discover how Building Automation and Control Systems (BACS) can transform energy use in Europe’s building stock. Buildings are c</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Das 2023 verabschiedete Gebäudeenergiegesetz (GEG) setzt EU-Recht in deutsches Recht um und gilt trotz vieler Kritikpunkte als Meilenstein auf dem Weg zu einem CO 2-neutralen Gebäudebestand. Für Anwender sind die komplexen Anforderungen jedoch oft nur schwer zu erfassen. Im Danfoss InTalk am 3. Juni 2025 erläutern Spezialisten von VDMA, Aedifion und Danfoss die wichtigsten Aspekte des GEG und zeigen, wie sich mit intelligenter Gebäudeautomation alle Vorgaben erfüllen sowie CO 2-Emissionen und Kosten dauerha</t>
+          <t>Discover how Building Automation and Control Systems (BACS) can transform energy use in Europe’s building stock. Buildings are central to our lives, yet 75% of EU buildings are energy inefficient. The revised EPBD targets renovation to improve quality of life and combat climate change.  Join us as we’re kicking off the Retrofit RETHINK Live events season on May 27th, followed by another session on June 12th. Learn how BACS can boost your building’s value, cut energy bills, and improve comfort—all while st</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.tab.de/news/wege-zur-effektiven-umsetzung-des-geg-4242116.html</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327641203301052419</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Why let heat go to waste when you can use it effectively?  Equipped with a precise stepper motor, the CTR 3-way adva</t>
+          <t xml:space="preserve">Copeland is proud to showcase our latest innovations at #CIBF2025 in Shenzhen, China, from May 15-17. Join us at Hall 13, Booth </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Why let heat go to waste when you can use it effectively?  Equipped with a precise stepper motor, the CTR 3-way advanced valve is perfect for various applications, offering compact, leak-tight solutions and easy disassembly for service. Watch our animation to see how it works, then head over to our website to learn even more  https://bit.ly/4fCI75z#Animation #CTR #RegulatingValve #HeatRecovery</t>
+          <t>Copeland is proud to showcase our latest innovations at #CIBF2025 in Shenzhen, China, from May 15-17. Join us at Hall 13, Booth T13065 to explore cutting-edge solutions for applications such as energy stations, E-buses, process heat pumps, test chambers, and process chillers.Experience live demonstrations, engage with industry experts, and discover tailored solutions that support a cleaner, more energy-efficient future.Learn more at: https://ow.ly/aBOM50VQ9Yo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326554070008180740</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327512918676123648</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-12</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are pleased to welcome Lorenzo Fanetti, R&amp;D Manager / Technical Office at Officine Mario Dorin S.p.A., as a spea</t>
+          <t>Copeland’s Enhanced Vapor Injection (EVI) helps deliver superior performance in cold climates while supporting HVAC electrificat</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are pleased to welcome Lorenzo Fanetti, R&amp;D Manager / Technical Office at Officine Mario Dorin S.p.A., as a speaker at the XXI European Conference on the Latest Technologies in Refrigeration and Air Conditioning. He will speak during Session II – “New Components and Equipment with Alternative Refrigerants Considering Energy Efficiency and Environmental Challenges”, on Thursday, 12 June 2025, from 14:00 to 17:30. Title: Design Analysis and Experimental Testing on a Reciprocating Compressor for Hydr</t>
+          <t>Copeland’s Enhanced Vapor Injection (EVI) helps deliver superior performance in cold climates while supporting HVAC electrification and decarbonization.Learn more: https://lnkd.in/gW95CwPf</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327620757688082432</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7328056504303964162</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The future of #HVACR is now. Are you ready to lead the change? For the first time, #Frascold organizes an exclusive</t>
+          <t>I recently had the opportunity to visit the PAK’n SAVE hypermarket in Pukekohe, #NewZealand. It was great to see that their refr</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The future of #HVACR is now. Are you ready to lead the change?For the first time, #Frascold organizes an exclusive #Technical #Seminar, in collaboration with the Dipartimento di Ingegneria Industriale - DII UNIPD of the University of Padova, to explore one of the industry’s most pressing topics: the evolution of HVAC/R systems with #hydrocarbons, safety, efficiency and new market opportunities. May 23rd, 2025 – Le Village by CA Triveneto, Padua Industry experts, companies and academics will come to</t>
+          <t>I recently had the opportunity to visit the PAK’n SAVE hypermarket in Pukekohe, #NewZealand. It was great to see that their refrigeration plant has been successfully powered for nearly ten years by two Arneg #CO2 TK racks equipped with Officine Mario Dorin SpA #CD400 compressors.It’s a testament to the #reliability and #sustainability of our #compressors that it plays a vital role in keeping daily goods fresh for consumers #worldwide. We are proud to contribute to green #refrigeration with natural refrige</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326541195730419712</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327594875355336704</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Copeland to Be Stronger with Right Investments in Right Areas</t>
+          <t>Copeland is redefining the potential of sustainable CO₂ in HVACR systems. Partnering with a leading pharmacy retail innovat</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In May 2023, Copeland, a global provider of sustainable climate solutions in the heating, ventilation, air conditioning, and refrigeration (HVAC&amp;R) industry, separated from Emerson and became a standalone business.</t>
+          <t>Copeland is redefining the potential of sustainable CO₂ in HVACR systems. Partnering with a leading pharmacy retail innovator, we helped them upgrade their CO2 refrigeration system to an integrated HVAC solution that provides year-round space cooling, heating and refrigeration.Designed with advanced heat reclaim and geothermal capabilities, the full system upgrade leverages Copeland’s end-to-end expertise in compression, controls, drives, and valves—the cutting edge of environmentally friendly innovation.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/83247</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326607574546403330</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1756,127 +1756,127 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The cold chain plays a vital role in preserving perishables and pharmaceuticals, but it also has a significant environmental imp</t>
+          <t>Wege zur effektiven Umsetzung des GEG</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The cold chain plays a vital role in preserving perishables and pharmaceuticals, but it also has a significant environmental impact. As demand continues to grow, it’s more important than ever to make this essential sector more sustainable.Michael Toh, President of Asia Pacific at Copeland, outlines how advanced technologies, low-GWP refrigerants, and sustainable innovation are reshaping Asia’s cold chain to reduce emissions and improve efficiency. Discover how Copeland is making an impact in Industrial</t>
+          <t>Das 2023 verabschiedete Gebäudeenergiegesetz (GEG) setzt EU-Recht in deutsches Recht um und gilt trotz vieler Kritikpunkte als Meilenstein auf dem Weg zu einem CO 2-neutralen Gebäudebestand. Für Anwender sind die komplexen Anforderungen jedoch oft nur schwer zu erfassen. Im Danfoss InTalk am 3. Juni 2025 erläutern Spezialisten von VDMA, Aedifion und Danfoss die wichtigsten Aspekte des GEG und zeigen, wie sich mit intelligenter Gebäudeautomation alle Vorgaben erfüllen sowie CO 2-Emissionen und Kosten dauerha</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326290333405761536</t>
+          <t>https://www.tab.de/news/wege-zur-effektiven-umsetzung-des-geg-4242116.html</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>On April 29, Copeland sites around the globe took part in our annual Safety Day initiatives, a dedicated time to reinforce our c</t>
+          <t>Why let heat go to waste when you can use it effectively?  Equipped with a precise stepper motor, the CTR 3-way adva</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>On April 29, Copeland sites around the globe took part in our annual Safety Day initiatives, a dedicated time to reinforce our commitment to keeping every colleague safe, every day. Teams engaged in activities like risk assessments, hazard hunts, and #kaizen events to identify and address potential risks. These efforts not only strengthen our safety culture but also empower employees to take ownership of creating a safer workplace for everyone.Safety is more than a policy; it’s a shared responsibility. S</t>
+          <t>Why let heat go to waste when you can use it effectively?  Equipped with a precise stepper motor, the CTR 3-way advanced valve is perfect for various applications, offering compact, leak-tight solutions and easy disassembly for service. Watch our animation to see how it works, then head over to our website to learn even more  https://bit.ly/4fCI75z#Animation #CTR #RegulatingValve #HeatRecovery</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326229667726741505</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326554070008180740</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>High temperature, low emissions: discover #Frascold’s ATEX-HT series! In an #HVAC market increasingly focused on #sustainab</t>
+          <t xml:space="preserve"> We are pleased to welcome Lorenzo Fanetti, R&amp;D Manager / Technical Office at Officine Mario Dorin S.p.A., as a spea</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>High temperature, low emissions: discover #Frascold’s ATEX-HT series!In an #HVAC market increasingly focused on #sustainability, Frascold expands its reach with ATEX-HT, a new generation of semi-hermetic #compressors designed to operate with #NaturalRefrigerants such as #R290, #butane and #isobutane. Ideal for #HighTemperature #HeatPumps, these compressors can reach up to 13502f°C, delivering top performance in terms of efficiency, reliability and flexibility, while making a real contribution to #decarbo</t>
+          <t xml:space="preserve"> We are pleased to welcome Lorenzo Fanetti, R&amp;D Manager / Technical Office at Officine Mario Dorin S.p.A., as a speaker at the XXI European Conference on the Latest Technologies in Refrigeration and Air Conditioning. He will speak during Session II – “New Components and Equipment with Alternative Refrigerants Considering Energy Efficiency and Environmental Challenges”, on Thursday, 12 June 2025, from 14:00 to 17:30. Title: Design Analysis and Experimental Testing on a Reciprocating Compressor for Hydr</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326174604366954496</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7327620757688082432</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frascold Expands HVAC Presence with ATEX-HT semi-hermetic compressors</t>
+          <t xml:space="preserve"> The future of #HVACR is now. Are you ready to lead the change? For the first time, #Frascold organizes an exclusive</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Frascold has expanded its presence in the HVAC field by introducing a new generation of semi-hermetic compressors capable of reaching fluid temperatures up to 135C. Frascold’s ATEX-HT series of compressors, designed for use with hydrocarbons like propane, butane, and isobutane, offer high performance, reliability, and efficiency, making them ideal for reducing emissions in heating and air conditioning systems in various industrial and commercial settings. The company’s commitment to sustainable innovation and deep understanding of industry needs, as highlighted by Livio Calabrese, Sales and Marketing Director at Frascold, underscores their strategic vision to reduce operating costs and actively contribute to customers’ energy transition.</t>
+          <t xml:space="preserve"> The future of #HVACR is now. Are you ready to lead the change?For the first time, #Frascold organizes an exclusive #Technical #Seminar, in collaboration with the Dipartimento di Ingegneria Industriale - DII UNIPD of the University of Padova, to explore one of the industry’s most pressing topics: the evolution of HVAC/R systems with #hydrocarbons, safety, efficiency and new market opportunities. May 23rd, 2025 – Le Village by CA Triveneto, Padua Industry experts, companies and academics will come to</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.frascold.it/en/news-events-research-and-innovation/frascold-atex-ht-series</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326541195730419712</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rogerio Federici reflects on the three decades of leading oil-free technology that has transformed the industry. Since the first</t>
+          <t>Copeland to Be Stronger with Right Investments in Right Areas</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rogerio Federici reflects on the three decades of leading oil-free technology that has transformed the industry. Since the first compressor prototype in 1995, Turbocor® has led the shift towards oil-free solutions, inspiring teams, customers, and even competitors.  As we celebrate this milestone, we embrace the future of oil-free technology in the industry.  Learn more about our solutions and their impact: https://bit.ly/4iCk2Me#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainab</t>
+          <t xml:space="preserve"> In May 2023, Copeland, a global provider of sustainable climate solutions in the heating, ventilation, air conditioning, and refrigeration (HVAC&amp;R) industry, separated from Emerson and became a standalone business.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326161448139710466</t>
+          <t>https://www.ejarn.com/article/detail/83247</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-09</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Thank you, China! Last week, we had the great pleasure of participating in China Refrigeration 2025, one of the most important g</t>
+          <t>The cold chain plays a vital role in preserving perishables and pharmaceuticals, but it also has a significant environmental imp</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Thank you, China!Last week, we had the great pleasure of participating in China Refrigeration 2025, one of the most important global exhibition in the HVAC-R industry.It was an exceptional opportunity to connect with partners, customers, and professionals from around the world, share our latest solutions, and explore emerging market trends.A heartfelt thank you to everyone who visited our booth—and a special thanks to our Fujian Snowman Group Co., Ltd. colleagues for the outstanding organization and wa</t>
+          <t>The cold chain plays a vital role in preserving perishables and pharmaceuticals, but it also has a significant environmental impact. As demand continues to grow, it’s more important than ever to make this essential sector more sustainable.Michael Toh, President of Asia Pacific at Copeland, outlines how advanced technologies, low-GWP refrigerants, and sustainable innovation are reshaping Asia’s cold chain to reduce emissions and improve efficiency. Discover how Copeland is making an impact in Industrial</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326159570936983552</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326290333405761536</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1888,127 +1888,127 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Frascold upgrades ATEX HT compressors</t>
+          <t>On April 29, Copeland sites around the globe took part in our annual Safety Day initiatives, a dedicated time to reinforce our c</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ITALY: Frascold has upgraded and extended its range of ATEX HT series semi-hermetic piston compressors for hydrocarbon refrigerants.</t>
+          <t>On April 29, Copeland sites around the globe took part in our annual Safety Day initiatives, a dedicated time to reinforce our commitment to keeping every colleague safe, every day. Teams engaged in activities like risk assessments, hazard hunts, and #kaizen events to identify and address potential risks. These efforts not only strengthen our safety culture but also empower employees to take ownership of creating a safer workplace for everyone.Safety is more than a policy; it’s a shared responsibility. S</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.coolingpost.com/products/frascold-upgrades-atex-ht-compressors/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326229667726741505</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Copeland is accelerating growth through strategic investments in HVACR innovation. In an interview with JARN Ltd., CEO Ross B. S</t>
+          <t>High temperature, low emissions: discover #Frascold’s ATEX-HT series! In an #HVAC market increasingly focused on #sustainab</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Copeland is accelerating growth through strategic investments in HVACR innovation. In an interview with JARN Ltd., CEO Ross B. Shuster shares his thoughts on the company’s focus on key growth areas — including advancements in heat pumps, commercial and industrial products, innovative controls and groundbreaking R&amp;D efforts. A standout example is the oil-free centrifugal compressor, engineered for efficient and sustainable cooling.Learn more about how Copeland is helping to shape the future of the HVACR in</t>
+          <t>High temperature, low emissions: discover #Frascold’s ATEX-HT series!In an #HVAC market increasingly focused on #sustainability, Frascold expands its reach with ATEX-HT, a new generation of semi-hermetic #compressors designed to operate with #NaturalRefrigerants such as #R290, #butane and #isobutane. Ideal for #HighTemperature #HeatPumps, these compressors can reach up to 13502f°C, delivering top performance in terms of efficiency, reliability and flexibility, while making a real contribution to #decarbo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325942941267435520</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326174604366954496</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Join Copeland’s Jennifer Butsch, director of regulatory affairs, and Brad Gross, product marketing manager, in the Air Cond</t>
+          <t>Frascold Expands HVAC Presence with ATEX-HT semi-hermetic compressors</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Join Copeland’s Jennifer Butsch, director of regulatory affairs, and Brad Gross, product marketing manager, in the Air Conditioning Contractors of America (ACCA) webinar, “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations.” They will explore the rapid advancements in HVACR and discuss how these innovations are transforming the way residential contractors approach service, supply and system performance.This session will help equip contractors with the knowledge and tools needed</t>
+          <t>Frascold has expanded its presence in the HVAC field by introducing a new generation of semi-hermetic compressors capable of reaching fluid temperatures up to 135C. Frascold’s ATEX-HT series of compressors, designed for use with hydrocarbons like propane, butane, and isobutane, offer high performance, reliability, and efficiency, making them ideal for reducing emissions in heating and air conditioning systems in various industrial and commercial settings. The company’s commitment to sustainable innovation and deep understanding of industry needs, as highlighted by Livio Calabrese, Sales and Marketing Director at Frascold, underscores their strategic vision to reduce operating costs and actively contribute to customers’ energy transition.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325897314416369665</t>
+          <t>https://www.frascold.it/en/news-events-research-and-innovation/frascold-atex-ht-series</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Join Torben Funder-Kristensen as he explores the developments in refrigerants over the past decade. The industry is transitionin</t>
+          <t>Rogerio Federici reflects on the three decades of leading oil-free technology that has transformed the industry. Since the first</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Join Torben Funder-Kristensen as he explores the developments in refrigerants over the past decade. The industry is transitioning towards refrigerants with reduced environmental impact, influenced by international agreements like the Montreal Protocol. Discover innovative solutions for natural refrigerants such as CO₂ and ammonia.02f  Stay informed on the latest trends and challenges in refrigerant technology: https://bit.ly/4iCk2Me#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustain</t>
+          <t>Rogerio Federici reflects on the three decades of leading oil-free technology that has transformed the industry. Since the first compressor prototype in 1995, Turbocor® has led the shift towards oil-free solutions, inspiring teams, customers, and even competitors.  As we celebrate this milestone, we embrace the future of oil-free technology in the industry.  Learn more about our solutions and their impact: https://bit.ly/4iCk2Me#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainab</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325852002243022848</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326161448139710466</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Netzwerkservice bei Semikron Danfoss</t>
+          <t>Thank you, China! Last week, we had the great pleasure of participating in China Refrigeration 2025, one of the most important g</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IT-Netzwerkservice: Übernahme für kritische Hausnetzwerkinfrastruktur (PresseBox) ( Semikron-Danfoss stand vor der Herausforderung, seine veraltete Netzwerkinfrastruktur zu modernisieren.</t>
+          <t>Thank you, China!Last week, we had the great pleasure of participating in China Refrigeration 2025, one of the most important global exhibition in the HVAC-R industry.It was an exceptional opportunity to connect with partners, customers, and professionals from around the world, share our latest solutions, and explore emerging market trends.A heartfelt thank you to everyone who visited our booth—and a special thanks to our Fujian Snowman Group Co., Ltd. colleagues for the outstanding organization and wa</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.pressebox.de/pressemitteilung/hws-informationssysteme-gmbh/netzwerkservice-bei-semikron-danfoss/boxid/1248200</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7326159570936983552</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-08</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>We’re excited to share that #OfficineMarioDorin will be joining #ATMOAustralia 2025 as a proud #BronzeSponsor, -5 days! \u</t>
+          <t>Frascold upgrades ATEX HT compressors</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>We’re excited to share that #OfficineMarioDorin will be joining #ATMOAustralia 2025 as a proud #BronzeSponsor, -5 days!  With over 107 years of expertise and a strong commitment to climate-responsible innovation, we’re dedicated to supporting the #HVACR industry’s transition to #naturalrefrigerants - driving performance, sustainability, and future-ready solutions.ATMOsphere - Adrian Muresan#Dorin #Compressors #Born2Freeze #since1918 #34yearsCO2 #passion#familybusiness #RefrigerationTech #CO2cooling #</t>
+          <t>ITALY: Frascold has upgraded and extended its range of ATEX HT series semi-hermetic piston compressors for hydrocarbon refrigerants.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325785091845087232</t>
+          <t>https://www.coolingpost.com/products/frascold-upgrades-atex-ht-compressors/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2020,127 +2020,127 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Copeland is committed to lowering carbon emissions by recycling and recovering reusable materials from millions of devices world</t>
+          <t>Copeland is accelerating growth through strategic investments in HVACR innovation. In an interview with JARN Ltd., CEO Ross B. S</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Copeland is committed to lowering carbon emissions by recycling and recovering reusable materials from millions of devices worldwide. Through GO GreenSense, we’ve been providing proven support for a greener supply chain for nearly a decade. We believe innovation is key to sustainability. GO GreenSense demonstrates how smart solutions can effectively lower carbon footprints without compromise. Learn more about how we are building a future where reducing emissions is embedded in the supply chain: https://</t>
+          <t>Copeland is accelerating growth through strategic investments in HVACR innovation. In an interview with JARN Ltd., CEO Ross B. Shuster shares his thoughts on the company’s focus on key growth areas — including advancements in heat pumps, commercial and industrial products, innovative controls and groundbreaking R&amp;D efforts. A standout example is the oil-free centrifugal compressor, engineered for efficient and sustainable cooling.Learn more about how Copeland is helping to shape the future of the HVACR in</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325580452562423809</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325942941267435520</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">It’s important that specifying engineers and contractors know the new requirements and risk mitigation measures that apply </t>
+          <t>Join Copeland’s Jennifer Butsch, director of regulatory affairs, and Brad Gross, product marketing manager, in the Air Cond</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>It’s important that specifying engineers and contractors know the new requirements and risk mitigation measures that apply to A2Ls, both to ensure safety and alleviate retailers’ concerns. Copeland is committed to supporting specifying engineers and contractors with a range of A2L system options and next-generation equipment strategies.In our latest blog, explore the electrical component considerations for A2L system safety: https://ow.ly/HuLh50VNU6V#CommercialRefrigeration #RefrigerationSafety #A2LSyst</t>
+          <t>Join Copeland’s Jennifer Butsch, director of regulatory affairs, and Brad Gross, product marketing manager, in the Air Conditioning Contractors of America (ACCA) webinar, “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations.” They will explore the rapid advancements in HVACR and discuss how these innovations are transforming the way residential contractors approach service, supply and system performance.This session will help equip contractors with the knowledge and tools needed</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325552477532000256</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325897314416369665</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Danfoss Power Solutions launches ET500 lightweight portable crimp machine, increasing safety and easing hose service in the fiel</t>
+          <t>Join Torben Funder-Kristensen as he explores the developments in refrigerants over the past decade. The industry is transitionin</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>– Danfoss Power Solutions today announced the launch of its ET500 lightweight crimper, a portable crimping machine that simplifies hydraulic hose field service and repair. Weighing just 29 pounds, the ET500 sets a new standard for portability and ease of use. The compact device is currently available in the Americas and is ideal for a variety of markets, including material handling, industrial, construction rental equipment, railway, and mining, among others.</t>
+          <t>Join Torben Funder-Kristensen as he explores the developments in refrigerants over the past decade. The industry is transitioning towards refrigerants with reduced environmental impact, influenced by international agreements like the Montreal Protocol. Discover innovative solutions for natural refrigerants such as CO₂ and ammonia.02f  Stay informed on the latest trends and challenges in refrigerant technology: https://bit.ly/4iCk2Me#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustain</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-et500-lightweight-portable-crimp-machine-increasing-safety-and-easing-hose-service-in-the-field/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325852002243022848</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mark your calendars for May 27, 2025, at 11:00 CET, as we’re hosting an online session; Retrofitting Commercial Buildings: How E</t>
+          <t>Netzwerkservice bei Semikron Danfoss</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mark your calendars for May 27, 2025, at 11:00 CET, as we’re hosting an online session; Retrofitting Commercial Buildings: How EPBD &amp; Danfoss Solutions Drive Energy Efficiency. Our speakers, Kaj Väätäjä, Miha Bobic, and Gaia Balzarini will explain why BACS matters and showcase how Danfoss solutions can help you turn regulations into opportunities to save energy while enhancing tenant comfort.  Online Event02f  Event Date: May 27, 202502f  Time: 11:00 CET  Sign-up now: https://bit.ly/44tllty#Danfo</t>
+          <t xml:space="preserve"> IT-Netzwerkservice: Übernahme für kritische Hausnetzwerkinfrastruktur (PresseBox) ( Semikron-Danfoss stand vor der Herausforderung, seine veraltete Netzwerkinfrastruktur zu modernisieren.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325478203613999105</t>
+          <t>https://www.pressebox.de/pressemitteilung/hws-informationssysteme-gmbh/netzwerkservice-bei-semikron-danfoss/boxid/1248200</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>In the high-temperature #HeatPump sector, the need for solutions that ensure high performance with a reduced environmental impac</t>
+          <t>We’re excited to share that #OfficineMarioDorin will be joining #ATMOAustralia 2025 as a proud #BronzeSponsor, -5 days! \u</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>In the high-temperature #HeatPump sector, the need for solutions that ensure high performance with a reduced environmental impact is becoming increasingly evident. The #Frascold ATEX-HT series has been developed to meet this demand, offering energy efficiency, reliability and compatibility with #R290.A recent application example is the new #HeatPump by Tecnofreddo S.r.l., developed with ATEX-HT compressors and capable of reaching temperatures up to 80°C. This #CaseStudy demonstrates how choosing the right</t>
+          <t>We’re excited to share that #OfficineMarioDorin will be joining #ATMOAustralia 2025 as a proud #BronzeSponsor, -5 days!  With over 107 years of expertise and a strong commitment to climate-responsible innovation, we’re dedicated to supporting the #HVACR industry’s transition to #naturalrefrigerants - driving performance, sustainability, and future-ready solutions.ATMOsphere - Adrian Muresan#Dorin #Compressors #Born2Freeze #since1918 #34yearsCO2 #passion#familybusiness #RefrigerationTech #CO2cooling #</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325437138886377472</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325785091845087232</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-05-06</t>
+          <t>2025-05-07</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Frascold Launches ATEX-HT Compressors for High-Temperature Applications</t>
+          <t>Copeland is committed to lowering carbon emissions by recycling and recovering reusable materials from millions of devices world</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frascold has introduced its new ATEX-HT series of semi-hermetic piston compressors, designed to support high-temperature heat pump applications with</t>
+          <t>Copeland is committed to lowering carbon emissions by recycling and recovering reusable materials from millions of devices worldwide. Through GO GreenSense, we’ve been providing proven support for a greener supply chain for nearly a decade. We believe innovation is key to sustainability. GO GreenSense demonstrates how smart solutions can effectively lower carbon footprints without compromise. Learn more about how we are building a future where reducing emissions is embedded in the supply chain: https://</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/new-items/frascold-launches-atex-ht-compressors-for-high-temperature-applications/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325580452562423809</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2152,391 +2152,391 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Introducing Scout—the innovative AI feature now available in Copeland Mobile. Scout is built to deliver HVACR-based answers</t>
+          <t xml:space="preserve">It’s important that specifying engineers and contractors know the new requirements and risk mitigation measures that apply </t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Introducing Scout—the innovative AI feature now available in Copeland Mobile. Scout is built to deliver HVACR-based answers tailored for professionals—helping streamline product installation, troubleshooting, and diagnostics, all within the Copeland Mobile app. Whether you’re looking for technical specifications or need help troubleshooting equipment issues, Scout is here to help enhance your workflow with precise, reliable support. See Scout in action: https://ow.ly/SCZG50VMXUb</t>
+          <t>It’s important that specifying engineers and contractors know the new requirements and risk mitigation measures that apply to A2Ls, both to ensure safety and alleviate retailers’ concerns. Copeland is committed to supporting specifying engineers and contractors with a range of A2L system options and next-generation equipment strategies.In our latest blog, explore the electrical component considerations for A2L system safety: https://ow.ly/HuLh50VNU6V#CommercialRefrigeration #RefrigerationSafety #A2LSyst</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325172941233553408</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325552477532000256</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Experts from Copeland and Ecozen will be speaking at AEEE’s Eye on Zero webinar on 9 May. Explore innovative technologies d</t>
+          <t>Danfoss Power Solutions launches ET500 lightweight portable crimp machine, increasing safety and easing hose service in the fiel</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Experts from Copeland and Ecozen will be speaking at AEEE’s Eye on Zero webinar on 9 May. Explore innovative technologies driving a sustainable cold chain—register now: https://lnkd.in/g2vYQQNX Copeland</t>
+          <t>– Danfoss Power Solutions today announced the launch of its ET500 lightweight crimper, a portable crimping machine that simplifies hydraulic hose field service and repair. Weighing just 29 pounds, the ET500 sets a new standard for portability and ease of use. The compact device is currently available in the Americas and is ideal for a variety of markets, including material handling, industrial, construction rental equipment, railway, and mining, among others.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325894389870800898</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-et500-lightweight-portable-crimp-machine-increasing-safety-and-easing-hose-service-in-the-field/</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GEA at #ChinaRef: Pioneering the Future of Green Refrigeration!  Last week, the China Refrigeration Exhibition in Sh</t>
+          <t>Mark your calendars for May 27, 2025, at 11:00 CET, as we’re hosting an online session; Retrofitting Commercial Buildings: How E</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GEA at #ChinaRef: Pioneering the Future of Green Refrigeration! Last week, the China Refrigeration Exhibition in Shanghai brought together over 1,100 enterprises from more than 30 regions to exchange and discuss the latest news in refrigeration technology and green innovation. GEA participated under the theme "Re:think refrigeration," showcasing our groundbreaking advancements in heating and cooling. Innovative Products Award Our GEA Grasso L XHP compressor was honored as an “Innovative Product of Re</t>
+          <t>Mark your calendars for May 27, 2025, at 11:00 CET, as we’re hosting an online session; Retrofitting Commercial Buildings: How EPBD &amp; Danfoss Solutions Drive Energy Efficiency. Our speakers, Kaj Väätäjä, Miha Bobic, and Gaia Balzarini will explain why BACS matters and showcase how Danfoss solutions can help you turn regulations into opportunities to save energy while enhancing tenant comfort.  Online Event02f  Event Date: May 27, 202502f  Time: 11:00 CET  Sign-up now: https://bit.ly/44tllty#Danfo</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325142711362039809</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325478203613999105</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Carsten Dahlgaard talked all about our industrial solutions focused on energy savings and charge reduction at this year’s C</t>
+          <t>In the high-temperature #HeatPump sector, the need for solutions that ensure high performance with a reduced environmental impac</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Carsten Dahlgaard talked all about our industrial solutions focused on energy savings and charge reduction at this year’s China Ref Expo:  NeoCharge - capable of reducing system charge by up to 40%, enabling DX systems to run without superheat  Air Purger for optimal system performance  Transcritical CO₂ solutions for large industrial systems Learn more about these solutions and how they can help you: https://bit.ly/4k3tCc8#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainabi</t>
+          <t>In the high-temperature #HeatPump sector, the need for solutions that ensure high performance with a reduced environmental impact is becoming increasingly evident. The #Frascold ATEX-HT series has been developed to meet this demand, offering energy efficiency, reliability and compatibility with #R290.A recent application example is the new #HeatPump by Tecnofreddo S.r.l., developed with ATEX-HT compressors and capable of reaching temperatures up to 80°C. This #CaseStudy demonstrates how choosing the right</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325108259399348225</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325437138886377472</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Fernwärme-Konferenz 2025 - live online kostenfrei</t>
+          <t>Frascold Launches ATEX-HT Compressors for High-Temperature Applications</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Unter dem Motto "Transformation, Wärmeplanung und Best Practices" werden Danfoss und Branchenexperten in neun Live-online Vorträgen relevante Themen der Planung, Umsetzung und Entwicklung von Fernwärmenetzen sowie deren Dekarbonisierung erörtern. Melden Sie sich noch heute kostenlos an und sichern Sie sich schon jetzt Ihren Platz!</t>
+          <t xml:space="preserve"> Frascold has introduced its new ATEX-HT series of semi-hermetic piston compressors, designed to support high-temperature heat pump applications with</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.haustechnikdialog.de/News/30321/Fernwaerme-Konferenz-2025-live-online-kostenfrei</t>
+          <t>https://refindustry.com/news/new-items/frascold-launches-atex-ht-compressors-for-high-temperature-applications/</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-06</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Danfoss Achieves ESR Distinction in Mexico for the 15th Consecutive Year</t>
+          <t>Introducing Scout—the innovative AI feature now available in Copeland Mobile. Scout is built to deliver HVACR-based answers</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Danfoss México announced that it has been awarded the distinction of the Empresa Socialmente Responsable (ESR), which means socially responsible company, for the 15th consecutive year.</t>
+          <t>Introducing Scout—the innovative AI feature now available in Copeland Mobile. Scout is built to deliver HVACR-based answers tailored for professionals—helping streamline product installation, troubleshooting, and diagnostics, all within the Copeland Mobile app. Whether you’re looking for technical specifications or need help troubleshooting equipment issues, Scout is here to help enhance your workflow with precise, reliable support. See Scout in action: https://ow.ly/SCZG50VMXUb</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88557</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325172941233553408</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-05</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition | Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Review of highlights of Snowman Refr</t>
+          <t>Experts from Copeland and Ecozen will be speaking at AEEE’s Eye on Zero webinar on 9 May. Explore innovative technologies d</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition | Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Review of highlights of Snowman Refrigeration ExhibitionFrom April 27 to 29, the 36th China Refrigeration Exhibition was grandly held at the Shanghai New International Expo Center. As the world’s leading manufacturer of cold and hot equipment and system integration service provider, Snowman Group took " Smart Leadership in Low-Carbon, Harmonizing Cool and Warm " as the theme of this exhibition, and brought its full</t>
+          <t>Experts from Copeland and Ecozen will be speaking at AEEE’s Eye on Zero webinar on 9 May. Explore innovative technologies driving a sustainable cold chain—register now: https://lnkd.in/g2vYQQNX Copeland</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7324348634555174913</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325894389870800898</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-05</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Copeland’s Heating Solution Empowers Green Campus</t>
+          <t>GEA at #ChinaRef: Pioneering the Future of Green Refrigeration!  Last week, the China Refrigeration Exhibition in Sh</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On March 12, Copeland, a global leader in sustainable climate solutions, announced its partnership with Euroklimat to deliver an ultra-low-temperature</t>
+          <t>GEA at #ChinaRef: Pioneering the Future of Green Refrigeration! Last week, the China Refrigeration Exhibition in Shanghai brought together over 1,100 enterprises from more than 30 regions to exchange and discuss the latest news in refrigeration technology and green innovation. GEA participated under the theme "Re:think refrigeration," showcasing our groundbreaking advancements in heating and cooling. Innovative Products Award Our GEA Grasso L XHP compressor was honored as an “Innovative Product of Re</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88541</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325142711362039809</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-05</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Frascold Expands Compressor Capabilities with 2025 Launch</t>
+          <t>Carsten Dahlgaard talked all about our industrial solutions focused on energy savings and charge reduction at this year’s C</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frascold has designed a new generation of semi-hermetic compressors, set to launch in 2025, specifically developed to go beyond current market limits and meet increasingly complex requirements.</t>
+          <t>Carsten Dahlgaard talked all about our industrial solutions focused on energy savings and charge reduction at this year’s China Ref Expo:  NeoCharge - capable of reducing system charge by up to 40%, enabling DX systems to run without superheat  Air Purger for optimal system performance  Transcritical CO₂ solutions for large industrial systems Learn more about these solutions and how they can help you: https://bit.ly/4k3tCc8#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainabi</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88534</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7325108259399348225</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-05</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jakob Jul Jensen discusses the growing demand for data centers and AI applications around the world at China Ref 2025. While air</t>
+          <t>Fernwärme-Konferenz 2025 - live online kostenfrei</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jakob Jul Jensen discusses the growing demand for data centers and AI applications around the world at China Ref 2025. While air cooling is prevalent in China, the shift towards direct liquid cooling is emerging as a significant trend, expected to grow substantially over the next three years.  Discover how we’re supporting this dynamic market and advancing cooling solutions: https://bit.ly/3RH1FuQ#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainability</t>
+          <t>Unter dem Motto "Transformation, Wärmeplanung und Best Practices" werden Danfoss und Branchenexperten in neun Live-online Vorträgen relevante Themen der Planung, Umsetzung und Entwicklung von Fernwärmenetzen sowie deren Dekarbonisierung erörtern. Melden Sie sich noch heute kostenlos an und sichern Sie sich schon jetzt Ihren Platz!</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7324024872911724544</t>
+          <t>https://www.haustechnikdialog.de/News/30321/Fernwaerme-Konferenz-2025-live-online-kostenfrei</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">"This investment marks a pivotal step in advancing clean energy solutions and driving economic growth,” said Sandro Matic, </t>
+          <t>Danfoss Achieves ESR Distinction in Mexico for the 15th Consecutive Year</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>"This investment marks a pivotal step in advancing clean energy solutions and driving economic growth,” said Sandro Matic, president, Europe for Copeland. “By expanding our manufacturing capabilities for heating solutions here in Northern Ireland, Copeland is proud to play a key role in helping to reduce reliance on fossil fuels and supporting the energy transition to more sustainable, electricity-powered heating."</t>
+          <t xml:space="preserve"> Danfoss México announced that it has been awarded the distinction of the Empresa Socialmente Responsable (ESR), which means socially responsible company, for the 15th consecutive year.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7324115490560258050</t>
+          <t>https://www.ejarn.com/article/detail/88557</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>UK Government Invests £4.6M in Copeland to Boost Domestic Heat Pump Manufacturing</t>
+          <t>China Refrigeration Exhibition | Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Review of highlights of Snowman Refr</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The UK government has announced a £4.6 million investment in Copeland to expand domestic production of key heat pump components, supporting local</t>
+          <t>China Refrigeration Exhibition | Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Review of highlights of Snowman Refrigeration ExhibitionFrom April 27 to 29, the 36th China Refrigeration Exhibition was grandly held at the Shanghai New International Expo Center. As the world’s leading manufacturer of cold and hot equipment and system integration service provider, Snowman Group took " Smart Leadership in Low-Carbon, Harmonizing Cool and Warm " as the theme of this exhibition, and brought its full</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/market-news/uk-government-invests-4-6m-in-copeland-to-boost-domestic-heat-pump-manufacturing/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7324348634555174913</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2025-05-03</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>The HVACR landscape is evolving rapidly. Join Copeland and ACCA on May 14 for a free webinar featuring expert insights from Jenn</t>
+          <t>Copeland’s Heating Solution Empowers Green Campus</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>The HVACR landscape is evolving rapidly. Join Copeland and ACCA on May 14 for a free webinar featuring expert insights from Jennifer Butsch and Brad Gross.</t>
+          <t xml:space="preserve"> On March 12, Copeland, a global leader in sustainable climate solutions, announced its partnership with Euroklimat to deliver an ultra-low-temperature</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7324083724973694977</t>
+          <t>https://www.ejarn.com/article/detail/88541</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-03</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>We’re thrilled to announce the completion of a $14 million renovation of our Vilter by Copeland facility in Cudahy, Wiscons</t>
+          <t>Frascold Expands Compressor Capabilities with 2025 Launch</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>We’re thrilled to announce the completion of a $14 million renovation of our Vilter by Copeland facility in Cudahy, Wisconsin! This state-of-the-art transformation is more than just a face-lift; it’s a reflection of our commitment to innovation, sustainability, and people.Here’s what’s new: Expanded Training Facilities: Now 16,000 sq. ft. of space designed to equip our customers with expertise in low-GWP refrigerants and energy-efficient solutions. Enhanced Workspace and Amenities: From upgraded col</t>
+          <t xml:space="preserve"> Frascold has designed a new generation of semi-hermetic compressors, set to launch in 2025, specifically developed to go beyond current market limits and meet increasingly complex requirements.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323805658787500033</t>
+          <t>https://www.ejarn.com/article/detail/88534</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-03</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Torben Christensen named Chief Financial Officer of Danfoss Power Solutions</t>
+          <t>Jakob Jul Jensen discusses the growing demand for data centers and AI applications around the world at China Ref 2025. While air</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>As CFO, Christensen will be responsible for driving financial strategy and ensuring solid performance during strong growth and challenging market conditions. Christensen will lead the Finance and Functions team, which is responsible for ensuring financial compliance, delivering robust financial performance, and supporting strategic decision-making across Danfoss Power Solutions. He will also serve as the Power Solutions representative on the Danfoss Finance Board.</t>
+          <t>Jakob Jul Jensen discusses the growing demand for data centers and AI applications around the world at China Ref 2025. While air cooling is prevalent in China, the shift towards direct liquid cooling is emerging as a significant trend, expected to grow substantially over the next three years.  Discover how we’re supporting this dynamic market and advancing cooling solutions: https://bit.ly/3RH1FuQ#ChinaRef2025 #DanfossAtChinaRef #TransitionForward #Innovation #Sustainability</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/torben-christensen-named-chief-financial-officer-of-danfoss-power-solutions/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7324024872911724544</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-02</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Danfoss rykker rundt på ledelsesgangen</t>
+          <t xml:space="preserve">"This investment marks a pivotal step in advancing clean energy solutions and driving economic growth,” said Sandro Matic, </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>No summary</t>
+          <t>"This investment marks a pivotal step in advancing clean energy solutions and driving economic growth,” said Sandro Matic, president, Europe for Copeland. “By expanding our manufacturing capabilities for heating solutions here in Northern Ireland, Copeland is proud to play a key role in helping to reduce reliance on fossil fuels and supporting the energy transition to more sustainable, electricity-powered heating."</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://energiwatch.dk/Energinyt/profiler/article18140932.ece</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7324115490560258050</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-02</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>At Danfoss, we believe waste heat is a game-changer in the journey towards achieving our decarbonization goals. Discover how exc</t>
+          <t>UK Government Invests £4.6M in Copeland to Boost Domestic Heat Pump Manufacturing</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>At Danfoss, we believe waste heat is a game-changer in the journey towards achieving our decarbonization goals. Discover how excess heat recovery and reuse can make a significant impact on energy efficiency and cost savings  02fThe Impact - Save €67.4 billion annually across the EU by 2050. - Access 2,860 TWh/y of waste heat, nearly meeting the EU’s heating and hot water demand. - Transform waste heat into a valuable resource. 02fOur Vision We envision a future where waste heat recovery and integrate</t>
+          <t xml:space="preserve"> The UK government has announced a £4.6 million investment in Copeland to expand domestic production of key heat pump components, supporting local</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323630847360684032</t>
+          <t>https://refindustry.com/news/market-news/uk-government-invests-4-6m-in-copeland-to-boost-domestic-heat-pump-manufacturing/</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-05-02</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Labor Day | Live up to our original aspirations and cheer for manufacturing! Behind each part is a rigorous process, and behind </t>
+          <t>The HVACR landscape is evolving rapidly. Join Copeland and ACCA on May 14 for a free webinar featuring expert insights from Jenn</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Labor Day | Live up to our original aspirations and cheer for manufacturing! Behind each part is a rigorous process, and behind the creation of the snowman is the brilliance created by ingenuity. This Labor Day, cheers for wisdom! Cheers for the hard work! cheers for manufacturing.#SnowmanGroup #laborday</t>
+          <t>The HVACR landscape is evolving rapidly. Join Copeland and ACCA on May 14 for a free webinar featuring expert insights from Jennifer Butsch and Brad Gross.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323526592603815936</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7324083724973694977</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2548,127 +2548,127 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>£4.6m grant to boost Copeland compressor production</t>
+          <t>We’re thrilled to announce the completion of a $14 million renovation of our Vilter by Copeland facility in Cudahy, Wiscons</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IRELAND: Copeland’s has received over £4.6m of UK government funding to boost heat pump compressor production at its Cookstown factory in County Tyrone.</t>
+          <t>We’re thrilled to announce the completion of a $14 million renovation of our Vilter by Copeland facility in Cudahy, Wisconsin! This state-of-the-art transformation is more than just a face-lift; it’s a reflection of our commitment to innovation, sustainability, and people.Here’s what’s new: Expanded Training Facilities: Now 16,000 sq. ft. of space designed to equip our customers with expertise in low-GWP refrigerants and energy-efficient solutions. Enhanced Workspace and Amenities: From upgraded col</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.coolingpost.com/uk-news/4-6m-grant-to-boost-copeland-compressor-production/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323805658787500033</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GEA Annual General Meeting approves dividend increase and re-elects three Supervisory Board members</t>
+          <t>Torben Christensen named Chief Financial Officer of Danfoss Power Solutions</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>At today’s Annual General Meeting, the shareholders of GEA Group AG approved all resolutions proposed by the Supervisory Board and Executive Board with a large majority. Among other outcomes, the Annual General Meeting confirmed Dr. Jürgen Fleischer, Prof. Dr. Annette G. Köhler and Ms. Holly Lei as members of the Supervisory Board. All three were elected for a further four-year term.</t>
+          <t>As CFO, Christensen will be responsible for driving financial strategy and ensuring solid performance during strong growth and challenging market conditions. Christensen will lead the Finance and Functions team, which is responsible for ensuring financial compliance, delivering robust financial performance, and supporting strategic decision-making across Danfoss Power Solutions. He will also serve as the Power Solutions representative on the Danfoss Finance Board.</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.gea.com/en/news/corporate/2025/annual-general-meeting-approves-dividend-increase</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/torben-christensen-named-chief-financial-officer-of-danfoss-power-solutions/</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>What do we control in a refrigeration system?  Join us in our newest Taking the Temperature on HVAC-R podcast episod</t>
+          <t>Danfoss rykker rundt på ledelsesgangen</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>What do we control in a refrigeration system?  Join us in our newest Taking the Temperature on HVAC-R podcast episode as we go into the complexities of refrigeration systems. Learn how controlling temperature, humidity, and airflow can protect your products and enhance efficiency. Understand the importance of strategic product placement within coolers and freezers for optimal airflow and heat removal.  Listen now: https://bit.ly/4cV25r6#TakingTheTemperatureOnHVACR #Refrigeration #Cooling #EnergyEf</t>
+          <t>No summary</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323342618434629632</t>
+          <t>https://energiwatch.dk/Energinyt/profiler/article18140932.ece</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hauptversammlung von GEA beschließt Dividendenerhöhung und Wiederwahl von drei Mitgliedern des Aufsichtsrats</t>
+          <t>At Danfoss, we believe waste heat is a game-changer in the journey towards achieving our decarbonization goals. Discover how exc</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (PresseBox) ( Düsseldorf Die Aktionärinnen und Aktionäre der GEA Group AG haben auf der heutigen ordentlichen Hauptversammlung allen Vorschlägen von Aufsichtsrat und Vorstand mit großer Mehrheit zugestimmt.</t>
+          <t>At Danfoss, we believe waste heat is a game-changer in the journey towards achieving our decarbonization goals. Discover how excess heat recovery and reuse can make a significant impact on energy efficiency and cost savings  02fThe Impact - Save €67.4 billion annually across the EU by 2050. - Access 2,860 TWh/y of waste heat, nearly meeting the EU’s heating and hot water demand. - Transform waste heat into a valuable resource. 02fOur Vision We envision a future where waste heat recovery and integrate</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.pressebox.de/inaktiv/gea-refrigeration-technologies/hauptversammlung-von-gea-beschliet-dividendenerhhung-und-wiederwahl-von-drei-mitgliedern-des-aufsichtsrats/boxid/1247392</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323630847360684032</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>That’s a wrap on China Refrigeration Expo 2025 and what an amazing journey it’s been! Over the past few days, we’</t>
+          <t xml:space="preserve">Labor Day | Live up to our original aspirations and cheer for manufacturing! Behind each part is a rigorous process, and behind </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>That’s a wrap on China Refrigeration Expo 2025 and what an amazing journey it’s been! Over the past few days, we’ve had the chance to connect with so many passionate professionals, exchange ideas and dive deep into the future of #refrigeration and #HVAC.We truly appreciated every visit, every conversation and every shared insight. Moments like these are what make trade shows such an important space for growth, #innovation and collaboration.A heartfelt thank you to everyone who took the time to stop by</t>
+          <t>Labor Day | Live up to our original aspirations and cheer for manufacturing! Behind each part is a rigorous process, and behind the creation of the snowman is the brilliance created by ingenuity. This Labor Day, cheers for wisdom! Cheers for the hard work! cheers for manufacturing.#SnowmanGroup #laborday</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323263312178098177</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323526592603815936</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-05-01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>The launch of Delta DCM’s Sustainable High Efficiency (EER) Variable Speed Units brought together industry leaders in Cairo</t>
+          <t>£4.6m grant to boost Copeland compressor production</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>The launch of Delta DCM’s Sustainable High Efficiency (EER) Variable Speed Units brought together industry leaders in Cairo to explore the future of high-performance air conditioning and refrigeration. During the event, attendees experienced firsthand how Copeland’s advanced variable speed technologies are driving energy efficiency, enhancing human comfort, and ensuring food safety across a range of applications.Thank you to everyone who joined us in celebrating this milestone!</t>
+          <t>IRELAND: Copeland’s has received over £4.6m of UK government funding to boost heat pump compressor production at its Cookstown factory in County Tyrone.</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323239906305048577</t>
+          <t>https://www.coolingpost.com/uk-news/4-6m-grant-to-boost-copeland-compressor-production/</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2680,17 +2680,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Semi-Hermetic Screw Compressor Wins Gold Prize at China Refrigeration Expo</t>
+          <t>GEA Annual General Meeting approves dividend increase and re-elects three Supervisory Board members</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>The SRS-RRE-14M Variable Vi Semi-Hermetic Screw Compressor has been awarded the Gold Prize by the Expert Committee of the China Refrigeration Expo in the category of "Industrial and Commercial Equipment and Related Components."</t>
+          <t>At today’s Annual General Meeting, the shareholders of GEA Group AG approved all resolutions proposed by the Supervisory Board and Executive Board with a large majority. Among other outcomes, the Annual General Meeting confirmed Dr. Jürgen Fleischer, Prof. Dr. Annette G. Köhler and Ms. Holly Lei as members of the Supervisory Board. All three were elected for a further four-year term.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323224613449084929</t>
+          <t>https://www.gea.com/en/news/corporate/2025/annual-general-meeting-approves-dividend-increase</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2702,17 +2702,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Copeland Completes $14M Renovation of Vilter Facility in Cudahy</t>
+          <t>What do we control in a refrigeration system?  Join us in our newest Taking the Temperature on HVAC-R podcast episod</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Copeland has completed a $14 million renovation of its Vilter industrial compression facility in Cudahy, Wisconsin, enhancing its manufacturing, training, and collaboration capabilities.</t>
+          <t>What do we control in a refrigeration system?  Join us in our newest Taking the Temperature on HVAC-R podcast episode as we go into the complexities of refrigeration systems. Learn how controlling temperature, humidity, and airflow can protect your products and enhance efficiency. Understand the importance of strategic product placement within coolers and freezers for optimal airflow and heat removal.  Listen now: https://bit.ly/4cV25r6#TakingTheTemperatureOnHVACR #Refrigeration #Cooling #EnergyEf</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/market-news/copeland-completes-14m-renovation-of-vilter-facility-in-cudahy/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323342618434629632</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2724,17 +2724,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thank you for joining us at the 2025 China Refrigeration Expo! Over the three days, Copeland led expert discussions on advanced </t>
+          <t>Hauptversammlung von GEA beschließt Dividendenerhöhung und Wiederwahl von drei Mitgliedern des Aufsichtsrats</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Thank you for joining us at the 2025 China Refrigeration Expo! Over the three days, Copeland led expert discussions on advanced technologies driving the global energy transition, highlighting solutions for low-GWP and natural refrigerants, high-efficiency heating systems, and a sustainable cold chain.It was a pleasure connecting with industry leaders and sharing our vision for a more sustainable future. We’re excited to continue this conversation and explore opportunities together.</t>
+          <t xml:space="preserve"> (PresseBox) ( Düsseldorf Die Aktionärinnen und Aktionäre der GEA Group AG haben auf der heutigen ordentlichen Hauptversammlung allen Vorschlägen von Aufsichtsrat und Vorstand mit großer Mehrheit zugestimmt.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323194459620261888</t>
+          <t>https://www.pressebox.de/inaktiv/gea-refrigeration-technologies/hauptversammlung-von-gea-beschliet-dividendenerhhung-und-wiederwahl-von-drei-mitgliedern-des-aufsichtsrats/boxid/1247392</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2746,17 +2746,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Chemical Application Exhibition Area Introduction #ChinaInte</t>
+          <t>That’s a wrap on China Refrigeration Expo 2025 and what an amazing journey it’s been! Over the past few days, we’</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Chemical Application Exhibition Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
+          <t>That’s a wrap on China Refrigeration Expo 2025 and what an amazing journey it’s been! Over the past few days, we’ve had the chance to connect with so many passionate professionals, exchange ideas and dive deep into the future of #refrigeration and #HVAC.We truly appreciated every visit, every conversation and every shared insight. Moments like these are what make trade shows such an important space for growth, #innovation and collaboration.A heartfelt thank you to everyone who took the time to stop by</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323194404238675968</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323263312178098177</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2768,17 +2768,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Heat Pump Exhibition Area Introduction #ChinaInternationalRe</t>
+          <t>The launch of Delta DCM’s Sustainable High Efficiency (EER) Variable Speed Units brought together industry leaders in Cairo</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Heat Pump Exhibition Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
+          <t>The launch of Delta DCM’s Sustainable High Efficiency (EER) Variable Speed Units brought together industry leaders in Cairo to explore the future of high-performance air conditioning and refrigeration. During the event, attendees experienced firsthand how Copeland’s advanced variable speed technologies are driving energy efficiency, enhancing human comfort, and ensuring food safety across a range of applications.Thank you to everyone who joined us in celebrating this milestone!</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323186843909267456</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323239906305048577</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2790,17 +2790,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025 China Refrigeration Exhibition came to a successful conclusion! Thanks for visiting Snownan, and we look forward to seeing </t>
+          <t>Semi-Hermetic Screw Compressor Wins Gold Prize at China Refrigeration Expo</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025 China Refrigeration Exhibition came to a successful conclusion! Thanks for visiting Snownan, and we look forward to seeing you again! #ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
+          <t>The SRS-RRE-14M Variable Vi Semi-Hermetic Screw Compressor has been awarded the Gold Prize by the Expert Committee of the China Refrigeration Expo in the category of "Industrial and Commercial Equipment and Related Components."</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323180574381064195</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323224613449084929</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Ammonia Low-charge Water-Chiller Introduction #ChinaInternat</t>
+          <t>Copeland Completes $14M Renovation of Vilter Facility in Cudahy</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Ammonia Low-charge Water-Chiller Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
+          <t xml:space="preserve"> Copeland has completed a $14 million renovation of its Vilter industrial compression facility in Cudahy, Wisconsin, enhancing its manufacturing, training, and collaboration capabilities.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323179293868466177</t>
+          <t>https://refindustry.com/news/market-news/copeland-completes-14m-renovation-of-vilter-facility-in-cudahy/</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2834,17 +2834,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wirtschaftliche Nutzung von Industrie-Abwärme Hochtemperatur-Wärmepumpe bringt Abwärme auf Temperaturen von 135 bis 160 °C</t>
+          <t xml:space="preserve">Thank you for joining us at the 2025 China Refrigeration Expo! Over the three days, Copeland led expert discussions on advanced </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GEA hat eine neue Hochtemperatur-Wärmepumpe an den belgischen Zuckerhersteller Tiense Suiker, ein Unternehmen der deutschen Südzucker Group, geliefert und installiert. Die offizielle Eröffnung der Anlage fand am 19. Februar 2025 in Anwesenheit des Flämischen Premierministers Matthias Diependaele und weiterer hochrangiger Gäste der beteiligten Unternehmen und der beteiligten Verbände und Institute statt. Die neue GEA Technologie ermöglicht es, industrielle Abwärme auf Temperaturen von 135 bis 160 °C zu bring</t>
+          <t>Thank you for joining us at the 2025 China Refrigeration Expo! Over the three days, Copeland led expert discussions on advanced technologies driving the global energy transition, highlighting solutions for low-GWP and natural refrigerants, high-efficiency heating systems, and a sustainable cold chain.It was a pleasure connecting with industry leaders and sharing our vision for a more sustainable future. We’re excited to continue this conversation and explore opportunities together.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.kka-online.info/artikel/wirtschaftliche-nutzung-von-industrie-abwaerme-4239785.html</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323194459620261888</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2856,17 +2856,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Copeland OFC Compressor Wins Gold Award for Innovative Products at 2025 China Refrigeration Expo</t>
+          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Chemical Application Exhibition Area Introduction #ChinaInte</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Copeland won the Gold Award for Innovative Products at the 2025 China Refrigeration Expo for their oil-free centrifugal compressor with Aero-Lift™ technology. The compressor was recognized for its high-lift performance, rapid startup, and reliability in challenging conditions, outshining 67 competitors across 9 categories.</t>
+          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Chemical Application Exhibition Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323164300485832705</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323194404238675968</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2878,17 +2878,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Commercial Compressor Solution Area Introduction #ChinaInter</t>
+          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Heat Pump Exhibition Area Introduction #ChinaInternationalRe</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Commercial Compressor Solution Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup #ScrewCompressor#REFRIGERATION#Snowman#SnowmanGroup #CRH2025</t>
+          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Heat Pump Exhibition Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323159891940966402</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323186843909267456</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2900,127 +2900,127 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area #ChinaInternationalR</t>
+          <t xml:space="preserve">2025 China Refrigeration Exhibition came to a successful conclusion! Thanks for visiting Snownan, and we look forward to seeing </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area#ChinaInternationalRefrigeration #SnowmanGroup #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#CRH2025</t>
+          <t>2025 China Refrigeration Exhibition came to a successful conclusion! Thanks for visiting Snownan, and we look forward to seeing you again! #ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323020777023246338</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323180574381064195</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area #ChinaInternationalR</t>
+          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Ammonia Low-charge Water-Chiller Introduction #ChinaInternat</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#SnowmanGroup #CRH2025</t>
+          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Ammonia Low-charge Water-Chiller Introduction#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#REFRIGERATION #CRH2025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323020777023246338</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323179293868466177</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area #ChinaInterna</t>
+          <t>Wirtschaftliche Nutzung von Industrie-Abwärme Hochtemperatur-Wärmepumpe bringt Abwärme auf Temperaturen von 135 bis 160 °C</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #Snowman#SnowmanGroup #CRH2025</t>
+          <t>GEA hat eine neue Hochtemperatur-Wärmepumpe an den belgischen Zuckerhersteller Tiense Suiker, ein Unternehmen der deutschen Südzucker Group, geliefert und installiert. Die offizielle Eröffnung der Anlage fand am 19. Februar 2025 in Anwesenheit des Flämischen Premierministers Matthias Diependaele und weiterer hochrangiger Gäste der beteiligten Unternehmen und der beteiligten Verbände und Institute statt. Die neue GEA Technologie ermöglicht es, industrielle Abwärme auf Temperaturen von 135 bis 160 °C zu bring</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323006237191655424</t>
+          <t>https://www.kka-online.info/artikel/wirtschaftliche-nutzung-von-industrie-abwaerme-4239785.html</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area #ChinaInterna</t>
+          <t>Copeland OFC Compressor Wins Gold Award for Innovative Products at 2025 China Refrigeration Expo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#SnowmanGroup #CRH2025</t>
+          <t>Copeland won the Gold Award for Innovative Products at the 2025 China Refrigeration Expo for their oil-free centrifugal compressor with Aero-Lift™ technology. The compressor was recognized for its high-lift performance, rapid startup, and reliability in challenging conditions, outshining 67 competitors across 9 categories.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323006237191655424</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323164300485832705</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Danfoss hosts global leaders in sustainable heating &amp; cooling</t>
+          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Commercial Compressor Solution Area Introduction #ChinaInter</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>General Yosr Allouche delivered a keynote presentation at Danfoss’ week dedicated to sustainable heating and cooling, emphasizing the importance of sustainable refrigeration as an opportunity for society. The event brought together experts from around the world to collaborate on decarbonizing the cold chain, buildings, and industry. Danfoss President Kristian Strand stressed the significance of sustainable heating and cooling technologies in building a resilient society, improving public health, supporting economic development, and enhancing quality of life.</t>
+          <t>China Refrigeration ExhibitionClick to watch the 2025 Snowman Commercial Compressor Solution Area Introduction#ChinaInternationalRefrigeration#SnowmanGroup #ScrewCompressor#REFRIGERATION#Snowman#SnowmanGroup #CRH2025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://iifiir.org/en/news/member-news-danfoss-hosts-global-leaders-in-sustainable-heating-cooling</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323159891940966402</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Semikron Danfoss Leistungsmodul mit ROHMs 2kV SiC MOSFETs kommt in neuer SMA Plattformlösung zum Einsatz</t>
+          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area #ChinaInternationalR</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SMA Solar Technology AG, setzt das Leistungsmodul von Semikron Danfoss mit den neuesten 2kV SiC MOSFETs von ROHM in seiner neuen Plattform-Lösung Sunny Central FLEX ein.</t>
+          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area#ChinaInternationalRefrigeration #SnowmanGroup #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#CRH2025</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.konstruktion-industrie.com/news/94518-semikron-danfoss-leistungsmodul-mit-rohms-2kv-sic-mosfets-kommt-in-neuer-sma-plattforml%C3%B6sung-zum-einsatz</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323020777023246338</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3032,17 +3032,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>As the 36th China Refrigeration Exposition in Shanghai comes to an end, we appreciate everyone who visited us at stand E2D01. Yo</t>
+          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area #ChinaInternationalR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>As the 36th China Refrigeration Exposition in Shanghai comes to an end, we appreciate everyone who visited us at stand E2D01. Your interest in our solutions has been invaluable. For those who couldn’t attend, there’s still an opportunity to learn about: 705 Danfoss Turbocor® compressors and oil-free applications 705 Commercial air conditioning and heat pump heating 705 Energy storage and CO₂ solutions  Stay updated. New content will soon be available on our landing page. We invite you to explore and keep</t>
+          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Ice Making Product Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#SnowmanGroup #CRH2025</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322968167574659072</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323020777023246338</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3054,17 +3054,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">That’s a wrap on China Refrigeration Expo 2025 - what an incredible few days it has been in Shanghai! We are deeply grateful to </t>
+          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area #ChinaInterna</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>That’s a wrap on China Refrigeration Expo 2025 - what an incredible few days it has been in Shanghai!We are deeply grateful to all the customers, partners, and friends, new and longtime who visited our booth. Your energy, ideas, and passion for innovation made this event truly special and thank you for your continued trust in our #compressors solutions.This year’s edition was even more meaningful as we also celebrated #10years of #DorinJiaxing, #107years of #Dorin, and proudly unveiled our newest compre</t>
+          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #Snowman#SnowmanGroup #CRH2025</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322922316277903362</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323006237191655424</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3076,17 +3076,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>We’re proud to be part of this forward-thinking network of organizations working to accelerate the energy transition throug</t>
+          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area #ChinaInterna</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>We’re proud to be part of this forward-thinking network of organizations working to accelerate the energy transition through servitisation. This innovative approach removes common barriers to adopting clean and energy-efficient technologies.Higher upfront costs and perceived performance risks often slow market adoption. Servitisation - whether pay-per-use or pay-per-outcome - offers a smarter way forward, enabling lower life cycle costs and greater end-user accessibility.At Danfoss Climate Solutions, we</t>
+          <t>China Refrigeration Exhibition Click to watch the video of the 2025 Snowman’s Standardized Service Area#ChinaInternationalRefrigeration #SnowmanGroup #SRMTEC #ScrewCompressor#REFRIGERATION #SRMTEC #Snowman#SnowmanGroup #CRH2025</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322952821106954241</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7323006237191655424</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3098,127 +3098,127 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Vilter: Opening of Vilter facility</t>
+          <t>Danfoss hosts global leaders in sustainable heating &amp; cooling</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Copeland has completed renovations at its Vilter facility and will hold a grand opening event on May 1, 2025.</t>
+          <t>General Yosr Allouche delivered a keynote presentation at Danfoss’ week dedicated to sustainable heating and cooling, emphasizing the importance of sustainable refrigeration as an opportunity for society. The event brought together experts from around the world to collaborate on decarbonizing the cold chain, buildings, and industry. Danfoss President Kristian Strand stressed the significance of sustainable heating and cooling technologies in building a resilient society, improving public health, supporting economic development, and enhancing quality of life.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://www.climatecontrolnews.com.au/refrigeration/opening-of-vilter-facility</t>
+          <t>https://iifiir.org/en/news/member-news-danfoss-hosts-global-leaders-in-sustainable-heating-cooling</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>The 2025 China Refrigeration Expo is in full swing! Join us in Shanghai from April 27–29 and stop by Copeland’s booth E3F01</t>
+          <t>Semikron Danfoss Leistungsmodul mit ROHMs 2kV SiC MOSFETs kommt in neuer SMA Plattformlösung zum Einsatz</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>The 2025 China Refrigeration Expo is in full swing! Join us in Shanghai from April 27–29 and stop by Copeland’s booth E3F01 to see how we’re driving decarbonization and energy efficiency across HVACR.Explore our latest innovations in sustainable cooling, heating, and cold chain solutions that are all designed to support a greener future. Don’t miss your chance to connect with our team and learn how Copeland is leading the way toward low-GWP and high-performance technologies.Learn more at: https://ow.ly/</t>
+          <t>SMA Solar Technology AG, setzt das Leistungsmodul von Semikron Danfoss mit den neuesten 2kV SiC MOSFETs von ROHM in seiner neuen Plattform-Lösung Sunny Central FLEX ein.</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322628274042351618</t>
+          <t>https://www.konstruktion-industrie.com/news/94518-semikron-danfoss-leistungsmodul-mit-rohms-2kv-sic-mosfets-kommt-in-neuer-sma-plattforml%C3%B6sung-zum-einsatz</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused o</t>
+          <t>As the 36th China Refrigeration Exposition in Shanghai comes to an end, we appreciate everyone who visited us at stand E2D01. Yo</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused on accelerating decarbonization in key areas: 705 Buildings – May 6 at 1pm: Discover strategies to improve energy efficiency and reduce emissions in buildings. 705 Cold chain – May 7 at 1pm: Learn how energy-efficient refrigeration supports a sustainable cold chain from farm to fork. 705 Industry – May 8 at 1pm: Explore ways to reduce industrial emissions by optimizing energy use a</t>
+          <t>As the 36th China Refrigeration Exposition in Shanghai comes to an end, we appreciate everyone who visited us at stand E2D01. Your interest in our solutions has been invaluable. For those who couldn’t attend, there’s still an opportunity to learn about: 705 Danfoss Turbocor® compressors and oil-free applications 705 Commercial air conditioning and heat pump heating 705 Energy storage and CO₂ solutions  Stay updated. New content will soon be available on our landing page. We invite you to explore and keep</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322569560929259521</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322968167574659072</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused a</t>
+          <t xml:space="preserve">That’s a wrap on China Refrigeration Expo 2025 - what an incredible few days it has been in Shanghai! We are deeply grateful to </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused accelerating decarbonization in key areas: 705 Buildings – May 6 at 1pm: Discover strategies to improve energy efficiency and reduce emissions in buildings. 705 Cold chain – May 7 at 1pm: Learn how energy-efficient refrigeration supports a sustainable cold chain from farm to fork. 705 Industry – May 8 at 1pm: Explore ways to reduce industrial emissions by optimizing energy use and </t>
+          <t>That’s a wrap on China Refrigeration Expo 2025 - what an incredible few days it has been in Shanghai!We are deeply grateful to all the customers, partners, and friends, new and longtime who visited our booth. Your energy, ideas, and passion for innovation made this event truly special and thank you for your continued trust in our #compressors solutions.This year’s edition was even more meaningful as we also celebrated #10years of #DorinJiaxing, #107years of #Dorin, and proudly unveiled our newest compre</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322569560929259521</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322922316277903362</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">What an exciting kickoff here at China Refrigeration Expo 2025! The first few days have been packed with energy, innovation and </t>
+          <t>We’re proud to be part of this forward-thinking network of organizations working to accelerate the energy transition throug</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve">What an exciting kickoff here at China Refrigeration Expo 2025! The first few days have been packed with energy, innovation and amazing people. From inspiring conversations at our #booths E2D31 - E4F31 to the many visitors interested in our cutting-edge technologies, it’s been a fantastic start to the show.A big thank you to everyone who joined us. Your presence made these first days truly memorable!Swipe through the highlights of an incredible start and if you’re at the fair, don’t forget to stop by </t>
+          <t>We’re proud to be part of this forward-thinking network of organizations working to accelerate the energy transition through servitisation. This innovative approach removes common barriers to adopting clean and energy-efficient technologies.Higher upfront costs and perceived performance risks often slow market adoption. Servitisation - whether pay-per-use or pay-per-outcome - offers a smarter way forward, enabling lower life cycle costs and greater end-user accessibility.At Danfoss Climate Solutions, we</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322535849882017792</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322952821106954241</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-29</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#PlumbexIndia 2025 brought together industry leaders to explore the future of sustainable heating solutions. Throughout the even</t>
+          <t>Vilter: Opening of Vilter facility</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>#PlumbexIndia 2025 brought together industry leaders to explore the future of sustainable heating solutions. Throughout the event, Copeland showcased its advanced heat pump technology, demonstrating how our heat pumps are setting new standards for energy efficient hot water systems. Thank you to everyone who visited our booth and engaged with our team. We look forward to continuing the conversation and exploring new opportunities to support India’s evolving infrastructure with innovative, energy efficient</t>
+          <t>Copeland has completed renovations at its Vilter facility and will hold a grand opening event on May 1, 2025.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322477225272868864</t>
+          <t>https://www.climatecontrolnews.com.au/refrigeration/opening-of-vilter-facility</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3230,215 +3230,215 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition | On the first day of the exhibition, Snowman’s innovative products were recognized by the indust</t>
+          <t>The 2025 China Refrigeration Expo is in full swing! Join us in Shanghai from April 27–29 and stop by Copeland’s booth E3F01</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>China Refrigeration Exhibition | On the first day of the exhibition, Snowman’s innovative products were recognized by the industryOn April 27, the 36th International Refrigeration Exhibition opened efficiently as scheduled in Shanghai. Snowman Group made a grand appearance with a variety of energy-saving and emission-reducing devices and green solutions.At the E1F15 booth, Snowman Group set up multiple special exhibition areas to fully display the industry’s cutting-edge technologies, helping global cus</t>
+          <t>The 2025 China Refrigeration Expo is in full swing! Join us in Shanghai from April 27–29 and stop by Copeland’s booth E3F01 to see how we’re driving decarbonization and energy efficiency across HVACR.Explore our latest innovations in sustainable cooling, heating, and cold chain solutions that are all designed to support a greener future. Don’t miss your chance to connect with our team and learn how Copeland is leading the way toward low-GWP and high-performance technologies.Learn more at: https://ow.ly/</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322277130384375808</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322628274042351618</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-28</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Copeland to open $14m Vilter factory upgrade</t>
+          <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused o</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>USA: Copeland has announced the official opening of its new Vilter industrial refrigeration compressor facility in Cudahy, Wisconsin, following a major $14m renovation and remodelling.</t>
+          <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused on accelerating decarbonization in key areas: 705 Buildings – May 6 at 1pm: Discover strategies to improve energy efficiency and reduce emissions in buildings. 705 Cold chain – May 7 at 1pm: Learn how energy-efficient refrigeration supports a sustainable cold chain from farm to fork. 705 Industry – May 8 at 1pm: Explore ways to reduce industrial emissions by optimizing energy use a</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.coolingpost.com/world-news/copeland-to-open-14m-vilter-factory-upgrade/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322569560929259521</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-28</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>The “pump down” process in commercial refrigeration minimizes switch usage, enhances energy efficiency, and safeguards</t>
+          <t>Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused a</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>The “pump down” process in commercial refrigeration minimizes switch usage, enhances energy efficiency, and safeguards against liquid flow to compressors. See how it manages refrigerant flow in our animation.  Explore our commercial refrigeration solutions here: https://bit.ly/3WEwHVX#PumpDown #CommercialRefrigeration #EnergyEfficiency #ProductAnimation</t>
+          <t xml:space="preserve">Join Danfoss for an opportunity to dive into the future of decarbonization. We’re hosting three dynamic sessions, each focused accelerating decarbonization in key areas: 705 Buildings – May 6 at 1pm: Discover strategies to improve energy efficiency and reduce emissions in buildings. 705 Cold chain – May 7 at 1pm: Learn how energy-efficient refrigeration supports a sustainable cold chain from farm to fork. 705 Industry – May 8 at 1pm: Explore ways to reduce industrial emissions by optimizing energy use and </t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321811818308378624</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322569560929259521</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-28</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>10e3 DAY TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPO Good News!  Four Snowman Compressors Win the Innovat</t>
+          <t xml:space="preserve">What an exciting kickoff here at China Refrigeration Expo 2025! The first few days have been packed with energy, innovation and </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>10e3 DAY TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOGood News!  Four Snowman Compressors Win the Innovation Award at the China Refrigeration Expo!Just ahead of the official opening of the 2025 China Refrigeration Expo, Snowman Group’s compressor series has been honored with the  Innovation Product Award, presented by the organizers of the Expo — a recognition of our technological excellence and commitment to innovation.Join us at the show and experience Snowman’s latest breakthroughs! Time: April</t>
+          <t xml:space="preserve">What an exciting kickoff here at China Refrigeration Expo 2025! The first few days have been packed with energy, innovation and amazing people. From inspiring conversations at our #booths E2D31 - E4F31 to the many visitors interested in our cutting-edge technologies, it’s been a fantastic start to the show.A big thank you to everyone who joined us. Your presence made these first days truly memorable!Swipe through the highlights of an incredible start and if you’re at the fair, don’t forget to stop by </t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321790172684017664</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322535849882017792</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-28</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Copeland Celebrates Unveiling of its Vilter Facility Following Major Renovation</t>
+          <t>#PlumbexIndia 2025 brought together industry leaders to explore the future of sustainable heating solutions. Throughout the even</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Remodeled facility enhances training capacity and reinforces company’s commitment to the local community</t>
+          <t>#PlumbexIndia 2025 brought together industry leaders to explore the future of sustainable heating solutions. Throughout the event, Copeland showcased its advanced heat pump technology, demonstrating how our heat pumps are setting new standards for energy efficient hot water systems. Thank you to everyone who visited our booth and engaged with our team. We look forward to continuing the conversation and exploring new opportunities to support India’s evolving infrastructure with innovative, energy efficient</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88424</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322477225272868864</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-28</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>We’re excited to share a major step forward in energy efficiency and sustainability: the launch of our new Heat Recovery To</t>
+          <t>China Refrigeration Exhibition | On the first day of the exhibition, Snowman’s innovative products were recognized by the indust</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>We’re excited to share a major step forward in energy efficiency and sustainability: the launch of our new Heat Recovery Tool!  Developed with the expertise of our sector Coupling team and simulation specialists, this tool helps you easily evaluate heat recovery opportunities. Whether you’re reclaiming waste heat to replace fossil fuels or considering selling it to an external utility, this tool is here to guide you. What can you expect from the Heat Recovery Tool? 705 Insights into energy savings, inve</t>
+          <t>China Refrigeration Exhibition | On the first day of the exhibition, Snowman’s innovative products were recognized by the industryOn April 27, the 36th International Refrigeration Exhibition opened efficiently as scheduled in Shanghai. Snowman Group made a grand appearance with a variety of energy-saving and emission-reducing devices and green solutions.At the E1F15 booth, Snowman Group set up multiple special exhibition areas to fully display the industry’s cutting-edge technologies, helping global cus</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321488270935179265</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7322277130384375808</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Danfoss: Kristian Strand about collaborating with customers</t>
+          <t>Copeland to open $14m Vilter factory upgrade</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kristian Strand emphasizes that the company plays a crucial role in connecting components and optimizing systems, acting as an "early intervention consultant." He clarifies that while the company does not aim to replace important advisory elements upstream, its diverse expertise allows it to excel in areas such as understanding how chillers work to develop the best compressors, valves, heat exchangers, and control algorithms for chillers. This comprehensive approach is essential for driving decarbonization efforts forward and avoiding being solely a component supplier, enabling the company to bring more innovative solutions to the market. In summary, Kristian Strand highlights the importance of the company’s role in leveraging its knowledge of various components to create optimized systems and drive decarbonization efforts. By focusing on developing innovative solutions rather than just supplying components, the company aims to play a significant part in advancing sustainable practices in the industry.</t>
+          <t>USA: Copeland has announced the official opening of its new Vilter industrial refrigeration compressor facility in Cudahy, Wisconsin, following a major $14m renovation and remodelling.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://elementallondon.show/features/spotlight-on-the-exciting-complexity-of-global-climate-solutions-with-kristian-strand-of-danfoss/</t>
+          <t>https://www.coolingpost.com/world-news/copeland-to-open-14m-vilter-factory-upgrade/</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3f3 Just 3 Days to Go! – China Refrigeration Expo 2025! Only a few days left before #FrascoldChina takes the stage at Ch</t>
+          <t>The “pump down” process in commercial refrigeration minimizes switch usage, enhances energy efficiency, and safeguards</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3f3 Just 3 Days to Go! – China Refrigeration Expo 2025!Only a few days left before #FrascoldChina takes the stage at China Refrigeration in #Shanghai, we can’t wait to see you there! April 27–29 Booths E2D31 - E4F31Here’s a sneak peek of our booth, but there’s much more to discover in person!Get ready to explore our latest #compressor technologies for #refrigeration, #AirConditioning, #ColdChain and more, with local service, fast delivery and #sustainable innovation at your fingertips.</t>
+          <t>The “pump down” process in commercial refrigeration minimizes switch usage, enhances energy efficiency, and safeguards against liquid flow to compressors. See how it manages refrigerant flow in our animation.  Explore our commercial refrigeration solutions here: https://bit.ly/3WEwHVX#PumpDown #CommercialRefrigeration #EnergyEfficiency #ProductAnimation</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321102299689283589</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321811818308378624</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPO Snowman’s technical engineers will participate in five off</t>
+          <t>10e3 DAY TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPO Good News!  Four Snowman Compressors Win the Innovat</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>20e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOSnowman’s technical engineers will participate in five official forums, sparking ideas with industry peers in high-level dialogues. Time: April 27-29, 2025   Exhibition location: Shanghai New International Expo Center  Booth number: E1-F15#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#ScrewCompressor#REFRIGERATION #SRMTEC</t>
+          <t>10e3 DAY TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOGood News!  Four Snowman Compressors Win the Innovation Award at the China Refrigeration Expo!Just ahead of the official opening of the 2025 China Refrigeration Expo, Snowman Group’s compressor series has been honored with the  Innovation Product Award, presented by the organizers of the Expo — a recognition of our technological excellence and commitment to innovation.Join us at the show and experience Snowman’s latest breakthroughs! Time: April</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321412729343238144</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321790172684017664</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Freedom and Innovation Made in Italy On April the 25th we celebrate freedom. The one we won in the past </t>
+          <t>Copeland Celebrates Unveiling of its Vilter Facility Following Major Renovation</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Freedom and Innovation Made in ItalyOn April the 25th we celebrate freedom. The one we won in the past and the one we express today with our ability to innovate, design and produce in Italy.Our compressors are born here: from technical expertise, from a passion for a job well done, and from a vision that always looks ahead.Made in Italy, with pride.#SRMTec#madeinitaly</t>
+          <t xml:space="preserve"> Remodeled facility enhances training capacity and reinforces company’s commitment to the local community</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321412031050334208</t>
+          <t>https://www.ejarn.com/article/detail/88424</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3450,17 +3450,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Danfoss Builds DGNB Platinum-Certified Living Lab in Denmark</t>
+          <t>We’re excited to share a major step forward in energy efficiency and sustainability: the launch of our new Heat Recovery To</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Multi-residential Danfoss House serves as both test center and employee housing.</t>
+          <t>We’re excited to share a major step forward in energy efficiency and sustainability: the launch of our new Heat Recovery Tool!  Developed with the expertise of our sector Coupling team and simulation specialists, this tool helps you easily evaluate heat recovery opportunities. Whether you’re reclaiming waste heat to replace fossil fuels or considering selling it to an external utility, this tool is here to guide you. What can you expect from the Heat Recovery Tool? 705 Insights into energy savings, inve</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/market-news/danfoss-builds-dgnb-platinum-certified-living-lab-in-denmark/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321488270935179265</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3472,17 +3472,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Copeland’s Compression and Control Technologies Solve HVAC&amp;R Challenges</t>
+          <t>Danfoss: Kristian Strand about collaborating with customers</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> At the 2025 AHR Expo held in February, JARN interviewed Ross B. Shuster, chief executive officer (CEO) of Copeland, to hear about the company’s</t>
+          <t>Kristian Strand emphasizes that the company plays a crucial role in connecting components and optimizing systems, acting as an "early intervention consultant." He clarifies that while the company does not aim to replace important advisory elements upstream, its diverse expertise allows it to excel in areas such as understanding how chillers work to develop the best compressors, valves, heat exchangers, and control algorithms for chillers. This comprehensive approach is essential for driving decarbonization efforts forward and avoiding being solely a component supplier, enabling the company to bring more innovative solutions to the market. In summary, Kristian Strand highlights the importance of the company’s role in leveraging its knowledge of various components to create optimized systems and drive decarbonization efforts. By focusing on developing innovative solutions rather than just supplying components, the company aims to play a significant part in advancing sustainable practices in the industry.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88417</t>
+          <t>https://elementallondon.show/features/spotlight-on-the-exciting-complexity-of-global-climate-solutions-with-kristian-strand-of-danfoss/</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3494,347 +3494,347 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Copeland Celebrates Unveiling of its Vilter Facility Following Major Renovation</t>
+          <t>3f3 Just 3 Days to Go! – China Refrigeration Expo 2025! Only a few days left before #FrascoldChina takes the stage at Ch</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Remodeled facility enhances training capacity and reinforces company’s commitment to the local community</t>
+          <t>3f3 Just 3 Days to Go! – China Refrigeration Expo 2025!Only a few days left before #FrascoldChina takes the stage at China Refrigeration in #Shanghai, we can’t wait to see you there! April 27–29 Booths E2D31 - E4F31Here’s a sneak peek of our booth, but there’s much more to discover in person!Get ready to explore our latest #compressor technologies for #refrigeration, #AirConditioning, #ColdChain and more, with local service, fast delivery and #sustainable innovation at your fingertips.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.copeland.com/en-us/news/copeland-unveils-facility-renovation</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321102299689283589</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>As the world moves towards a greener future, Copeland remains dedicated to protecting food safety while minimizing environmental</t>
+          <t>20e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPO Snowman’s technical engineers will participate in five off</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">As the world moves towards a greener future, Copeland remains dedicated to protecting food safety while minimizing environmental impact. Our advanced cold chain solutions leverage CO₂ refrigeration technology to enhance efficiency and sustainability, ensuring a safer and more resilient food supply.Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01, where we’ll showcase next generation refrigeration innovations that support clean energy adoption, sustainable cooling advancements, and </t>
+          <t>20e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOSnowman’s technical engineers will participate in five official forums, sparking ideas with industry peers in high-level dialogues. Time: April 27-29, 2025   Exhibition location: Shanghai New International Expo Center  Booth number: E1-F15#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#ScrewCompressor#REFRIGERATION #SRMTEC</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321156118775234560</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321412729343238144</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>3f3 Just 3 Days to Go! – #ChinaRefrigeration 2025! Only a few days left before #FrascoldChina takes the stage at China R</t>
+          <t xml:space="preserve">Freedom and Innovation Made in Italy On April the 25th we celebrate freedom. The one we won in the past </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3f3 Just 3 Days to Go! – #ChinaRefrigeration 2025!Only a few days left before #FrascoldChina takes the stage at China Refrigeration in #Shanghai, we can’t wait to see you there! April 27–29 Booths E2D31 - E4F31Here’s a sneak peek of our booth, but there’s much more to discover in person!Get ready to explore our latest #compressor technologies for #refrigeration, #AirConditioning, #ColdChain and more, with local service, fast delivery and #sustainable innovation at your fingertips.</t>
+          <t>Freedom and Innovation Made in ItalyOn April the 25th we celebrate freedom. The one we won in the past and the one we express today with our ability to innovate, design and produce in Italy.Our compressors are born here: from technical expertise, from a passion for a job well done, and from a vision that always looks ahead.Made in Italy, with pride.#SRMTec#madeinitaly</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321102299689283589</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321412031050334208</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> District cooling: meeting future cooling demands efficiently With global temperatures rising and living standards i</t>
+          <t>Danfoss Builds DGNB Platinum-Certified Living Lab in Denmark</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> District cooling: meeting future cooling demands efficiently  With global temperatures rising and living standards improving, the demand for cooling is set to increase dramatically. Our latest whitepaper explores how district cooling offers a sustainable solution for dense urban areas, adapting to local conditions and providing numerous benefits to communities.   Key insights include: - The importance of hydronic building installations for enabling energy efficient cooling supply - How district co</t>
+          <t xml:space="preserve"> Multi-residential Danfoss House serves as both test center and employee housing.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321088018948186113</t>
+          <t>https://refindustry.com/news/market-news/danfoss-builds-dgnb-platinum-certified-living-lab-in-denmark/</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPO Smart “Fusion” Exploration – Green Tech Check-in</t>
+          <t>Copeland’s Compression and Control Technologies Solve HVAC&amp;R Challenges</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>30e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOSmart “Fusion” Exploration – Green Tech Check-in JourneyCheck in at Booth E1F15 and explore Snowman’s Five Green Tech Highlights to unlock our low-carbon code and win exciting gifts  ! Time: April 27-29, 2025  Exhibition location: Shanghai New International Expo Center Booth number: E1-F15#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#ScrewCompressor#REFRIGERATION #SRMTEC</t>
+          <t xml:space="preserve"> At the 2025 AHR Expo held in February, JARN interviewed Ross B. Shuster, chief executive officer (CEO) of Copeland, to hear about the company’s</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321052906244231168</t>
+          <t>https://www.ejarn.com/article/detail/88417</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Frascold: Tecnofreddo’s New Propane High-Temperature Heat Pump Offers Outlet Temperatures of 80C</t>
+          <t>Copeland Celebrates Unveiling of its Vilter Facility Following Major Renovation</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Italian chiller and heat pump manufacturer Tecnofreddo has introduced a new propane (R290) air-to-water high-temperature heat pump as part of their "Danae" series. This new model is capable of reaching an outlet temperature of 80C (176F), a significant improvement from the previous maximum of 45C (113F). The collaboration with Frascold has allowed Tecnofreddo to expand its offerings to include propane heat pumps for industrial applications, in addition to commercial comfort heating and cooling. The Danae high-temperature heat pump utilizes Frascold’s ATEX-HT semi-hermetic reciprocating compressor, featuring a line start permanent magnet (LSPM) electric motor that enhances efficiency by 6% compared to a standard asynchronous motor.</t>
+          <t>Remodeled facility enhances training capacity and reinforces company’s commitment to the local community</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://naturalrefrigerants.com/tecnofreddos-new-propane-high-temperature-heat-pump-offers-outlet-temperatures-of-80c/</t>
+          <t>https://www.copeland.com/en-us/news/copeland-unveils-facility-renovation</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Danfoss to showcase solutions that decarbonize transportation at ACT Expo 2025</t>
+          <t>As the world moves towards a greener future, Copeland remains dedicated to protecting food safety while minimizing environmental</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Expo 2025, April 28 to May 1, in Anaheim, Calif. At booth 6341, Danfoss will highlight products from its Power Solutions and Power Electronics and Drives businesses, showcasing how the company helps original equipment manufacturers and vehicle fleet owners decarbonize their vehicles while exceeding performance expectations.</t>
+          <t xml:space="preserve">As the world moves towards a greener future, Copeland remains dedicated to protecting food safety while minimizing environmental impact. Our advanced cold chain solutions leverage CO₂ refrigeration technology to enhance efficiency and sustainability, ensuring a safer and more resilient food supply.Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01, where we’ll showcase next generation refrigeration innovations that support clean energy adoption, sustainable cooling advancements, and </t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-to-showcase-solutions-that-decarbonize-transportation-at-act-expo-2025/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321156118775234560</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Join the “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations” webinar led by Copeland</t>
+          <t>3f3 Just 3 Days to Go! – #ChinaRefrigeration 2025! Only a few days left before #FrascoldChina takes the stage at China R</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Join the “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations” webinar led by Copeland’s Jennifer Butsch, director, regulatory affairs, and Brad Gross, product marketing manager, in partnership with Air Conditioning Contractors of America (ACCA).Gain expert insights on compressor selection, A2L refrigerants, LXE technology, Copeland Mobile, and upcoming CEE Tier shifts to navigate industry changes with confidence and efficiency.Register today: https://ow.ly/7kp850VBSnX</t>
+          <t>3f3 Just 3 Days to Go! – #ChinaRefrigeration 2025!Only a few days left before #FrascoldChina takes the stage at China Refrigeration in #Shanghai, we can’t wait to see you there! April 27–29 Booths E2D31 - E4F31Here’s a sneak peek of our booth, but there’s much more to discover in person!Get ready to explore our latest #compressor technologies for #refrigeration, #AirConditioning, #ColdChain and more, with local service, fast delivery and #sustainable innovation at your fingertips.</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320824098090078209</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321102299689283589</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Buildings account for 40% of the EU’s final energy use and 36% of its greenhouse gas emissions. With 75% of EU buildings st</t>
+          <t xml:space="preserve"> District cooling: meeting future cooling demands efficiently With global temperatures rising and living standards i</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Buildings account for 40% of the EU’s final energy use and 36% of its greenhouse gas emissions. With 75% of EU buildings still energy inefficient, the EPBD sets ambitious targets for renovation. Discover how Building Automation and Control Systems (BACS) can optimize energy use, improve EPC ratings, and enhance tenant comfort. Join us on Retrofit RETHINK Live event to learn how you can turn regulations into an opportunity to save energy, lower your costs and combat climate change.  Online event02f  E</t>
+          <t xml:space="preserve"> District cooling: meeting future cooling demands efficiently  With global temperatures rising and living standards improving, the demand for cooling is set to increase dramatically. Our latest whitepaper explores how district cooling offers a sustainable solution for dense urban areas, adapting to local conditions and providing numerous benefits to communities.   Key insights include: - The importance of hydronic building installations for enabling energy efficient cooling supply - How district co</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320816518231912448</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321088018948186113</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01 to explore how Copeland is driving efficiency in indust</t>
+          <t>30e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPO Smart “Fusion” Exploration – Green Tech Check-in</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01 to explore how Copeland is driving efficiency in industrial heating. Our advanced high-temperature process heating solutions are designed to enhance energy utilization, improve system performance, and reduce costs, all while supporting a more sustainable future.From high condensing temperature technology to high-temperature-resistant control solutions, we’re here to help you optimize your operations. Stop by to connect with us, gain </t>
+          <t>30e3 DAYS TO GO UNTIL THE 2025 CHINA REFRIGERATION EXPOSmart “Fusion” Exploration – Green Tech Check-in JourneyCheck in at Booth E1F15 and explore Snowman’s Five Green Tech Highlights to unlock our low-carbon code and win exciting gifts  ! Time: April 27-29, 2025  Exhibition location: Shanghai New International Expo Center Booth number: E1-F15#ChinaInternationalRefrigeration#SnowmanGroup#SRMTEC#ScrewCompressor#REFRIGERATION #SRMTEC</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320801191032942592</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7321052906244231168</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>We are excited to welcome Mary Lai as Copeland’s Vice President of Investor Relations. With over 15 years of leadership exp</t>
+          <t>Frascold: Tecnofreddo’s New Propane High-Temperature Heat Pump Offers Outlet Temperatures of 80C</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>We are excited to welcome Mary Lai as Copeland’s Vice President of Investor Relations.With over 15 years of leadership experience, Mary will focus on building our Investor Relations capabilities, enhancing financial communications and driving engagement with financial market participants. Her expertise aligns perfectly with Copeland’s commitment to operational excellence and innovation.Please join us in welcoming Mary to the team.#Leadership #Innovation #Finance #Copeland</t>
+          <t>Italian chiller and heat pump manufacturer Tecnofreddo has introduced a new propane (R290) air-to-water high-temperature heat pump as part of their "Danae" series. This new model is capable of reaching an outlet temperature of 80C (176F), a significant improvement from the previous maximum of 45C (113F). The collaboration with Frascold has allowed Tecnofreddo to expand its offerings to include propane heat pumps for industrial applications, in addition to commercial comfort heating and cooling. The Danae high-temperature heat pump utilizes Frascold’s ATEX-HT semi-hermetic reciprocating compressor, featuring a line start permanent magnet (LSPM) electric motor that enhances efficiency by 6% compared to a standard asynchronous motor.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320507044082462721</t>
+          <t>https://naturalrefrigerants.com/tecnofreddos-new-propane-high-temperature-heat-pump-offers-outlet-temperatures-of-80c/</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Danfoss builds the world’s most livable lab</t>
+          <t>Danfoss to showcase solutions that decarbonize transportation at ACT Expo 2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>The new Danfoss House is the world’s only multi-residential building of bricks and concrete to achieve the highest certification under the globally recognized DGNB-standard.</t>
+          <t>Expo 2025, April 28 to May 1, in Anaheim, Calif. At booth 6341, Danfoss will highlight products from its Power Solutions and Power Electronics and Drives businesses, showcasing how the company helps original equipment manufacturers and vehicle fleet owners decarbonize their vehicles while exceeding performance expectations.</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/cf/danfoss-builds-the-world-s-most-livable-lab/</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-to-showcase-solutions-that-decarbonize-transportation-at-act-expo-2025/</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Danfoss: Texas sun powers all Danfoss US sites</t>
+          <t>Join the “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations” webinar led by Copeland</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>A power purchase agreement covering all Danfoss’ US facilities with renewable energy from a Texas solar farm is now effective. Danfoss will buy 185,000 MWh annually as part of the agreement which runs through 2032.</t>
+          <t>Join the “Adapting to Change: Key HVAC Trends in Refrigerants, Compressors &amp; Regulations” webinar led by Copeland’s Jennifer Butsch, director, regulatory affairs, and Brad Gross, product marketing manager, in partnership with Air Conditioning Contractors of America (ACCA).Gain expert insights on compressor selection, A2L refrigerants, LXE technology, Copeland Mobile, and upcoming CEE Tier shifts to navigate industry changes with confidence and efficiency.Register today: https://ow.ly/7kp850VBSnX</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/cf/texas-sun-powers-all-danfoss-us-sites/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320824098090078209</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>The growing demand for energy efficient solutions is shaping the future of residential heating and cooling. Copeland’s adva</t>
+          <t>Buildings account for 40% of the EU’s final energy use and 36% of its greenhouse gas emissions. With 75% of EU buildings st</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>The growing demand for energy efficient solutions is shaping the future of residential heating and cooling. Copeland’s advanced heating and cooling solutions deliver reliability, flexibility, and sustainability, ensuring optimal comfort while reducing energy consumption. With independent temperature control, high-performance components, and seamless system integration, our solutions are designed to enhance efficiency without compromising comfort.Join us at China Refrigeration Expo 2025, April 27-29, at Bo</t>
+          <t>Buildings account for 40% of the EU’s final energy use and 36% of its greenhouse gas emissions. With 75% of EU buildings still energy inefficient, the EPBD sets ambitious targets for renovation. Discover how Building Automation and Control Systems (BACS) can optimize energy use, improve EPC ratings, and enhance tenant comfort. Join us on Retrofit RETHINK Live event to learn how you can turn regulations into an opportunity to save energy, lower your costs and combat climate change.  Online event02f  E</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320446594275835907</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320816518231912448</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>From April 13th to 15th, #Frascold was proud to be showcased at FTC ARABIA booth during SaudiFood Manufacturing, the leading eve</t>
+          <t>Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01 to explore how Copeland is driving efficiency in indust</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>From April 13th to 15th, #Frascold was proud to be showcased at FTC ARABIA booth during SaudiFood Manufacturing, the leading event in Saudi Arabia for food processing and production technologies. Specialized in #refrigeration for #food and #industrial applications, #FTC integrates Frascold #compressors, including #reciprocating and #FVR models, into high-performance systems designed for #reliability and #efficiency.We’re proud to see our technologies on display in such a strategic context and thank FTC f</t>
+          <t xml:space="preserve">Join us at China Refrigeration Expo 2025 from April 27-29 at Booth E3F01 to explore how Copeland is driving efficiency in industrial heating. Our advanced high-temperature process heating solutions are designed to enhance energy utilization, improve system performance, and reduce costs, all while supporting a more sustainable future.From high condensing temperature technology to high-temperature-resistant control solutions, we’re here to help you optimize your operations. Stop by to connect with us, gain </t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320376770216505344</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320801191032942592</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>World Earth Day | Using sustainable engineering thinking to reduce the burden on the Earth April 22, 2025 is the 55t</t>
+          <t>We are excited to welcome Mary Lai as Copeland’s Vice President of Investor Relations. With over 15 years of leadership exp</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>World Earth Day | Using sustainable engineering thinking to reduce the burden on the EarthApril 22, 2025 is the 55th World Earth Day, and this year’s theme is "Our Energy, Our Planet". Snowman semi-hermetic screw compressor is compatible with various refrigerants such as ammonia refrigerants, featuring high efficiency and energy saving, effective carbon emission reduction, thus alleviating the burden on the Earth. #SRM #SnowmanGroup #SustainableDevelopment#GreenManufacturing #SustainableIndustry #Comp</t>
+          <t>We are excited to welcome Mary Lai as Copeland’s Vice President of Investor Relations.With over 15 years of leadership experience, Mary will focus on building our Investor Relations capabilities, enhancing financial communications and driving engagement with financial market participants. Her expertise aligns perfectly with Copeland’s commitment to operational excellence and innovation.Please join us in welcoming Mary to the team.#Leadership #Innovation #Finance #Copeland</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320247228793524224</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320507044082462721</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3846,941 +3846,941 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. Wit</t>
+          <t>Danfoss builds the world’s most livable lab</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. With a strong industrial background, extensive experience, and a passion for driving results, Juliette will play a key role in supporting our large Vilter accounts within the rapidly growing gas division. Her expertise and dedication align with our mission to deliver reliable and sustainable solutions for the renewable natural gas #RNG sector.Juliette will join the team April 28 in Den</t>
+          <t>The new Danfoss House is the world’s only multi-residential building of bricks and concrete to achieve the highest certification under the globally recognized DGNB-standard.</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320204929543929857</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/cf/danfoss-builds-the-world-s-most-livable-lab/</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. Wit</t>
+          <t>Danfoss: Texas sun powers all Danfoss US sites</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. With a strong industrial background, extensive experience, and a passion for driving results, Juliette will play a key role in supporting our large Vilter accounts within the rapidly growing gas division. Her expertise and dedication align with our mission to deliver reliable and sustainable solutions for the renewable natural gas #RNG sector.Juliette will join the team April 28 in Denv</t>
+          <t>A power purchase agreement covering all Danfoss’ US facilities with renewable energy from a Texas solar farm is now effective. Danfoss will buy 185,000 MWh annually as part of the agreement which runs through 2032.</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320204929543929857</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/cf/texas-sun-powers-all-danfoss-us-sites/</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Copeland is transforming data center cooling with high reliability solutions that drive efficiency, resilience, and sustainabili</t>
+          <t>The growing demand for energy efficient solutions is shaping the future of residential heating and cooling. Copeland’s adva</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Copeland is transforming data center cooling with high reliability solutions that drive efficiency, resilience, and sustainability. Our advanced technologies enhance operational safety, optimize energy use, and support a greener future, ensuring data centers run smarter and more reliably.Join us at China Refrigeration Expo 2025, April 27-29, at Booth E3F01 to discover how Copeland is shaping the future of data center sustainability. Learn more at: https://ow.ly/AcAu50Vtqtm</t>
+          <t>The growing demand for energy efficient solutions is shaping the future of residential heating and cooling. Copeland’s advanced heating and cooling solutions deliver reliability, flexibility, and sustainability, ensuring optimal comfort while reducing energy consumption. With independent temperature control, high-performance components, and seamless system integration, our solutions are designed to enhance efficiency without compromising comfort.Join us at China Refrigeration Expo 2025, April 27-29, at Bo</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320068980608548865</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320446594275835907</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dye Industry Exhibition | Understanding Industry Needs to Support Customers in Energy Saving, Cost Reduction, and Stable Product</t>
+          <t>From April 13th to 15th, #Frascold was proud to be showcased at FTC ARABIA booth during SaudiFood Manufacturing, the leading eve</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Dye Industry Exhibition | Understanding Industry Needs to Support Customers in Energy Saving, Cost Reduction, and Stable ProductionFrom April 16 to 18, the 24th China International Dye Industry, Organic Pigments and Textile Chemicals Exhibition successfully concluded at the Shanghai World Expo Exhibition &amp; Convention Center. Snowman Group showcased its SRM open-type screw brine refrigeration unit model and its 20t/d energy-efficient tube ice machine at the event.This exhibition deepened the technical e</t>
+          <t>From April 13th to 15th, #Frascold was proud to be showcased at FTC ARABIA booth during SaudiFood Manufacturing, the leading event in Saudi Arabia for food processing and production technologies. Specialized in #refrigeration for #food and #industrial applications, #FTC integrates Frascold #compressors, including #reciprocating and #FVR models, into high-performance systems designed for #reliability and #efficiency.We’re proud to see our technologies on display in such a strategic context and thank FTC f</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320013477157158912</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320376770216505344</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-22</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>728 Happy Easter from Officine Mario Dorin SpA! As spring awakens the world with renewal and hope, we pause to th</t>
+          <t>World Earth Day | Using sustainable engineering thinking to reduce the burden on the Earth April 22, 2025 is the 55t</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>728 Happy Easter from Officine Mario Dorin SpA!As spring awakens the world with renewal and hope, we pause to thank our incredible customers, partners, and friends across the globe for being part of our journey. May this Easter season bring you peace, joy, and inspiration - just as innovation and sustainability continue to guide everything we do at Dorin. Buona Pasqua!  Happy Easter!  Frohe Ostern!  Joyeuses Pâques!  ¡Feliz Pascua!#HappyEaster #Dorin #Compressors #Born2Freeze #since1918 #passi</t>
+          <t>World Earth Day | Using sustainable engineering thinking to reduce the burden on the EarthApril 22, 2025 is the 55th World Earth Day, and this year’s theme is "Our Energy, Our Planet". Snowman semi-hermetic screw compressor is compatible with various refrigerants such as ammonia refrigerants, featuring high efficiency and energy saving, effective carbon emission reduction, thus alleviating the burden on the Earth. #SRM #SnowmanGroup #SustainableDevelopment#GreenManufacturing #SustainableIndustry #Comp</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7319622015378726912</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320247228793524224</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-22</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Air Purger is now available with propane charge (R290) and the Bubbler. Join us for a focused webinar where we’ll take </t>
+          <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. Wit</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>The Air Purger is now available with propane charge (R290) and the Bubbler. Join us for a focused webinar where we’ll take you through how the trusted IPS 8 platform now brings all its benefits to ammonia-based systems. Whether you’re designing, upgrading, or servicing an ammonia industrial refrigeration system, the IPS 8 gives you: 705 Demand-based purging that adapts to system conditions 705 Standalone design – no oil circuit, no integration complexity 705 Built-in Modbus connectivity for monitoring and c</t>
+          <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. With a strong industrial background, extensive experience, and a passion for driving results, Juliette will play a key role in supporting our large Vilter accounts within the rapidly growing gas division. Her expertise and dedication align with our mission to deliver reliable and sustainable solutions for the renewable natural gas #RNG sector.Juliette will join the team April 28 in Den</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318951466918957056</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320204929543929857</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Save the Date – China Refrigeration 2025   #FrascoldChina is ready to welcome you at #ChinaRefrigeration in #S</t>
+          <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. Wit</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Save the Date – China Refrigeration 2025 #FrascoldChina is ready to welcome you at #ChinaRefrigeration in #Shanghai, from April 27–29! Find us at #Booth E2D31-E4F31Explore our innovative #compressor solutions for: Commercial &amp; Industrial Refrigeration Cold Chain Heat Pumps &amp; HVAC Cryogenic ApplicationsLet’s meet in Shanghai and shape the future of #refrigeration together!</t>
+          <t>We’re excited to welcome Juliette Ovion to Copeland as the new Strategic Account Manager for our Vilter Gas Sales team. With a strong industrial background, extensive experience, and a passion for driving results, Juliette will play a key role in supporting our large Vilter accounts within the rapidly growing gas division. Her expertise and dedication align with our mission to deliver reliable and sustainable solutions for the renewable natural gas #RNG sector.Juliette will join the team April 28 in Denv</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318927387209953280</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320204929543929857</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saudi Food Manufacturing Exhibition | Snowman Group presents natural working fluid refrigeration solutions From April 13 to 15, </t>
+          <t>Copeland is transforming data center cooling with high reliability solutions that drive efficiency, resilience, and sustainabili</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Saudi Food Manufacturing Exhibition | Snowman Group presents natural working fluid refrigeration solutionsFrom April 13 to 15, the 2025 Saudi Food Manufacturing Exhibition was successfully held in Riyadh. Snowman Group presented refrigeration equipment and system solutions based on natural working fluids, attracting the attention and inquiries of numerous industry clients.Against the backdrop of the global industry accelerating its transition towards low-carbonization, the Saudi market also has higher r</t>
+          <t>Copeland is transforming data center cooling with high reliability solutions that drive efficiency, resilience, and sustainability. Our advanced technologies enhance operational safety, optimize energy use, and support a greener future, ensuring data centers run smarter and more reliably.Join us at China Refrigeration Expo 2025, April 27-29, at Booth E3F01 to discover how Copeland is shaping the future of data center sustainability. Learn more at: https://ow.ly/AcAu50Vtqtm</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318873134848192514</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320068980608548865</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Planning to attend Biogas Americas 2025 in Denver? Visit Copeland at Booth #533 to see how Vilter single-screw gas compression t</t>
+          <t>Dye Industry Exhibition | Understanding Industry Needs to Support Customers in Energy Saving, Cost Reduction, and Stable Product</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Planning to attend Biogas Americas 2025 in Denver? Visit Copeland at Booth #533 to see how Vilter single-screw gas compression technology is helping renewable natural gas #RNG leaders maximize uptime and reliability. Our proven compression solutions are engineered for demanding RNG applications — delivering the performance, efficiency and low maintenance needed to keep systems running, day in and day out.</t>
+          <t>Dye Industry Exhibition | Understanding Industry Needs to Support Customers in Energy Saving, Cost Reduction, and Stable ProductionFrom April 16 to 18, the 24th China International Dye Industry, Organic Pigments and Textile Chemicals Exhibition successfully concluded at the Shanghai World Expo Exhibition &amp; Convention Center. Snowman Group showcased its SRM open-type screw brine refrigeration unit model and its 20t/d energy-efficient tube ice machine at the event.This exhibition deepened the technical e</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318730981014740993</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7320013477157158912</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-21</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>At Danfoss, decarbonization is not a solo sprint—it’s a collaborative journey. We partner with you to make resilient choice</t>
+          <t>728 Happy Easter from Officine Mario Dorin SpA! As spring awakens the world with renewal and hope, we pause to th</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>At Danfoss, decarbonization is not a solo sprint—it’s a collaborative journey. We partner with you to make resilient choices for your business and the planet, achieving intelligent and cost-effective decarbonization by reducing, reusing, and re-sourcing energy consumption. Together, we make decarbonization count.Unlock insights and explore solutions:705 RETHINK Live: Accelerate decarbonization in buildings - May 06, 2025, 1:00 PM CEST705 RETHINK Live: Accelerate decarbonization in the cold chain - May 07, 2</t>
+          <t>728 Happy Easter from Officine Mario Dorin SpA!As spring awakens the world with renewal and hope, we pause to thank our incredible customers, partners, and friends across the globe for being part of our journey. May this Easter season bring you peace, joy, and inspiration - just as innovation and sustainability continue to guide everything we do at Dorin. Buona Pasqua!  Happy Easter!  Frohe Ostern!  Joyeuses Pâques!  ¡Feliz Pascua!#HappyEaster #Dorin #Compressors #Born2Freeze #since1918 #passi</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318551343458123777</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7319622015378726912</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copeland is excited to participate in Plumbex India 2025 to showcase our advanced heat pump technology designed for residential </t>
+          <t xml:space="preserve">The Air Purger is now available with propane charge (R290) and the Bubbler. Join us for a focused webinar where we’ll take </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Copeland is excited to participate in Plumbex India 2025 to showcase our advanced heat pump technology designed for residential and commercial hot water systems. Our heat pumps are the ideal solution for India’s evolving infrastructure needs.Visit us at Booth A-12 from April 24-26 at Bharat Mandapam, New Delhi, to experience how Copeland’s heat pump technology is a game-changer for commercial spaces, hotels, and beyond.Register now: https://ow.ly/RR4A50Vzh3e</t>
+          <t>The Air Purger is now available with propane charge (R290) and the Bubbler. Join us for a focused webinar where we’ll take you through how the trusted IPS 8 platform now brings all its benefits to ammonia-based systems. Whether you’re designing, upgrading, or servicing an ammonia industrial refrigeration system, the IPS 8 gives you: 705 Demand-based purging that adapts to system conditions 705 Standalone design – no oil circuit, no integration complexity 705 Built-in Modbus connectivity for monitoring and c</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318490957971079169</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318951466918957056</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>How do you upgrade a 27-year-old refrigeration system without impacting operations? A brewery achieved just that by partnering w</t>
+          <t xml:space="preserve"> Save the Date – China Refrigeration 2025   #FrascoldChina is ready to welcome you at #ChinaRefrigeration in #S</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>How do you upgrade a 27-year-old refrigeration system without impacting operations? A brewery achieved just that by partnering with their trusted, local contractor, Frigotehnica, and Danfoss, using Danfoss ICF valve stations for a retrofit that delivered efficiency, safety, and sustainability—all with minimal downtime. The challenge was clear: the brewery needed to replace their old system with modern, energy-efficient technology, but stopping production wasn’t an option. The solution? Danfoss ICF val</t>
+          <t xml:space="preserve"> Save the Date – China Refrigeration 2025 #FrascoldChina is ready to welcome you at #ChinaRefrigeration in #Shanghai, from April 27–29! Find us at #Booth E2D31-E4F31Explore our innovative #compressor solutions for: Commercial &amp; Industrial Refrigeration Cold Chain Heat Pumps &amp; HVAC Cryogenic ApplicationsLet’s meet in Shanghai and shape the future of #refrigeration together!</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318268180701843456</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318927387209953280</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-18</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Djazagro 2025, the most important trade fair for the agri-food sector in North Africa has just come to an end, and we are please</t>
+          <t xml:space="preserve">Saudi Food Manufacturing Exhibition | Snowman Group presents natural working fluid refrigeration solutions From April 13 to 15, </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Djazagro 2025, the most important trade fair for the agri-food sector in North Africa has just come to an end, and we are pleased to have taken part in this edition thanks to our collaboration with #ClimatecBoulanaache.Within their stand, a #CondensingUnit and one of our #Frascold #compressors were proudly displayed, solutions designed to ensure efficiency and reliability in #FoodIndustry #refrigeration processes.A heartfelt thank you to Climatec Boulanaache for the trust and partnership: bringing Frasco</t>
+          <t>Saudi Food Manufacturing Exhibition | Snowman Group presents natural working fluid refrigeration solutionsFrom April 13 to 15, the 2025 Saudi Food Manufacturing Exhibition was successfully held in Riyadh. Snowman Group presented refrigeration equipment and system solutions based on natural working fluids, attracting the attention and inquiries of numerous industry clients.Against the backdrop of the global industry accelerating its transition towards low-carbonization, the Saudi market also has higher r</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318201160064995328</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318873134848192514</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-18</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! From April 27 to 29, Snowman Group will proudly showcase our flagship</t>
+          <t>Planning to attend Biogas Americas 2025 in Denver? Visit Copeland at Booth #533 to see how Vilter single-screw gas compression t</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Smart Leadership in Low-Carbon, Harmonizing Cool and Warm!From April 27 to 29, Snowman Group will proudly showcase our flagship products at the China Refrigeration Expo.Join us at Booth F15, Hall E1 – we look forward to seeing you there! Time: April 27-29, 2025 Exhibition location: Shanghai New International Expo Center#ChinaRefrigerationExpo #RefrigerationTechnology #LowCarbonSolutions #HVACR #SnowmanGroup #SustainableInnovation #SRM #SRMTech</t>
+          <t>Planning to attend Biogas Americas 2025 in Denver? Visit Copeland at Booth #533 to see how Vilter single-screw gas compression technology is helping renewable natural gas #RNG leaders maximize uptime and reliability. Our proven compression solutions are engineered for demanding RNG applications — delivering the performance, efficiency and low maintenance needed to keep systems running, day in and day out.</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318186819798417408</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318730981014740993</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Copeland, in partnership with Bisineer Engineering, has successfully installed high-efficiency sanitary heat pumps for a leading</t>
+          <t>At Danfoss, decarbonization is not a solo sprint—it’s a collaborative journey. We partner with you to make resilient choice</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Copeland, in partnership with Bisineer Engineering, has successfully installed high-efficiency sanitary heat pumps for a leading search engine company’s new office in Bengaluru. Copeland’s advanced heat pumps with solar heaters assist in meeting the daily requirement of sustainably managing 50,000 liters a day.This solution ensures reliable hot water supply while delivering energy efficiency. Copeland offers GreenPro Certified solutions that enhance energy efficiency, performance reliability, while reduci</t>
+          <t>At Danfoss, decarbonization is not a solo sprint—it’s a collaborative journey. We partner with you to make resilient choices for your business and the planet, achieving intelligent and cost-effective decarbonization by reducing, reusing, and re-sourcing energy consumption. Together, we make decarbonization count.Unlock insights and explore solutions:705 RETHINK Live: Accelerate decarbonization in buildings - May 06, 2025, 1:00 PM CEST705 RETHINK Live: Accelerate decarbonization in the cold chain - May 07, 2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318128565110091776</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318551343458123777</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Danfoss and Microsoft: An AI-powered Alliance to Drive Sustainability Ambitions</t>
+          <t xml:space="preserve">Copeland is excited to participate in Plumbex India 2025 to showcase our advanced heat pump technology designed for residential </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate the development and deployment of AI and cloud-based solutions that enable the industry to optimize energy consumption, reduce food waste, and lower emissions across food retail.</t>
+          <t>Copeland is excited to participate in Plumbex India 2025 to showcase our advanced heat pump technology designed for residential and commercial hot water systems. Our heat pumps are the ideal solution for India’s evolving infrastructure needs.Visit us at Booth A-12 from April 24-26 at Bharat Mandapam, New Delhi, to experience how Copeland’s heat pump technology is a game-changer for commercial spaces, hotels, and beyond.Register now: https://ow.ly/RR4A50Vzh3e</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://hvacinsider.com/danfoss-and-microsoft-an-ai-powered-alliance-to-drive-sustainability-ambitions/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318490957971079169</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-17</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Danfoss at the 36th China Refrigeration Exposition, leading the industry’s green transformation with innovative technologies</t>
+          <t>How do you upgrade a 27-year-old refrigeration system without impacting operations? A brewery achieved just that by partnering w</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>- 27 April-29, the 36th China Refrigeration Exhibition will take place at the Shanghai New International Expo Centre. Danfoss, a global leader in industrial and commercial refrigeration, will be presenting the latest product technologies and solutions under the theme of “Transition forward” at the exhibition stand E2D01. The exhibition will showcase the full range of products from the two business areas of air conditioning heat pumps and refrigeration, as well as six hot spot applications. In addition, this</t>
+          <t>How do you upgrade a 27-year-old refrigeration system without impacting operations? A brewery achieved just that by partnering with their trusted, local contractor, Frigotehnica, and Danfoss, using Danfoss ICF valve stations for a retrofit that delivered efficiency, safety, and sustainability—all with minimal downtime. The challenge was clear: the brewery needed to replace their old system with modern, energy-efficient technology, but stopping production wasn’t an option. The solution? Danfoss ICF val</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dcs/danfoss-at-the-36th-china-refrigeration-exposition-leading-the-industry-s-green-transformation-with-innovative-technologies/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318268180701843456</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>According to the IEA, data centers currently account for 1% of global electricity consumption, with that number as high as 4% in</t>
+          <t>Djazagro 2025, the most important trade fair for the agri-food sector in North Africa has just come to an end, and we are please</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>According to the IEA, data centers currently account for 1% of global electricity consumption, with that number as high as 4% in the U.S., China and EU. With our increasing reliance on cloud computing and the projected growth of AI and machine learning, data center electricity usage is forecast to more than double by 2030. The need for sustainable data centers, with energy-efficient cooling technologies, is critical. Where does the industry stand right now and what is the outlook for the next five year</t>
+          <t>Djazagro 2025, the most important trade fair for the agri-food sector in North Africa has just come to an end, and we are pleased to have taken part in this edition thanks to our collaboration with #ClimatecBoulanaache.Within their stand, a #CondensingUnit and one of our #Frascold #compressors were proudly displayed, solutions designed to ensure efficiency and reliability in #FoodIndustry #refrigeration processes.A heartfelt thank you to Climatec Boulanaache for the trust and partnership: bringing Frasco</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317864307587702786</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318201160064995328</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>The 25th China International Exhibition on Refrigeration, Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Snowman Arr</t>
+          <t>Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! From April 27 to 29, Snowman Group will proudly showcase our flagship</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>The 25th China International Exhibition on Refrigeration, Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Snowman Arrives on April 27!At this exhibition, Snowman Group will make a splendid appearance with its full range of brands and multiple series of star products. There will be expert forum activities on the exhibition site, and wonderful gifts will be dropped as surprises. We are looking forward to your presence at Booth F15, Hall E1, and we hope to explore the new driving forces for the de</t>
+          <t>Smart Leadership in Low-Carbon, Harmonizing Cool and Warm!From April 27 to 29, Snowman Group will proudly showcase our flagship products at the China Refrigeration Expo.Join us at Booth F15, Hall E1 – we look forward to seeing you there! Time: April 27-29, 2025 Exhibition location: Shanghai New International Expo Center#ChinaRefrigerationExpo #RefrigerationTechnology #LowCarbonSolutions #HVACR #SnowmanGroup #SustainableInnovation #SRM #SRMTech</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317854353522847744</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318186819798417408</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>At Heat Pump Technologies 2025, TEON showcased a two-stage air-to-water #HeatPump equipped with #Frascold #compressors and #natu</t>
+          <t>Copeland, in partnership with Bisineer Engineering, has successfully installed high-efficiency sanitary heat pumps for a leading</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>At Heat Pump Technologies 2025, TEON showcased a two-stage air-to-water #HeatPump equipped with #Frascold #compressors and #natural #refrigerants, designed to deliver high performance even in extreme environmental conditions.Using #R290 for the low stage and #R600a for the high stage, the unit ensures reliable operation from outdoor temperatures as low as -20°C up to +90°C in flow temperature. We are proud to contribute to solutions that combine efficiency, flexibility and environmental responsibility.</t>
+          <t>Copeland, in partnership with Bisineer Engineering, has successfully installed high-efficiency sanitary heat pumps for a leading search engine company’s new office in Bengaluru. Copeland’s advanced heat pumps with solar heaters assist in meeting the daily requirement of sustainably managing 50,000 liters a day.This solution ensures reliable hot water supply while delivering energy efficiency. Copeland offers GreenPro Certified solutions that enhance energy efficiency, performance reliability, while reduci</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317842466705960960</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7318128565110091776</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Frascold and Tecnofreddo Launch R290 Heat Pump for High-Temp Applications</t>
+          <t>Danfoss and Microsoft: An AI-powered Alliance to Drive Sustainability Ambitions</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tecnofreddo’s new DANAE heat pump reaches 80°C using Frascold ATEX-HT compressors and R290 refrigerant.</t>
+          <t>Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate the development and deployment of AI and cloud-based solutions that enable the industry to optimize energy consumption, reduce food waste, and lower emissions across food retail.</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/new-items/frascold-and-tecnofreddo-launch-r290-heat-pump-for-high-temp-applications/</t>
+          <t>https://hvacinsider.com/danfoss-and-microsoft-an-ai-powered-alliance-to-drive-sustainability-ambitions/</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Frascold: high-temperature heat pump for a sustainable future</t>
+          <t>Danfoss at the 36th China Refrigeration Exposition, leading the industry’s green transformation with innovative technologies</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Frascold and Tecnofreddo join forces for eco-friendly heating solutions 11 April 2025</t>
+          <t>- 27 April-29, the 36th China Refrigeration Exhibition will take place at the Shanghai New International Expo Centre. Danfoss, a global leader in industrial and commercial refrigeration, will be presenting the latest product technologies and solutions under the theme of “Transition forward” at the exhibition stand E2D01. The exhibition will showcase the full range of products from the two business areas of air conditioning heat pumps and refrigeration, as well as six hot spot applications. In addition, this</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88287</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dcs/danfoss-at-the-36th-china-refrigeration-exposition-leading-the-industry-s-green-transformation-with-innovative-technologies/</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>We’re excited to announce that we will be exhibiting in Bologna at REFRIGERA 2025, from 5 to 7 November! An unmissable event for</t>
+          <t>According to the IEA, data centers currently account for 1% of global electricity consumption, with that number as high as 4% in</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>We’re excited to announce that we will be exhibiting in Bologna at REFRIGERA 2025, from 5 to 7 November!An unmissable event for the refrigeration world, where we will be presenting our latest solutions and technologies.Come and visit us!#SRMTec #REFRIGERA2025 #Refrigeration #innovation #BolognaFiere</t>
+          <t>According to the IEA, data centers currently account for 1% of global electricity consumption, with that number as high as 4% in the U.S., China and EU. With our increasing reliance on cloud computing and the projected growth of AI and machine learning, data center electricity usage is forecast to more than double by 2030. The need for sustainable data centers, with energy-efficient cooling technologies, is critical. Where does the industry stand right now and what is the outlook for the next five year</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317836505220038659</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317864307587702786</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>High-temperature #HeatPumps are playing an increasingly strategic role in the transition towards efficient and #sustainable #hea</t>
+          <t>The 25th China International Exhibition on Refrigeration, Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Snowman Arr</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>High-temperature #HeatPumps are playing an increasingly strategic role in the transition towards efficient and #sustainable #heating solutions. A key factor in their development is the choice of compression technology.#Frascold ATEX-HT #compressors, designed to operate with #R290, can reach temperatures of up to 80°C, ensuring high efficiency and reliability even under the most demanding conditions. This technology has been adopted in the new Tecnofreddo S.r.l. #HeatPump, presented at Chillventa 2024, a c</t>
+          <t>The 25th China International Exhibition on Refrigeration, Smart Leadership in Low-Carbon, Harmonizing Cool and Warm! Snowman Arrives on April 27!At this exhibition, Snowman Group will make a splendid appearance with its full range of brands and multiple series of star products. There will be expert forum activities on the exhibition site, and wonderful gifts will be dropped as surprises. We are looking forward to your presence at Booth F15, Hall E1, and we hope to explore the new driving forces for the de</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317482329852043264</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317854353522847744</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hydronic balancing: is there a better way? In this episode of Taking the Temperature on HVACR, our experts recall the challenge </t>
+          <t>At Heat Pump Technologies 2025, TEON showcased a two-stage air-to-water #HeatPump equipped with #Frascold #compressors and #natu</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Hydronic balancing: is there a better way? In this episode of Taking the Temperature on HVACR, our experts recall the challenge of manually balancing heating systems—adjusting valves, wasting time, and struggling to get it just right. Find out how dynamic balancing solutions can eliminate these inefficiencies, improve comfort, and reduce energy costs in multi-family buildings.  Listen to the full episode now: https://bit.ly/4208oG3#TakingTheTemperatureOnHVACR #HydronicBalancing #MultiFamilyBuildings #</t>
+          <t>At Heat Pump Technologies 2025, TEON showcased a two-stage air-to-water #HeatPump equipped with #Frascold #compressors and #natural #refrigerants, designed to deliver high performance even in extreme environmental conditions.Using #R290 for the low stage and #R600a for the high stage, the unit ensures reliable operation from outdoor temperatures as low as -20°C up to +90°C in flow temperature. We are proud to contribute to solutions that combine efficiency, flexibility and environmental responsibility.</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317441316563423232</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317842466705960960</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-15</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Dorin’s Commitment to a PFAS-free Future in Refrigeration</t>
+          <t>Frascold and Tecnofreddo Launch R290 Heat Pump for High-Temp Applications</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Officine Mario Dorin is actively addressing the transition away from PFAS in refrigeration.</t>
+          <t xml:space="preserve"> Tecnofreddo’s new DANAE heat pump reaches 80°C using Frascold ATEX-HT compressors and R290 refrigerant.</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88284</t>
+          <t>https://refindustry.com/news/new-items/frascold-and-tecnofreddo-launch-r290-heat-pump-for-high-temp-applications/</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Hanbell Consistently Launches High-efficiency Screw Compressor Models</t>
+          <t>Frascold: high-temperature heat pump for a sustainable future</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In response to the growing demand for high-efficiency products, Hanbell launched the RM-Pro series PM VFD screw compressor in 2024.</t>
+          <t xml:space="preserve"> Frascold and Tecnofreddo join forces for eco-friendly heating solutions 11 April 2025</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88279</t>
+          <t>https://www.ejarn.com/article/detail/88287</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What if a #DORIN starter pack looked like this?  What would you still include in the ultimate DORIN sta</t>
+          <t>We’re excited to announce that we will be exhibiting in Bologna at REFRIGERA 2025, from 5 to 7 November! An unmissable event for</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What if a #DORIN starter pack looked like this? What would you still include in the ultimate DORIN starter kit? Drop it in the comments! At DORIN, we know it takes more than tools – it takes passion, innovation, and a serious love for CO₂You can’t box experience, but you can show what it means to be #Born2Freeze Image created with #AI#trend #artificialintelligence #DORIN #Born2Freeze #since1918 #passion #familybusiness #NatRefs #Innovation #RefrigerationTech #HVACR #CO2cooling #R744 #NaturalRe</t>
+          <t>We’re excited to announce that we will be exhibiting in Bologna at REFRIGERA 2025, from 5 to 7 November!An unmissable event for the refrigeration world, where we will be presenting our latest solutions and technologies.Come and visit us!#SRMTec #REFRIGERA2025 #Refrigeration #innovation #BolognaFiere</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7316473499106140160</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317836505220038659</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Our solutions are designed to help you optimize energy efficiency and reduce the development time for both water- and air-cooled</t>
+          <t>High-temperature #HeatPumps are playing an increasingly strategic role in the transition towards efficient and #sustainable #hea</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Our solutions are designed to help you optimize energy efficiency and reduce the development time for both water- and air-cooled systems.  Find all the insights for building better chillers here: https://bit.ly/3WEIIvK#Animation #Chiller #WaterCooled #HVAC</t>
+          <t>High-temperature #HeatPumps are playing an increasingly strategic role in the transition towards efficient and #sustainable #heating solutions. A key factor in their development is the choice of compression technology.#Frascold ATEX-HT #compressors, designed to operate with #R290, can reach temperatures of up to 80°C, ensuring high efficiency and reliability even under the most demanding conditions. This technology has been adopted in the new Tecnofreddo S.r.l. #HeatPump, presented at Chillventa 2024, a c</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7316414799288922112</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317482329852043264</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Fernwärme-Konferenz fokussiert Fernwärmeausbau</t>
+          <t xml:space="preserve">Hydronic balancing: is there a better way? In this episode of Taking the Temperature on HVACR, our experts recall the challenge </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Die Expertenvorträge der diesjährigen Danfoss Fernwärme-Konferenz befassen sich mit allen zentralen Herausforderungen der Fernwärmewende – von der Projektplanung über die Dekarbonisierung der Netze durch die Nutzung alternativer Wärmequellen bis zur Optimierung des Netzbetriebs. Praxisbeispiele runden die Vortragsreihe ab. Interessierte haben die Möglichkeit, sich im Rahmen der Online-Veranstaltung vom 20. bis 22. Mai über planerische, technische, rechtliche und wirtschaftliche Aspekte der Umsetzung von Fer</t>
+          <t>Hydronic balancing: is there a better way? In this episode of Taking the Temperature on HVACR, our experts recall the challenge of manually balancing heating systems—adjusting valves, wasting time, and struggling to get it just right. Find out how dynamic balancing solutions can eliminate these inefficiencies, improve comfort, and reduce energy costs in multi-family buildings.  Listen to the full episode now: https://bit.ly/4208oG3#TakingTheTemperatureOnHVACR #HydronicBalancing #MultiFamilyBuildings #</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://gebaeudedigital.de/allgemein/fernwaerme-konferenz-fokussiert-fernwaermeausbau/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7317441316563423232</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Danfoss Thermostatköpfe tauschen leicht gemacht.</t>
+          <t>Dorin’s Commitment to a PFAS-free Future in Refrigeration</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Alt gegen Neu: Wir zeigen Ihnen welcher Kopf in welchem Anwendungsfall am besten passt!</t>
+          <t xml:space="preserve"> Officine Mario Dorin is actively addressing the transition away from PFAS in refrigeration.</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://www.shk-journal.de/news/danfoss-thermostatkoepfe-tauschen-leicht-gemacht.html</t>
+          <t>https://www.ejarn.com/article/detail/88284</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>G&amp;D CHILLERS, INC. has chosen #Frascold Z model #compressors for the new Elite 290 series, developed to provide cutting-edge sol</t>
+          <t>Hanbell Consistently Launches High-efficiency Screw Compressor Models</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>G&amp;D CHILLERS, INC. has chosen #Frascold Z model #compressors for the new Elite 290 series, developed to provide cutting-edge solutions using #R290. This technology marks a major step forward for the industry, combining #sustainability with high performance.Frascold’s expertise in #NaturalRefrigerant applications played a key role in developing an efficient, low-impact system. Read the full #article to learn more: https://lnkd.in/dnnKbvQ2</t>
+          <t xml:space="preserve"> In response to the growing demand for high-efficiency products, Hanbell launched the RM-Pro series PM VFD screw compressor in 2024.</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7316084230327828480</t>
+          <t>https://www.ejarn.com/article/detail/88279</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Retrofitting is more than just energy savings. Did you know that by optimizing HVAC systems and energy flows, you can lower oper</t>
+          <t xml:space="preserve"> What if a #DORIN starter pack looked like this?  What would you still include in the ultimate DORIN sta</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Retrofitting is more than just energy savings. Did you know that by optimizing HVAC systems and energy flows, you can lower operational expenses while also improving your building’s overall performance?  Danfoss provides retrofit solutions that enhance your building’s efficiency, enabling you to reduce costs and increase long-term value. Let’s work together to retrofit your buildings.  Learn more here: https://bit.ly/4iwG0RO#Retrofit #CommercialBuildings #DanfossClimateSolutions #HVAC</t>
+          <t xml:space="preserve"> What if a #DORIN starter pack looked like this? What would you still include in the ultimate DORIN starter kit? Drop it in the comments! At DORIN, we know it takes more than tools – it takes passion, innovation, and a serious love for CO₂You can’t box experience, but you can show what it means to be #Born2Freeze Image created with #AI#trend #artificialintelligence #DORIN #Born2Freeze #since1918 #passion #familybusiness #NatRefs #Innovation #RefrigerationTech #HVACR #CO2cooling #R744 #NaturalRe</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7316015673443270657</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7316473499106140160</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-11</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Danfoss Turbocor: The new Turbocor plant in Tallahassee showcases advanced automation in the manufacturing process</t>
+          <t>Our solutions are designed to help you optimize energy efficiency and reduce the development time for both water- and air-cooled</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>The video shows a factory tour of the new Danfoss Turbocor plant in Tallahassee, Florida, showcasing the production process that involves a high level of automation. One of the notable features highlighted is the fully automated end-of-line test that is conducted using the actual refrigerant, emphasizing the advanced technology and precision involved in the manufacturing process at the plant.</t>
+          <t>Our solutions are designed to help you optimize energy efficiency and reduce the development time for both water- and air-cooled systems.  Find all the insights for building better chillers here: https://bit.ly/3WEIIvK#Animation #Chiller #WaterCooled #HVAC</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=x0AO1EnD5sI</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7316414799288922112</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Behind each of our compressors is much more than an industrial process. There is the expertise of expert hands, the precision of</t>
+          <t>Fernwärme-Konferenz fokussiert Fernwärmeausbau</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Behind each of our compressors is much more than an industrial process.There is the expertise of expert hands, the precision of quality control, the passion for a job well done.There is the value of Made in Italy, which for us means reliability, care and continuous innovation.Every compressor is assembled in-house and 100% tested, because our customers’ trust is built with deeds, not words.Reliable. Durable. Italian.This is our way of doing refrigeration.#SRMTec#MadeInItaly #Compressor</t>
+          <t>Die Expertenvorträge der diesjährigen Danfoss Fernwärme-Konferenz befassen sich mit allen zentralen Herausforderungen der Fernwärmewende – von der Projektplanung über die Dekarbonisierung der Netze durch die Nutzung alternativer Wärmequellen bis zur Optimierung des Netzbetriebs. Praxisbeispiele runden die Vortragsreihe ab. Interessierte haben die Möglichkeit, sich im Rahmen der Online-Veranstaltung vom 20. bis 22. Mai über planerische, technische, rechtliche und wirtschaftliche Aspekte der Umsetzung von Fer</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315675598205407233</t>
+          <t>https://gebaeudedigital.de/allgemein/fernwaerme-konferenz-fokussiert-fernwaermeausbau/</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-11</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning </t>
+          <t>Danfoss Thermostatköpfe tauschen leicht gemacht.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning &amp; heat pump symposium brought together stakeholders from across the HVAC-R industry to challenge assumptions, share insights, and identify the actions needed to accelerate the green transition. Thanks to everyone who joined us in Nordborg — your perspectives are shaping what’s next. Want to hear what stood out? Key insights and highlights will be unpacked at our upcoming RETHINK </t>
+          <t>Alt gegen Neu: Wir zeigen Ihnen welcher Kopf in welchem Anwendungsfall am besten passt!</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315404812173348866</t>
+          <t>https://www.shk-journal.de/news/danfoss-thermostatkoepfe-tauschen-leicht-gemacht.html</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building strong</t>
+          <t>G&amp;D CHILLERS, INC. has chosen #Frascold Z model #compressors for the new Elite 290 series, developed to provide cutting-edge sol</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building stronger global connections.Read his full interview with BW Businessworld to gain insights on shaping a sustainable and collaborative future for trade and industry: https://ow.ly/2WPJ50Vw7LZ#Leadership #GlobalTrade #Innovation</t>
+          <t>G&amp;D CHILLERS, INC. has chosen #Frascold Z model #compressors for the new Elite 290 series, developed to provide cutting-edge solutions using #R290. This technology marks a major step forward for the industry, combining #sustainability with high performance.Frascold’s expertise in #NaturalRefrigerant applications played a key role in developing an efficient, low-impact system. Read the full #article to learn more: https://lnkd.in/dnnKbvQ2</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315373439442132993</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7316084230327828480</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-04-10</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>G&amp;D Chillers selects Frascold compressors for propane-based Elite 290 series</t>
+          <t>Retrofitting is more than just energy savings. Did you know that by optimizing HVAC systems and energy flows, you can lower oper</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> G&amp;D Chillers has chosen Frascold’s Z model semi-hermetic piston compressors for its new Elite 290 chiller series, a propane-based solution recently adopted by New Belgium Brewing.</t>
+          <t>Retrofitting is more than just energy savings. Did you know that by optimizing HVAC systems and energy flows, you can lower operational expenses while also improving your building’s overall performance?  Danfoss provides retrofit solutions that enhance your building’s efficiency, enabling you to reduce costs and increase long-term value. Let’s work together to retrofit your buildings.  Learn more here: https://bit.ly/4iwG0RO#Retrofit #CommercialBuildings #DanfossClimateSolutions #HVAC</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/market-news/g-d-chillers-selects-frascold-compressors-for-propane-based-elite-290-series/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7316015673443270657</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-10</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Partnership on Refrigeration Efficiency Efforts Expands</t>
+          <t>Danfoss Turbocor: The new Turbocor plant in Tallahassee showcases advanced automation in the manufacturing process</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 8, 2025 BALTIMORE — Building on a successful collaboration established in 2019, Danfoss and Microsoft Corp. are expanding their</t>
+          <t>The video shows a factory tour of the new Danfoss Turbocor plant in Tallahassee, Florida, showcasing the production process that involves a high level of automation. One of the notable features highlighted is the fully automated end-of-line test that is conducted using the actual refrigerant, emphasizing the advanced technology and precision involved in the manufacturing process at the plant.</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.achrnews.com/articles/164422-partnership-on-refrigeration-efficiency-efforts-expands</t>
+          <t>https://www.youtube.com/watch?v=x0AO1EnD5sI</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Swing by and network: Join Copeland for a special social hour at Canadian Produce Marketing Association (CPMA) in Montreal. Stop</t>
+          <t>Behind each of our compressors is much more than an industrial process. There is the expertise of expert hands, the precision of</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Swing by and network: Join Copeland for a special social hour at Canadian Produce Marketing Association (CPMA) in Montreal. Stop by booth #1124 tomorrow, April 9th, from 3:30–5:30 PM to connect over refreshments and discover our comprehensive cold chain solutions—from compressors and controls to advanced monitoring and cargo tracking. Plus, enter to win a Solo Stove.Don’t miss this chance to explore our booth, chat with our team, and see how we’re driving energy efficiency and sustai</t>
+          <t>Behind each of our compressors is much more than an industrial process.There is the expertise of expert hands, the precision of quality control, the passion for a job well done.There is the value of Made in Italy, which for us means reliability, care and continuous innovation.Every compressor is assembled in-house and 100% tested, because our customers’ trust is built with deeds, not words.Reliable. Durable. Italian.This is our way of doing refrigeration.#SRMTec#MadeInItaly #Compressor</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315433786047938562</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315675598205407233</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Danfoss and Microsoft: An AI-powered alliance to drive sustainability ambitions</t>
+          <t xml:space="preserve">Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 7, 2025 Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate</t>
+          <t xml:space="preserve">Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning &amp; heat pump symposium brought together stakeholders from across the HVAC-R industry to challenge assumptions, share insights, and identify the actions needed to accelerate the green transition. Thanks to everyone who joined us in Nordborg — your perspectives are shaping what’s next. Want to hear what stood out? Key insights and highlights will be unpacked at our upcoming RETHINK </t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88206</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315404812173348866</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning.</t>
+          <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building strong</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning &amp; heat pump symposium brought together stakeholders from across the HVAC-R industry to challenge assumptions, share insights, and identify the actions needed to accelerate the green transition. Thanks to everyone who joined us in Nordborg — your perspectives are shaping what’s next. Want to hear what stood out? Key insights and highlights will be u</t>
+          <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building stronger global connections.Read his full interview with BW Businessworld to gain insights on shaping a sustainable and collaborative future for trade and industry: https://ow.ly/2WPJ50Vw7LZ#Leadership #GlobalTrade #Innovation</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315404812173348866</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315373439442132993</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-09</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Dennis Appel to lead new Controls and Thermal Management division in Danfoss Climate Solutions</t>
+          <t>G&amp;D Chillers selects Frascold compressors for propane-based Elite 290 series</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> March 18, 2025 Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division.</t>
+          <t xml:space="preserve"> G&amp;D Chillers has chosen Frascold’s Z model semi-hermetic piston compressors for its new Elite 290 chiller series, a propane-based solution recently adopted by New Belgium Brewing.</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88191</t>
+          <t>https://refindustry.com/news/market-news/g-d-chillers-selects-frascold-compressors-for-propane-based-elite-290-series/</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4792,17 +4792,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building str...</t>
+          <t>Partnership on Refrigeration Efficiency Efforts Expands</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building stronger global connections.Read his full interview with BW Businessworld to gain insights on shaping a sustainable and collaborative future for trade and industry: https://ow.ly/2WPJ50Vw7LZ#Leadership #GlobalTrade #Innovation</t>
+          <t xml:space="preserve"> April 8, 2025 BALTIMORE — Building on a successful collaboration established in 2019, Danfoss and Microsoft Corp. are expanding their</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315373439442132993</t>
+          <t>https://www.achrnews.com/articles/164422-partnership-on-refrigeration-efficiency-efforts-expands</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4814,17 +4814,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on groun</t>
+          <t>Swing by and network: Join Copeland for a special social hour at Canadian Produce Marketing Association (CPMA) in Montreal. Stop</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on groundbreaking technologies, industry leadership, and our vision for global impact.Dive into the full interview to see how Copeland is driving change and innovating for a more sustainable tomorrow. Read on ACHR NEWS here: https://ow.ly/KlFn50VvLTO</t>
+          <t>Swing by and network: Join Copeland for a special social hour at Canadian Produce Marketing Association (CPMA) in Montreal. Stop by booth #1124 tomorrow, April 9th, from 3:30–5:30 PM to connect over refreshments and discover our comprehensive cold chain solutions—from compressors and controls to advanced monitoring and cargo tracking. Plus, enter to win a Solo Stove.Don’t miss this chance to explore our booth, chat with our team, and see how we’re driving energy efficiency and sustai</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315071286026674177</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315433786047938562</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4836,17 +4836,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exh</t>
+          <t>Danfoss and Microsoft: An AI-powered alliance to drive sustainability ambitions</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exhibition &amp; Convention Center  Date: April 16-18, 2025  Booth B1128We sincerely invite you to join us at CHINA INTERDYE 2025 from April 16-18, 2025, at the Shanghai World Expo Exhibition &amp; Convention Center. Visit us at Booth B1128 to explore our latest innovations in refrigeration and cooling technology.Connect with our experts to gain industry insights and discover how cutting-edge tem</t>
+          <t xml:space="preserve"> April 7, 2025 Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314856447819821056</t>
+          <t>https://www.ejarn.com/article/detail/88206</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4858,127 +4858,127 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>This week, Copeland is sponsoring the 5th Kirby HVACR Training Scholarship Program. This initiative brings together 20 apprentic</t>
+          <t>Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>This week, Copeland is sponsoring the 5th Kirby HVACR Training Scholarship Program. This initiative brings together 20 apprentices from across Australia to participate in nationally accredited #CO2 safety, repair &amp; service training, alongside system controls training. By working with the #KirbyApprenticeFund, we aim to drive industry growth, develop essential skills in natural refrigerant technology and build a more sustainable future.</t>
+          <t>Big questions. Real dialogue. A shared ambition to move faster on decarbonization. Today’s Refrigeration, air-conditioning &amp; heat pump symposium brought together stakeholders from across the HVAC-R industry to challenge assumptions, share insights, and identify the actions needed to accelerate the green transition. Thanks to everyone who joined us in Nordborg — your perspectives are shaping what’s next. Want to hear what stood out? Key insights and highlights will be u</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315753878652628995</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315404812173348866</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on gr...</t>
+          <t>Dennis Appel to lead new Controls and Thermal Management division in Danfoss Climate Solutions</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on groundbreaking technologies, industry leadership, and our vision for global impact.Dive into the full interview to see how Copeland is driving change and innovating for a more sustainable tomorrow. Read on ACHR NEWS here: https://ow.ly/KlFn50VvLTO</t>
+          <t xml:space="preserve"> March 18, 2025 Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315071286026674177</t>
+          <t>https://www.ejarn.com/article/detail/88191</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>New Synflex by Danfoss 3TMH thermoplastic hydraulic hose offers superior performance for material handling applications</t>
+          <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building str...</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> “As industry demands continue to evolve, we aim to provide solutions that not only meet but exceed customer expectations,” said Marzena</t>
+          <t>Explore our CEO Ross B. Shuster’s perspective on the importance of open and free trade in driving innovation and building stronger global connections.Read his full interview with BW Businessworld to gain insights on shaping a sustainable and collaborative future for trade and industry: https://ow.ly/2WPJ50Vw7LZ#Leadership #GlobalTrade #Innovation</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/new-synflex-by-danfoss-3tmh-thermoplastic-hydraulic-hose-offers-superior-performance-for-material-handling-applications-1/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315373439442132993</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Danfoss Power Solutions launches X1P family, the first step in the evolution of its open-circuit piston pump portfolio</t>
+          <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on groun</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The X1P pump’s housing and unique angular control mounting reduce hydraulic noise by up to 3 dBA at 2,200 rpm, increasing operator comfort.</t>
+          <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on groundbreaking technologies, industry leadership, and our vision for global impact.Dive into the full interview to see how Copeland is driving change and innovating for a more sustainable tomorrow. Read on ACHR NEWS here: https://ow.ly/KlFn50VvLTO</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-x1p-family-the-first-step-in-the-evolution-of-its-open-circuit-piston-pump-portfolio/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315071286026674177</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Danfoss Power Solutions launches Editron EC-LCL1200B electric filter, a compact solution for high-power grid-connected electric </t>
+          <t>Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exh</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The LCL1200B electric filter is a mobile-grade solution for machinery operating in demanding off-highway environments.</t>
+          <t>Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exhibition &amp; Convention Center  Date: April 16-18, 2025  Booth B1128We sincerely invite you to join us at CHINA INTERDYE 2025 from April 16-18, 2025, at the Shanghai World Expo Exhibition &amp; Convention Center. Visit us at Booth B1128 to explore our latest innovations in refrigeration and cooling technology.Connect with our experts to gain industry insights and discover how cutting-edge tem</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-editron-ec-lcl1200b-electric-filter-a-compact-solution-for-high-power-grid-connected-electric-machinery/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314856447819821056</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-08</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Danfoss Power Solutions extends Thorx cam lobe motor family with new, improved design for track drives</t>
+          <t>This week, Copeland is sponsoring the 5th Kirby HVACR Training Scholarship Program. This initiative brings together 20 apprentic</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The robust, novel design of the CLM 12 T extends the life of the motor and its bearings.</t>
+          <t>This week, Copeland is sponsoring the 5th Kirby HVACR Training Scholarship Program. This initiative brings together 20 apprentices from across Australia to participate in nationally accredited #CO2 safety, repair &amp; service training, alongside system controls training. By working with the #KirbyApprenticeFund, we aim to drive industry growth, develop essential skills in natural refrigerant technology and build a more sustainable future.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-extends-thorx-cam-lobe-motor-family-with-new-improved-design-for-track-drives/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315753878652628995</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4990,17 +4990,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps sup</t>
+          <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on gr...</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps support any fuel mix and enhance the overall efficiency of heating burners, allowing us to help our customers achieve their sustainability goals  Learn more here: https://bit.ly/3FWzZzn#TransitionForward #Decarbonization #Biofuel #Bio100 #DanfossClimateSolutions #Decarbonization #HeatingSolutions</t>
+          <t>Discover how innovation is shaping the future of sustainable solutions. Copeland’s CTO Patrick Forsythe shares insights on groundbreaking technologies, industry leadership, and our vision for global impact.Dive into the full interview to see how Copeland is driving change and innovating for a more sustainable tomorrow. Read on ACHR NEWS here: https://ow.ly/KlFn50VvLTO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314904885848633344</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7315071286026674177</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5012,17 +5012,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exh</t>
+          <t>New Synflex by Danfoss 3TMH thermoplastic hydraulic hose offers superior performance for material handling applications</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exhibition &amp; Convention Center  Date: April 16-18, 2025  Booth B1128We sincerely invite you to join us at CHINA INTERDYE 2025 from April 16-18, 2025, at the Shanghai World Expo Exhibition &amp; Convention Center. Visit us at Booth B1128 to explore our latest innovations in refrigeration and cooling technology.Connect with our experts </t>
+          <t xml:space="preserve"> “As industry demands continue to evolve, we aim to provide solutions that not only meet but exceed customer expectations,” said Marzena</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314856447819821056</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/new-synflex-by-danfoss-3tmh-thermoplastic-hydraulic-hose-offers-superior-performance-for-material-handling-applications-1/</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5034,17 +5034,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>China: Danfoss to scale up investment, technology implementation</t>
+          <t xml:space="preserve">Danfoss Power Solutions launches Editron EC-LCL1200B electric filter, a compact solution for high-power grid-connected electric </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Danfoss has experienced significant growth in sectors such as data centers, marine, and offshore businesses in China, aligning with the country’s emphasis on high-quality development. As China embarks on a new era of green and innovation-driven development, Kim Fausing, president and CEO of Danfoss, noted that the company has experienced robust growth across a variety of areas, such as its data center, semiconductor, marine and offshore businesses, as well as its battery energy storage systems. For example, its data center business surged 70 percent year-on-year, while its marine and offshore business grew by 29 percent on a yearly basis in China in 2024.While China transitions from the new construction market to focus on refurbishment and retrofitting, Fausing said building retrofits and large-scale equipment upgrades have become key development priorities in the country, creating significant opportunities for the group’s energy-efficient technologies. "With growing competition from local companies, the market momentum is already different in China. Only companies with strong agility and adaptability will win," he said, adding that China, regarded by Danfoss as its second home market, is a must-have and not a nice-to-have market.</t>
+          <t xml:space="preserve"> The LCL1200B electric filter is a mobile-grade solution for machinery operating in demanding off-highway environments.</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>http://www.chinadaily.com.cn/a/202504/07/WS67f3282ca3104d9fd381dd5f.html</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-editron-ec-lcl1200b-electric-filter-a-compact-solution-for-high-power-grid-connected-electric-machinery/</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5056,144 +5056,144 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Controlling condensing pressure is essential for optimal performance. Explore the mechanical KVR-NRD combination in our animatio</t>
+          <t>Danfoss Power Solutions extends Thorx cam lobe motor family with new, improved design for track drives</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Controlling condensing pressure is essential for optimal performance. Explore the mechanical KVR-NRD combination in our animation   Want to learn more? Check out our comprehensive Condensing Unit Installation walkthrough infographic: https://bit.ly/3Efajxe#Animation #Condenser #CondensingPressure #CondensingUnit #DanfossClimateSolutions</t>
+          <t xml:space="preserve"> The robust, novel design of the CLM 12 T extends the life of the motor and its bearings.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314544179026526208</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-extends-thorx-cam-lobe-motor-family-with-new-improved-design-for-track-drives/</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-07</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development:</t>
+          <t>Danfoss Power Solutions launches X1P family, the first step in the evolution of its open-circuit piston pump portfolio</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 5000–6000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new d</t>
+          <t xml:space="preserve"> The X1P pump’s housing and unique angular control mounting reduce hydraulic noise by up to 3 dBA at 2,200 rpm, increasing operator comfort.</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313870474441052160</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-launches-x1p-family-the-first-step-in-the-evolution-of-its-open-circuit-piston-pump-portfolio/</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-07</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>At ISH 2025, Gaia Balzarini introduced a new expert paper that explores how Building Automation and Control Systems (BACS) ca...</t>
+          <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps sup</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve">At ISH 2025, Gaia Balzarini introduced a new expert paper that explores how Building Automation and Control Systems (BACS) can play a central role in reducing energy use and emissions across Europe’s building stock.  Buildings account for a large share of total energy demand—and the urgency to reduce that impact is growing. – BACS for HVAC upgrades can cut energy consumption by 15-38% with a return on investment in just 1-3 years – Adaptability is key – </t>
+          <t>Transitioning to liquid low-carbon fuels is a crucial part of the CO₂ decarbonization journey. Our Danfoss Bio100 pumps support any fuel mix and enhance the overall efficiency of heating burners, allowing us to help our customers achieve their sustainability goals  Learn more here: https://bit.ly/3FWzZzn#TransitionForward #Decarbonization #Biofuel #Bio100 #DanfossClimateSolutions #Decarbonization #HeatingSolutions</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314210204626157568</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314904885848633344</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-07</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainability </t>
+          <t>Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exh</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainability Publication by The American Chamber of Commerce of the Philippines, Inc. The Copeland Philippines team are integral to advancing our vision to create sustainable solutions that improve lives and protect the planet, helping to strengthen operational efficiencies and championing a culture of continuous improvement and environmentally conscious leadership.From driving the glob</t>
+          <t xml:space="preserve">Dye Exhibition | April 16 – Precision Temperature Control for Brilliant Colors!  Venue: Shanghai World Expo Exhibition &amp; Convention Center  Date: April 16-18, 2025  Booth B1128We sincerely invite you to join us at CHINA INTERDYE 2025 from April 16-18, 2025, at the Shanghai World Expo Exhibition &amp; Convention Center. Visit us at Booth B1128 to explore our latest innovations in refrigeration and cooling technology.Connect with our experts </t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313960764300488704</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314856447819821056</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development:</t>
+          <t>China: Danfoss to scale up investment, technology implementation</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 65000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new display wa</t>
+          <t>Danfoss has experienced significant growth in sectors such as data centers, marine, and offshore businesses in China, aligning with the country’s emphasis on high-quality development. As China embarks on a new era of green and innovation-driven development, Kim Fausing, president and CEO of Danfoss, noted that the company has experienced robust growth across a variety of areas, such as its data center, semiconductor, marine and offshore businesses, as well as its battery energy storage systems. For example, its data center business surged 70 percent year-on-year, while its marine and offshore business grew by 29 percent on a yearly basis in China in 2024.While China transitions from the new construction market to focus on refurbishment and retrofitting, Fausing said building retrofits and large-scale equipment upgrades have become key development priorities in the country, creating significant opportunities for the group’s energy-efficient technologies. "With growing competition from local companies, the market momentum is already different in China. Only companies with strong agility and adaptability will win," he said, adding that China, regarded by Danfoss as its second home market, is a must-have and not a nice-to-have market.</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313870474441052160</t>
+          <t>http://www.chinadaily.com.cn/a/202504/07/WS67f3282ca3104d9fd381dd5f.html</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-07</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainabil...</t>
+          <t>Controlling condensing pressure is essential for optimal performance. Explore the mechanical KVR-NRD combination in our animatio</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainability Publication by The American Chamber of Commerce of the Philippines, Inc. The Copeland Philippines team are integral to advancing our vision to create sustainable solutions that improve lives and protect the planet, helping to strengthen operational efficiencies and championing a culture of continuous improvement and environmentally conscious leadership.From driving the glob</t>
+          <t>Controlling condensing pressure is essential for optimal performance. Explore the mechanical KVR-NRD combination in our animation   Want to learn more? Check out our comprehensive Condensing Unit Installation walkthrough infographic: https://bit.ly/3Efajxe#Animation #Condenser #CondensingPressure #CondensingUnit #DanfossClimateSolutions</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313960764300488704</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314544179026526208</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform developme...</t>
+          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development:</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 65000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new display wa</t>
+          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 5000–6000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new d</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5203,46 +5203,46 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform developme...</t>
+          <t>At ISH 2025, Gaia Balzarini introduced a new expert paper that explores how Building Automation and Control Systems (BACS) ca...</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 5000–6000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new d</t>
+          <t xml:space="preserve">At ISH 2025, Gaia Balzarini introduced a new expert paper that explores how Building Automation and Control Systems (BACS) can play a central role in reducing energy use and emissions across Europe’s building stock.  Buildings account for a large share of total energy demand—and the urgency to reduce that impact is growing. – BACS for HVAC upgrades can cut energy consumption by 15-38% with a return on investment in just 1-3 years – Adaptability is key – </t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313870474441052160</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7314210204626157568</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Danfoss and Assemblin Caverion Group strengthen partnership to drive building renovation and decarbonization</t>
+          <t xml:space="preserve">We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainability </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Danfoss and Assemblin Caverion Group have reaffirmed their commitment to accelerating the decarbonization of buildings with a newly signed framework agreement. This collaboration aims to deliver tangible benefits to customers, including a reduced carbon footprint, energy savings, enhanced end-user satisfaction, indoor comfort, and optimized building performance.</t>
+          <t>We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainability Publication by The American Chamber of Commerce of the Philippines, Inc. The Copeland Philippines team are integral to advancing our vision to create sustainable solutions that improve lives and protect the planet, helping to strengthen operational efficiencies and championing a culture of continuous improvement and environmentally conscious leadership.From driving the glob</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dcs/danfoss-and-assemblin-caverion-group-strengthen-partnership/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313960764300488704</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5254,17 +5254,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Danfoss Power Solutions partners with Trackunit and Proemion to deliver enhanced connectivity solutions for mobile machinery</t>
+          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development:</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> rackunit and Proemion systems seamlessly integrate with Danfoss hardware and the PLUS+1 Service Tool to provide remote diagnostics, service, and</t>
+          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 65000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new display wa</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-partners-with-trackunit-and-proemion-to-deliver-enhanced-connectivity-solutions-for-mobile-machinery/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313870474441052160</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5276,17 +5276,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>We are proud to be at the core of G&amp;D CHILLERS, INC. Elite 290 series, designed for maximum efficiency and #sustainability wit..</t>
+          <t>We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainabil...</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>We are proud to be at the core of G&amp;D CHILLERS, INC. Elite 290 series, designed for maximum efficiency and #sustainability with #R290. Our #Frascold Z model piston #compressors deliver top performance, a compact design and quiet operation; therefore helping to reduce energy consumption and environmental impact.With extensive expertise in #NaturalRefrigerants, Frascold is the ideal partner for driving the transition to innovative, eco-friendly solutions. Check out our technology in action and read the fu</t>
+          <t>We’re proud to share that Copeland Philippines was highlighted in the April “Green Light” Special Sustainability Publication by The American Chamber of Commerce of the Philippines, Inc. The Copeland Philippines team are integral to advancing our vision to create sustainable solutions that improve lives and protect the planet, helping to strengthen operational efficiencies and championing a culture of continuous improvement and environmentally conscious leadership.From driving the glob</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313842082765246465</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313960764300488704</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5298,17 +5298,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>#Dorin #Compressors at Messe Frankfurt GmbH #ISH2025, the world’s leading trade fair for #HVAC + Water Still buzzing fro...</t>
+          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform developme...</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>#Dorin #Compressors at Messe Frankfurt GmbH #ISH2025, the world’s leading trade fair for #HVAC + WaterStill buzzing from the vibes at the fair (17–21 March)!A huge THANK YOU to our awesome #Customers who featured Dorin Compressors at their booths. Your dedication to #innovation and #sustainability keeps moving the industry forward - and we’re proud to be part of it.ENERBLUE S.R.L. - TEKO Refrigeration - Carrier HVAC EuropeSee you at the next big event!#Dorin #Compressors #Born2Free</t>
+          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 65000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new display wa</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313816723864924160</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313870474441052160</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5320,127 +5320,127 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Acquisition Expands Bradford White’s Manufacturing Capacity</t>
+          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform developme...</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>These businesses are collectively known as Bock Water Heaters, a Wisconsin-based manufacturer of commercial and specialty water-heating and -storage products.</t>
+          <t>At ISH 2025, Antonio Randisi revealed the next milestone in the Alsmart® universal programmable controller platform development: the AS-UI04 Display.  Available in two versions – wall-mounted and panel-mounted, with the same compact dimensions  High-resolution, full color LCD-TFT display with 5000–6000 colors  Integrated sensors for smarter connectivity  Fully customizable graphic appearance via Alsmart® Design The new d</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://www.achrnews.com/articles/164398-acquisition-expands-bradford-whites-manufacturing-capacity</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313870474441052160</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Join us at the 2025 Canadian Produce Marketing Association (CPMA) tradeshow on April 9th and 10th to explore our innovative cold</t>
+          <t>Danfoss and Assemblin Caverion Group strengthen partnership to drive building renovation and decarbonization</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Join us at the 2025 Canadian Produce Marketing Association (CPMA) tradeshow on April 9th and 10th to explore our innovative cold chain solutions driving sustainability and freshness across the food supply chain.This year, the GO Real-Time 4G/5G NA Shipment Tracking will be featured in the New Product Showcase. Track shipments with real-time alerts on temperature and location using 4G/5G and Wi-Fi. Get automated reports and real-time insights on your phone or tablet. With features like real-time alerts, </t>
+          <t>Danfoss and Assemblin Caverion Group have reaffirmed their commitment to accelerating the decarbonization of buildings with a newly signed framework agreement. This collaboration aims to deliver tangible benefits to customers, including a reduced carbon footprint, energy savings, enhanced end-user satisfaction, indoor comfort, and optimized building performance.</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313546069307453440</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dcs/danfoss-and-assemblin-caverion-group-strengthen-partnership/</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Danfoss and Assemblin Caverion Group Sign New Agreement to Advance Building Decarbonization</t>
+          <t>Danfoss Power Solutions partners with Trackunit and Proemion to deliver enhanced connectivity solutions for mobile machinery</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Danfoss and Assemblin Caverion Group have signed a new framework agreement to strengthen their cooperation on building renovations and decarbonization efforts.</t>
+          <t xml:space="preserve"> rackunit and Proemion systems seamlessly integrate with Danfoss hardware and the PLUS+1 Service Tool to provide remote diagnostics, service, and</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/market-news/danfoss-and-assemblin-caverion-group-sign-new-agreement-to-advance-building-decarbonization/</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-partners-with-trackunit-and-proemion-to-deliver-enhanced-connectivity-solutions-for-mobile-machinery/</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Behind the scenes of the warehouse: interview with our Manager  Today we take you on a tour of a role t</t>
+          <t>We are proud to be at the core of G&amp;D CHILLERS, INC. Elite 290 series, designed for maximum efficiency and #sustainability wit..</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Behind the scenes of the warehouse: interview with our Manager Today we take you on a tour of a role that is fundamental to the functioning of our company: the Warehouse Manager. We have EROS PIEROPAN with us! Let’s get to know more about his journey and his daily work. How did you start this experience with us?“Five years ago I was contacted by the then manager and decided to accept, also to get closer to home. I had always worked in logistics, and the comp</t>
+          <t>We are proud to be at the core of G&amp;D CHILLERS, INC. Elite 290 series, designed for maximum efficiency and #sustainability with #R290. Our #Frascold Z model piston #compressors deliver top performance, a compact design and quiet operation; therefore helping to reduce energy consumption and environmental impact.With extensive expertise in #NaturalRefrigerants, Frascold is the ideal partner for driving the transition to innovative, eco-friendly solutions. Check out our technology in action and read the fu</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313508481964163073</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313842082765246465</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>What if outdated thermostatic radiator valves (TRVs) could become new, high-performing products? As part of the Circularity in P</t>
+          <t>#Dorin #Compressors at Messe Frankfurt GmbH #ISH2025, the world’s leading trade fair for #HVAC + Water Still buzzing fro...</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>What if outdated thermostatic radiator valves (TRVs) could become new, high-performing products? As part of the Circularity in Plastics (CIP) project, Danfoss and 16 industry leaders explored this challenge. In Denmark alone, up to 500,000 TRVs are discarded yearly. In 2024, we tested recycling options and launched a take-back pilot to reuse these materials in new Danfoss products - cutting emissions while maintaining top performance. As Nanna Aage Lundsgaard, Head of RD&amp;E at HydronicS, highlighted:</t>
+          <t>#Dorin #Compressors at Messe Frankfurt GmbH #ISH2025, the world’s leading trade fair for #HVAC + WaterStill buzzing from the vibes at the fair (17–21 March)!A huge THANK YOU to our awesome #Customers who featured Dorin Compressors at their booths. Your dedication to #innovation and #sustainability keeps moving the industry forward - and we’re proud to be part of it.ENERBLUE S.R.L. - TEKO Refrigeration - Carrier HVAC EuropeSee you at the next big event!#Dorin #Compressors #Born2Free</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313485474302496769</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313816723864924160</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>GEA: GEA acquires stake in heat storage provider Caldera</t>
+          <t>Acquisition Expands Bradford White’s Manufacturing Capacity</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>GEA is investing twelve million euros in the British company Caldera. Caldera has developed electric Storage Boilers that can store electricity in the form of heat that can be extracted on demand. The product is suitable for a wide area of applications. GEA sees it as an important element within holistic concepts for decarbonizing process heat demand between 100 and 200C, which is typical for many industrial processes.</t>
+          <t>These businesses are collectively known as Bock Water Heaters, a Wisconsin-based manufacturer of commercial and specialty water-heating and -storage products.</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://www.gea.com/en/news/trade-press/2025/stake-heat-storage-caldera/</t>
+          <t>https://www.achrnews.com/articles/164398-acquisition-expands-bradford-whites-manufacturing-capacity</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5452,127 +5452,127 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Bradford White Announces Acquisition of Bock Water Heaters</t>
+          <t>Join us at the 2025 Canadian Produce Marketing Association (CPMA) tradeshow on April 9th and 10th to explore our innovative cold</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Bradford White Corporation, an industry-leading manufacturer of water heaters, boilers and storage tanks, has announced the acquisition of Universal Technologies of Wisconsin Inc., Bock Water Heaters, Inc., and Tank Technology, Inc. These businesses are collectively known as Bock Water Heaters, the industry leader in oil-fired water heating and a well-known manufacturer of commercial and specialty water heating and storage products based in Wisconsin.</t>
+          <t xml:space="preserve">Join us at the 2025 Canadian Produce Marketing Association (CPMA) tradeshow on April 9th and 10th to explore our innovative cold chain solutions driving sustainability and freshness across the food supply chain.This year, the GO Real-Time 4G/5G NA Shipment Tracking will be featured in the New Product Showcase. Track shipments with real-time alerts on temperature and location using 4G/5G and Wi-Fi. Get automated reports and real-time insights on your phone or tablet. With features like real-time alerts, </t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://www.phcppros.com/articles/21263-bradford-white-announces-acquisition-of-bock-water-heaters</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313546069307453440</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>We’re excited to announce that Feilim Coyle will join Copeland as President of the Electronics &amp; Controls and Industrial ...</t>
+          <t>Danfoss and Assemblin Caverion Group Sign New Agreement to Advance Building Decarbonization</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>We’re excited to announce that Feilim Coyle will join Copeland as President of the Electronics &amp; Controls and Industrial businesses.With extensive global leadership experience and a focus on aftermarket growth, Feilim brings exceptional understanding to Copeland’s business, where he most recently served as the interim leader of our Vilter Industrial business.Welcome to Copeland, Feilim - Together, we’re ready to inspire the next chapter of #Leadership and innovation.</t>
+          <t xml:space="preserve"> Danfoss and Assemblin Caverion Group have signed a new framework agreement to strengthen their cooperation on building renovations and decarbonization efforts.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313289612209135617</t>
+          <t>https://refindustry.com/news/market-news/danfoss-and-assemblin-caverion-group-sign-new-agreement-to-advance-building-decarbonization/</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>G&amp;D Chillers chooses Frascold for the Elite 290 series</t>
+          <t xml:space="preserve"> Behind the scenes of the warehouse: interview with our Manager  Today we take you on a tour of a role t</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An innovative solution serving New Belgium Brewing 02 April 2025 G&amp;D Chillers chooses Frascold compressors for the Elite 290 series, an innovative and sustainable solution for New Belgium Brewing.</t>
+          <t xml:space="preserve"> Behind the scenes of the warehouse: interview with our Manager Today we take you on a tour of a role that is fundamental to the functioning of our company: the Warehouse Manager. We have EROS PIEROPAN with us! Let’s get to know more about his journey and his daily work. How did you start this experience with us?“Five years ago I was contacted by the then manager and decided to accept, also to get closer to home. I had always worked in logistics, and the comp</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/88128</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313508481964163073</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Frascold: G&amp;D Chillers chooses Frascold for the Elite 290 series</t>
+          <t>What if outdated thermostatic radiator valves (TRVs) could become new, high-performing products? As part of the Circularity in P</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>G&amp;D Chillers has chosen Frascold Z model piston compressors for their new Elite 290 chiller series, which utilizes propane (R290) as a natural refrigerant to align with global regulations aimed at reducing emissions. The Elite 290 series, equipped with Frascold compressors, offers safe and efficient refrigeration solutions, with New Belgium Brewing being one of the first to adopt this technology in their commitment to environmental protection and climate change goals.</t>
+          <t>What if outdated thermostatic radiator valves (TRVs) could become new, high-performing products? As part of the Circularity in Plastics (CIP) project, Danfoss and 16 industry leaders explored this challenge. In Denmark alone, up to 500,000 TRVs are discarded yearly. In 2024, we tested recycling options and launched a take-back pilot to reuse these materials in new Danfoss products - cutting emissions while maintaining top performance. As Nanna Aage Lundsgaard, Head of RD&amp;E at HydronicS, highlighted:</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.frascold.it/en/case-studies-and-partnerships-news-events/gd-chillers-chooses-frascold-elite-290-series</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313485474302496769</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Danfoss: Danfoss and Assemblin Caverion Group renewed their framework agreement</t>
+          <t>GEA: GEA acquires stake in heat storage provider Caldera</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Danfoss and Assemblin Caverion Group have solidified their commitment to sustainability by signing a new framework agreement in Nordborg, Denmark. The agreement focuses on project work in various sectors such as hotels, data centers, shopping centers, municipalities, hospitals, universities. The collaboration between Danfoss and Assemblin Caverion Group underscores their shared dedication to promoting decarbonization and energy efficiency in buildings. Assemblin Caverion Group is a leading northern European technical service and installation company. The Group employs about 21,000 skilled professionals in nine countries, sharing the passion for smart and sustainable solutions.</t>
+          <t>GEA is investing twelve million euros in the British company Caldera. Caldera has developed electric Storage Boilers that can store electricity in the form of heat that can be extracted on demand. The product is suitable for a wide area of applications. GEA sees it as an important element within holistic concepts for decarbonizing process heat demand between 100 and 200C, which is typical for many industrial processes.</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dcs/danfoss-and-assemblin-caverion-group-strengthen-partnership/?utm_source=LinkedIn&amp;utm_medium=social_organic&amp;utm_campaign=Danfoss_and_Assemblin_Caverion_Group_partnership_cid_4199153</t>
+          <t>https://www.gea.com/en/news/trade-press/2025/stake-heat-storage-caldera/</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>The Big Gigs: 10 best concerts to see in the Twin Cities this week</t>
+          <t>Bradford White Announces Acquisition of Bock Water Heaters</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Highlights for April 3-9 include Bob Dylan, the O’Jays, Tyler Childers, the Suburbs, Bright Eyes, Jack White, Shemekia Copeland and the Hard Quartet.</t>
+          <t>Bradford White Corporation, an industry-leading manufacturer of water heaters, boilers and storage tanks, has announced the acquisition of Universal Technologies of Wisconsin Inc., Bock Water Heaters, Inc., and Tank Technology, Inc. These businesses are collectively known as Bock Water Heaters, the industry leader in oil-fired water heating and a well-known manufacturer of commercial and specialty water heating and storage products based in Wisconsin.</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.startribune.com/bob-dylan-ojays-tyler-childers-shemekia-copeland-jack-white-bright-eyes-hard-quartet/601316157</t>
+          <t>https://www.phcppros.com/articles/21263-bradford-white-announces-acquisition-of-bock-water-heaters</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5584,127 +5584,127 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Copeland Invests in BlueHeart Energy to Advance Thermo-Acoustic Heat Pump Technology</t>
+          <t>We’re excited to announce that Feilim Coyle will join Copeland as President of the Electronics &amp; Controls and Industrial ...</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Copeland has announced a strategic investment in BlueHeart Energy, a Netherlands-based startup developing a thermo-acoustic heat pump.</t>
+          <t>We’re excited to announce that Feilim Coyle will join Copeland as President of the Electronics &amp; Controls and Industrial businesses.With extensive global leadership experience and a focus on aftermarket growth, Feilim brings exceptional understanding to Copeland’s business, where he most recently served as the interim leader of our Vilter Industrial business.Welcome to Copeland, Feilim - Together, we’re ready to inspire the next chapter of #Leadership and innovation.</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/market-news/copeland-invests-in-blueheart-energy-to-advance-thermo-acoustic-heat-pump-technology/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7313289612209135617</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>At Copeland, we’re committed to connecting talent with real opportunities. To ensure your application process is safe and a</t>
+          <t>G&amp;D Chillers chooses Frascold for the Elite 290 series</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>At Copeland, we’re committed to connecting talent with real opportunities. To ensure your application process is safe and authentic, always apply directly through our official website at Copeland.com/careers. Be aware that fraudulent job postings sometimes appear on third-party sites. These can mislead applicants with false opportunities. Protect yourself by verifying all job openings directly on our site.Visit Copeland.com/careers today to explore legitimate employment opportunities that drive inn</t>
+          <t xml:space="preserve"> An innovative solution serving New Belgium Brewing 02 April 2025 G&amp;D Chillers chooses Frascold compressors for the Elite 290 series, an innovative and sustainable solution for New Belgium Brewing.</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312926303723167744</t>
+          <t>https://www.ejarn.com/article/detail/88128</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reminder: Upcoming spotlight on RNG expertise! Caroline Limbaugh , Product Manager - Gas Solutions (RNG) for Vilter by Copeland </t>
+          <t>Frascold: G&amp;D Chillers chooses Frascold for the Elite 290 series</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Reminder: Upcoming spotlight on RNG expertise! Caroline Limbaugh , Product Manager - Gas Solutions (RNG) for Vilter by Copeland will present at the Coalition for Renewable Natural Gas Wednesday Webinar Series April 2, at 1 PM ET. She will share an insightful case study highlighting how one company is transforming its operations with durable compression technology for RNG production.Don’t miss this opportunity to learn more about the innovative solutions driving advancements within RNG. Sign up for the w</t>
+          <t>G&amp;D Chillers has chosen Frascold Z model piston compressors for their new Elite 290 chiller series, which utilizes propane (R290) as a natural refrigerant to align with global regulations aimed at reducing emissions. The Elite 290 series, equipped with Frascold compressors, offers safe and efficient refrigeration solutions, with New Belgium Brewing being one of the first to adopt this technology in their commitment to environmental protection and climate change goals.</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312920495283191808</t>
+          <t>https://www.frascold.it/en/case-studies-and-partnerships-news-events/gd-chillers-chooses-frascold-elite-290-series</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Innomotics und Danfoss Drives erweitern strategische Partnerschaft</t>
+          <t>Danfoss: Danfoss and Assemblin Caverion Group renewed their framework agreement</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Consent to Cookies &amp; Data processing Die Innomotics GmbH , Nürnberg, und das dänische Unternehmen Danfoss Drives beginnen die nächste Phase ihrer strategischen, nicht-exklusiven Partnerschaft.</t>
+          <t>Danfoss and Assemblin Caverion Group have solidified their commitment to sustainability by signing a new framework agreement in Nordborg, Denmark. The agreement focuses on project work in various sectors such as hotels, data centers, shopping centers, municipalities, hospitals, universities. The collaboration between Danfoss and Assemblin Caverion Group underscores their shared dedication to promoting decarbonization and energy efficiency in buildings. Assemblin Caverion Group is a leading northern European technical service and installation company. The Group employs about 21,000 skilled professionals in nine countries, sharing the passion for smart and sustainable solutions.</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://industrieanzeiger.industrie.de/news/innomotics-und-danfoss-drives-erweitern-strategische-partnerschaft/</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dcs/danfoss-and-assemblin-caverion-group-strengthen-partnership/?utm_source=LinkedIn&amp;utm_medium=social_organic&amp;utm_campaign=Danfoss_and_Assemblin_Caverion_Group_partnership_cid_4199153</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Copeland invests in thermo-acoustic heat pump</t>
+          <t>The Big Gigs: 10 best concerts to see in the Twin Cities this week</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>USA: Copeland has invested in BlueHeart Energy, a Netherlands-based startup developing a novel thermo-acoustic-based heating technology.</t>
+          <t>Highlights for April 3-9 include Bob Dylan, the O’Jays, Tyler Childers, the Suburbs, Bright Eyes, Jack White, Shemekia Copeland and the Hard Quartet.</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.coolingpost.com/world-news/copeland-invests-in-thermo-acoustic-heat-pump/</t>
+          <t>https://www.startribune.com/bob-dylan-ojays-tyler-childers-shemekia-copeland-jack-white-bright-eyes-hard-quartet/601316157</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Copeland: Copeland invests in BlueHeart’s thermo-acoustic-based heating technology</t>
+          <t>Copeland Invests in BlueHeart Energy to Advance Thermo-Acoustic Heat Pump Technology</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Copeland has made a strategic investment in BlueHeart Energy, a Netherlands-based startup that is developing innovative heat pump technology. BlueHeart’s thermo-acoustic-based heating technology has the potential to complement current compressor technologies with a compact design and quiet operation, particularly suitable for smaller residences. Copeland’s investment will support BlueHeart in commercializing their technology and advancing sustainable heating solutions worldwide.</t>
+          <t xml:space="preserve"> Copeland has announced a strategic investment in BlueHeart Energy, a Netherlands-based startup developing a thermo-acoustic heat pump.</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.copeland.com/en-us/news/copeland-invests-in-blueheart-energy</t>
+          <t>https://refindustry.com/news/market-news/copeland-invests-in-blueheart-energy-to-advance-thermo-acoustic-heat-pump-technology/</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5716,17 +5716,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copeland is taking action toward a sustainable future.  We’re thrilled to announce our strategic investment in </t>
+          <t>At Copeland, we’re committed to connecting talent with real opportunities. To ensure your application process is safe and a</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Copeland is taking action toward a sustainable future.  We’re thrilled to announce our strategic investment in BlueHeart Energy, accelerating next-generation heating and cooling technologies that support global #NetZero goals. With heat pumps capable of reducing CO2 emissions by 500M+ tonnes annually by 2030, combining the potential of BlueHeart’s innovative thermo-acoustic heat pump technology with Copeland’s industry expertise and proven technical experience will help to br</t>
+          <t>At Copeland, we’re committed to connecting talent with real opportunities. To ensure your application process is safe and authentic, always apply directly through our official website at Copeland.com/careers. Be aware that fraudulent job postings sometimes appear on third-party sites. These can mislead applicants with false opportunities. Protect yourself by verifying all job openings directly on our site.Visit Copeland.com/careers today to explore legitimate employment opportunities that drive inn</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312807262144581632</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312926303723167744</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5738,17 +5738,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Zudek Chillers (IT): Ammonia Chiller with SH Screws Compressors by Frascold</t>
+          <t xml:space="preserve">Reminder: Upcoming spotlight on RNG expertise! Caroline Limbaugh , Product Manager - Gas Solutions (RNG) for Vilter by Copeland </t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Linkedin Video: The industry is shifting towards more efficient and sustainable solutions, as highlighted in an interview with Jakob Tercon from Zudek discussing the air-cooled chiller with Frascold Aluminium compressors showcased at ISH Frankfurt 2025.</t>
+          <t>Reminder: Upcoming spotlight on RNG expertise! Caroline Limbaugh , Product Manager - Gas Solutions (RNG) for Vilter by Copeland will present at the Coalition for Renewable Natural Gas Wednesday Webinar Series April 2, at 1 PM ET. She will share an insightful case study highlighting how one company is transforming its operations with durable compression technology for RNG production.Don’t miss this opportunity to learn more about the innovative solutions driving advancements within RNG. Sign up for the w</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312801148569067520</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312920495283191808</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5760,17 +5760,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Chengdu Yinli Logistics faced compliance challenges with their ammonia-based refrigeration system. By partnering with Danfoss, t</t>
+          <t>Innomotics und Danfoss Drives erweitern strategische Partnerschaft</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Chengdu Yinli Logistics faced compliance challenges with their ammonia-based refrigeration system. By partnering with Danfoss, they retrofitted their system with our NeoCharge, achieving: 705 Ammonia charge reduced to under 7 tons705 Improved recirculation rate from 3 to 1.5705 Enhanced safety and compliance Read the full newsletter here.#NeoCharge #IndustrialRefrigeration #DanfossClimateSolutions</t>
+          <t xml:space="preserve"> Consent to Cookies &amp; Data processing Die Innomotics GmbH , Nürnberg, und das dänische Unternehmen Danfoss Drives beginnen die nächste Phase ihrer strategischen, nicht-exklusiven Partnerschaft.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312790846116950016</t>
+          <t>https://industrieanzeiger.industrie.de/news/innomotics-und-danfoss-drives-erweitern-strategische-partnerschaft/</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5782,17 +5782,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Is your heating system as efficient as it could be? In the latest episode of Taking the Temperature on HVACR, our host Jamie Kit</t>
+          <t>Copeland invests in thermo-acoustic heat pump</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Is your heating system as efficient as it could be? In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about importance of hydronic balancing in multifamily buildings. They discuss the consequences of unbalanced heating systems—tenant discomfort, noisy radiators and high energy bills, and how dynamic balancing solutions can reduce that.  Tune in now: https://bit.ly/3FK31SO#TakingTheTemperatureOnHVACR #HydronicBalanc</t>
+          <t>USA: Copeland has invested in BlueHeart Energy, a Netherlands-based startup developing a novel thermo-acoustic-based heating technology.</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312748010696822785</t>
+          <t>https://www.coolingpost.com/world-news/copeland-invests-in-thermo-acoustic-heat-pump/</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5804,17 +5804,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing f..</t>
+          <t>Copeland: Copeland invests in BlueHeart’s thermo-acoustic-based heating technology</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing from March 26 to 28. Snowman Group showcased its oil and gas compression solutions at the event, engaging with industry peers to explore innovative technological approaches for energy transformation.As a leading compressor manufacturer in the industry, Snowman Group leverages its core compressor technologies and customized engineering capabilities to deliver comprehensive compress</t>
+          <t>Copeland has made a strategic investment in BlueHeart Energy, a Netherlands-based startup that is developing innovative heat pump technology. BlueHeart’s thermo-acoustic-based heating technology has the potential to complement current compressor technologies with a compact design and quiet operation, particularly suitable for smaller residences. Copeland’s investment will support BlueHeart in commercializing their technology and advancing sustainable heating solutions worldwide.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312737997664239616</t>
+          <t>https://www.copeland.com/en-us/news/copeland-invests-in-blueheart-energy</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5826,17 +5826,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Danfoss Power Solutions introduces full-flow high-pressure relief valve for H1B motor</t>
+          <t xml:space="preserve">Copeland is taking action toward a sustainable future.  We’re thrilled to announce our strategic investment in </t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NORDBORG, Denmark – Danfoss Power Solutions today announced the launch of a full-flow high-pressure relief valve (FHPRV) for its H1B bent-axis motor. The FHPRV joins the counterbalance valve (CBV) in a portfolio of valves designed to enable the use of Danfoss high-power axial piston motors in open-circuit systems. The FHPRV enables machine designers to leverage the benefits of the H1B motor’s compact design and outstanding efficiency while also providing overpressure protection in high-power applicatio</t>
+          <t>Copeland is taking action toward a sustainable future.  We’re thrilled to announce our strategic investment in BlueHeart Energy, accelerating next-generation heating and cooling technologies that support global #NetZero goals. With heat pumps capable of reducing CO2 emissions by 500M+ tonnes annually by 2030, combining the potential of BlueHeart’s innovative thermo-acoustic heat pump technology with Copeland’s industry expertise and proven technical experience will help to br</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-introduces-full-flow-high-pressure-relief-valve-for-h1b-motor/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312807262144581632</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5848,17 +5848,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Innomotics and Danfoss Drives Strengthen Partnership to Deliver Comprehensive Motor and Drive Solutions</t>
+          <t>Zudek Chillers (IT): Ammonia Chiller with SH Screws Compressors by Frascold</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global leader in low-voltage drives, are pleased to announce the next phase of their strategic, non-exclusive partnership. This was announced at the HANNOVER MESSE today where Michael Reichle, Innomotics CEO, Mika Kulju, President of Danfoss Drives, attended the Innomotics booth.</t>
+          <t>Linkedin Video: The industry is shifting towards more efficient and sustainable solutions, as highlighted in an interview with Jakob Tercon from Zudek discussing the air-cooled chiller with Frascold Aluminium compressors showcased at ISH Frankfurt 2025.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dds/innomotics-and-danfoss-drives-strengthen-partnership-to-deliver-comprehensive-motor-and-drive-solutions/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312801148569067520</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5870,17 +5870,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Appel named president of new Danfoss division</t>
+          <t>Chengdu Yinli Logistics faced compliance challenges with their ammonia-based refrigeration system. By partnering with Danfoss, t</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DENMARK: Danfoss Climate Solutions has named Dennis Appel as divisional president of its newly established Controls and Thermal Management division.</t>
+          <t>Chengdu Yinli Logistics faced compliance challenges with their ammonia-based refrigeration system. By partnering with Danfoss, they retrofitted their system with our NeoCharge, achieving: 705 Ammonia charge reduced to under 7 tons705 Improved recirculation rate from 3 to 1.5705 Enhanced safety and compliance Read the full newsletter here.#NeoCharge #IndustrialRefrigeration #DanfossClimateSolutions</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://www.coolingpost.com/world-news/appel-named-president-of-new-danfoss-division/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312790846116950016</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5892,303 +5892,303 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>This month, 70+ Copeland Operations leaders convened at our first Leadership Conference in Charlotte, NC, marking a major step f</t>
+          <t>Is your heating system as efficient as it could be? In the latest episode of Taking the Temperature on HVACR, our host Jamie Kit</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>This month, 70+ Copeland Operations leaders convened at our first Leadership Conference in Charlotte, NC, marking a major step forward in collaboration and innovation. With representatives from 26 facilities supporting over 10,000 colleagues that are responsible for delivering 1M+ shipments annually, the conversation focused on fostering an integrated network that exceeds customer expectations. Highlights included hearing from Copeland leaders, engaging in meaningful discussions and exploring supply</t>
+          <t>Is your heating system as efficient as it could be? In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about importance of hydronic balancing in multifamily buildings. They discuss the consequences of unbalanced heating systems—tenant discomfort, noisy radiators and high energy bills, and how dynamic balancing solutions can reduce that.  Tune in now: https://bit.ly/3FK31SO#TakingTheTemperatureOnHVACR #HydronicBalanc</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312549579562827776</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312748010696822785</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025 will be a game-changer for HVAC/R! Are you ready? #Frascold is set to launch new series of semi-hermetic #compressors, desi</t>
+          <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing f..</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025 will be a game-changer for HVAC/R! Are you ready?#Frascold is set to launch new series of semi-hermetic #compressors, designed to push boundaries and deliver cutting-edge solutions. With temperatures reaching up to 165°C, these innovations will unlock new possibilities for district heating, industrial #HeatPumps and advanced thermal processes.Efficiency, reliability and quiet operation will be at the core of this evolution, with optimized technologies to reduce energy consumption and extend </t>
+          <t>The 25th China International Petroleum &amp; Petrochemical Technology and Equipment Exhibition successfully concluded in Beijing from March 26 to 28. Snowman Group showcased its oil and gas compression solutions at the event, engaging with industry peers to explore innovative technological approaches for energy transformation.As a leading compressor manufacturer in the industry, Snowman Group leverages its core compressor technologies and customized engineering capabilities to deliver comprehensive compress</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312406983322574848</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312737997664239616</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Is your heating system as efficient as it could be?  In the latest episode of Taking the Temperature on HVACR, our host Jamie...</t>
+          <t>Danfoss Power Solutions introduces full-flow high-pressure relief valve for H1B motor</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Is your heating system as efficient as it could be?  In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about the importance of hydronic balancing in multi-family buildings. They discuss the consequences of unbalanced heating systems—tenant discomfort, noisy radiators and high energy bills, and how dynamic balancing solutions can reduce that.  Tune in now: https://bit.ly/4c1ub3y#TakingTheTemperatureOnHVACR #Hydron</t>
+          <t>NORDBORG, Denmark – Danfoss Power Solutions today announced the launch of a full-flow high-pressure relief valve (FHPRV) for its H1B bent-axis motor. The FHPRV joins the counterbalance valve (CBV) in a portfolio of valves designed to enable the use of Danfoss high-power axial piston motors in open-circuit systems. The FHPRV enables machine designers to leverage the benefits of the H1B motor’s compact design and outstanding efficiency while also providing overpressure protection in high-power applicatio</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312383225274773506</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-power-solutions-introduces-full-flow-high-pressure-relief-valve-for-h1b-motor/</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office ble</t>
+          <t>Innomotics and Danfoss Drives Strengthen Partnership to Deliver Comprehensive Motor and Drive Solutions</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office blessing. The event highlighted the strong sense of teamwork, positivity, and harmony that make our workplace truly special.The event was attended by Fred Burdell, our Chief Information Officer, underscoring its significance as a moment of collaboration and shared purpose.</t>
+          <t>Hanover, March 31, 2025 – Innomotics GmbH, a globally leading provider of electric motors and large drive systems and Danfoss Drives A/S, a global leader in low-voltage drives, are pleased to announce the next phase of their strategic, non-exclusive partnership. This was announced at the HANNOVER MESSE today where Michael Reichle, Innomotics CEO, Mika Kulju, President of Danfoss Drives, attended the Innomotics booth.</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312353012931301378</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dds/innomotics-and-danfoss-drives-strengthen-partnership-to-deliver-comprehensive-motor-and-drive-solutions/</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Maintaining consistent water pressure is crucial for a seamless water supply, even with fluctuating consumption  Dis</t>
+          <t>Appel named president of new Danfoss division</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Maintaining consistent water pressure is crucial for a seamless water supply, even with fluctuating consumption  Discover how switch set-ups, sensors, and advanced controls can help achieve this.  Dive deeper into the world of pressure sensors with our eLesson: https://bit.ly/3XAU7gx#Animation #WaterTank #WaterPressure #Sensors</t>
+          <t>DENMARK: Danfoss Climate Solutions has named Dennis Appel as divisional president of its newly established Controls and Thermal Management division.</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312007463862439936</t>
+          <t>https://www.coolingpost.com/world-news/appel-named-president-of-new-danfoss-division/</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with ..</t>
+          <t>This month, 70+ Copeland Operations leaders convened at our first Leadership Conference in Charlotte, NC, marking a major step f</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a strong focus on flexibility and efficiency across applications:  VXe SLS – A villa station built for multi-family housing, with one controlled heating circuit and integrated storage loading system   Termix Compact 28 VVX-FI – An efficient buffer loading station, controlling two heating circuits and external domestic hot water connection</t>
+          <t>This month, 70+ Copeland Operations leaders convened at our first Leadership Conference in Charlotte, NC, marking a major step forward in collaboration and innovation. With representatives from 26 facilities supporting over 10,000 colleagues that are responsible for delivering 1M+ shipments annually, the conversation focused on fostering an integrated network that exceeds customer expectations. Highlights included hearing from Copeland leaders, engaging in meaningful discussions and exploring supply</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311665935185002496</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312549579562827776</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a </t>
+          <t>2025 will be a game-changer for HVAC/R! Are you ready? #Frascold is set to launch new series of semi-hermetic #compressors, desi</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a strong focus on flexibility and efficiency across applications:  VXe SLS – A villa station built for multi-family housing, with one controlled heating circuit and integrated storage loading system   Termix Compact 28 VVX-FI – An efficient buffer loading station, controlling two heating circuits and external domestic hot water connection</t>
+          <t xml:space="preserve">2025 will be a game-changer for HVAC/R! Are you ready?#Frascold is set to launch new series of semi-hermetic #compressors, designed to push boundaries and deliver cutting-edge solutions. With temperatures reaching up to 165°C, these innovations will unlock new possibilities for district heating, industrial #HeatPumps and advanced thermal processes.Efficiency, reliability and quiet operation will be at the core of this evolution, with optimized technologies to reduce energy consumption and extend </t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311665935185002496</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312406983322574848</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BOCK: 8-Cylinder compressor HG88 showcased at ISH 2025</t>
+          <t>Is your heating system as efficient as it could be?  In the latest episode of Taking the Temperature on HVACR, our host Jamie...</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>At ISH 2025, Michael Nagler introduced the BOCK HG88 compressor, which is the largest semi-hermetic compressor offered by the company. This compressor features an 8-cylinder reciprocating design, providing the highest swept volume on the market for increased cooling capacity, efficiency, and stable performance in large systems. Specifically designed for industrial and district heat pump applications, the compressor boasts optimized refrigerant flow to reduce energy consumption while maximizing system performance and efficiency. It also offers smooth and reliable operation with minimal vibrations, making it suitable for demanding heating and cooling applications. The BOCK HG88 compressor is available with various refrigerants such as propane, HFC, and HFO, and comes with additional options like a capacity regulator, oil pressure differential switch, and the compressor oil management regulator. Overall, this compressor is positioned to support large-scale decarbonization projects through high-performance heat pump systems. The BOCK HG88 compressor stands out for its unmatched capacity and flexibility, making it a valuable asset for decarbonization initiatives. With its high cooling capacity, efficiency, and stable performance, this compressor is ideal for large-scale heat pump systems in industrial and district heating applications. Its design ensures optimized refrigerant flow, reduced energy consumption, and smooth operation, making it a reliable choice for demanding heating and cooling requirements. Available with various refrigerants and additional features for enhanced control and management, the BOCK HG88 compressor is well-equipped to contribute to decarbonization efforts and support the transition towards more sustainable HVAC solutions.</t>
+          <t>Is your heating system as efficient as it could be?  In the latest episode of Taking the Temperature on HVACR, our host Jamie Kitchen is joined by Maiken Hansen to talk about the importance of hydronic balancing in multi-family buildings. They discuss the consequences of unbalanced heating systems—tenant discomfort, noisy radiators and high energy bills, and how dynamic balancing solutions can reduce that.  Tune in now: https://bit.ly/4c1ub3y#TakingTheTemperatureOnHVACR #Hydron</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311356411748233216</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312383225274773506</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>We are deeply saddened by the devastating earthquake that struck Myanmar and the Southeast Asia region on March 28, causing loss</t>
+          <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office ble</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>We are deeply saddened by the devastating earthquake that struck Myanmar and the Southeast Asia region on March 28, causing loss of life, destruction, and immense suffering. At Copeland, our thoughts are with the people of Myanmar, Thailand and the region, especially those who have lost loved ones, their homes, and their sense of security.</t>
+          <t>Recently, our Copeland Philippines colleagues celebrated a lively and meaningful occasion with the ribbon-cutting and office blessing. The event highlighted the strong sense of teamwork, positivity, and harmony that make our workplace truly special.The event was attended by Fred Burdell, our Chief Information Officer, underscoring its significance as a moment of collaboration and shared purpose.</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311525908106862592</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312353012931301378</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-31</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Copeland: Copeland expands with a new office in Chile: We’ve taken a strategic step to strengthen our presence in Latin America with</t>
+          <t>Maintaining consistent water pressure is crucial for a seamless water supply, even with fluctuating consumption  Dis</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Copeland has recently opened a new office in Santiago, Chile, as part of a strategic move to enhance its presence in Latin America. The company celebrated this milestone by hosting a special event for clients and collaborators, providing an opportunity to connect, express gratitude, and introduce the new space designed to promote innovation and strengthen partnerships in the region. This expansion signifies Copeland’s commitment to growth and innovation in the HVACR industry in Latin America.</t>
+          <t>Maintaining consistent water pressure is crucial for a seamless water supply, even with fluctuating consumption  Discover how switch set-ups, sensors, and advanced controls can help achieve this.  Dive deeper into the world of pressure sensors with our eLesson: https://bit.ly/3XAU7gx#Animation #WaterTank #WaterPressure #Sensors</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311387171351842817</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312007463862439936</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Dennis Appel to Lead New Controls and Thermal Management Division in Danfoss Climate Solutions</t>
+          <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with ..</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division. This new division unites the expertise of heat exchangers with refrigeration, cooling, and air conditioning technologies to accelerate innovation and enhance efficiency.</t>
+          <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a strong focus on flexibility and efficiency across applications:  VXe SLS – A villa station built for multi-family housing, with one controlled heating circuit and integrated storage loading system   Termix Compact 28 VVX-FI – An efficient buffer loading station, controlling two heating circuits and external domestic hot water connection</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://hvacinsider.com/dennis-appel-to-lead-new-controls-and-thermal-management-division-in-danfoss-climate-solutions/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311665935185002496</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Last week at ISH 2025, Michael Nagler introduced the BOCK® HG88 compressor—our largest semi-hermetic compressor. \udd</t>
+          <t xml:space="preserve">At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a </t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Last week at ISH 2025, Michael Nagler introduced the BOCK® HG88 compressor—our largest semi-hermetic compressor.  Featuring an 8-cylinder reciprocating design, it offers the highest swept volume on the market, providing higher cooling capacity, improved efficiency, and stable performance in large systems: up to 281 m³/h at 50 Hz, and 337 m³/h at 60 Hz  Designed for industrial and district heat pump applications, it features optimized refrigerant flow, reducing </t>
+          <t>At last week’s ISH 2025, Malte Rahn showcased practical, high-performing solutions for district energy systems—with a strong focus on flexibility and efficiency across applications:  VXe SLS – A villa station built for multi-family housing, with one controlled heating circuit and integrated storage loading system   Termix Compact 28 VVX-FI – An efficient buffer loading station, controlling two heating circuits and external domestic hot water connection</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311356411748233216</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311665935185002496</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4...</t>
+          <t>BOCK: 8-Cylinder compressor HG88 showcased at ISH 2025</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve">We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Flexo – designed to make fan coil unit installations faster and easier, with a pre-assembled, compact connection set. With the newly introduced ‘right-hand’ version we increase the many possibilities even further. 705 AB-QM 4.0 CO6 Flexo – the 3rd price winner of the Best of SHK Award in the category ‘Installation’ is a reliable and service-friendly </t>
+          <t>At ISH 2025, Michael Nagler introduced the BOCK HG88 compressor, which is the largest semi-hermetic compressor offered by the company. This compressor features an 8-cylinder reciprocating design, providing the highest swept volume on the market for increased cooling capacity, efficiency, and stable performance in large systems. Specifically designed for industrial and district heat pump applications, the compressor boasts optimized refrigerant flow to reduce energy consumption while maximizing system performance and efficiency. It also offers smooth and reliable operation with minimal vibrations, making it suitable for demanding heating and cooling applications. The BOCK HG88 compressor is available with various refrigerants such as propane, HFC, and HFO, and comes with additional options like a capacity regulator, oil pressure differential switch, and the compressor oil management regulator. Overall, this compressor is positioned to support large-scale decarbonization projects through high-performance heat pump systems. The BOCK HG88 compressor stands out for its unmatched capacity and flexibility, making it a valuable asset for decarbonization initiatives. With its high cooling capacity, efficiency, and stable performance, this compressor is ideal for large-scale heat pump systems in industrial and district heating applications. Its design ensures optimized refrigerant flow, reduced energy consumption, and smooth operation, making it a reliable choice for demanding heating and cooling requirements. Available with various refrigerants and additional features for enhanced control and management, the BOCK HG88 compressor is well-equipped to contribute to decarbonization efforts and support the transition towards more sustainable HVAC solutions.</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311024235601145856</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311356411748233216</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-03-29</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>DORIN USA: Focusing on CO₂</t>
+          <t>We are deeply saddened by the devastating earthquake that struck Myanmar and the Southeast Asia region on March 28, causing loss</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TEKO Refrigeration Americas and Weston S.A.S showcase DORIN CO₂ compressors powering a cutting-edge refrigeration system for over 10,000 m² of refrigerated space.</t>
+          <t>We are deeply saddened by the devastating earthquake that struck Myanmar and the Southeast Asia region on March 28, causing loss of life, destruction, and immense suffering. At Copeland, our thoughts are with the people of Myanmar, Thailand and the region, especially those who have lost loved ones, their homes, and their sense of security.</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312368683853479936</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311525908106862592</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6200,17 +6200,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Danfoss and Microsoft expand AI collaboration to cut food waste and emissions in food retail</t>
+          <t>Copeland: Copeland expands with a new office in Chile: We’ve taken a strategic step to strengthen our presence in Latin America with</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Danfoss and Microsoft have announced an expanded partnership aimed at accelerating the use of artificial intelligence and cloud-based technologies in food retail.</t>
+          <t>Copeland has recently opened a new office in Santiago, Chile, as part of a strategic move to enhance its presence in Latin America. The company celebrated this milestone by hosting a special event for clients and collaborators, providing an opportunity to connect, express gratitude, and introduce the new space designed to promote innovation and strengthen partnerships in the region. This expansion signifies Copeland’s commitment to growth and innovation in the HVACR industry in Latin America.</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://refindustry.com/news/market-news/danfoss-and-microsoft-expand-ai-collaboration-to-cut-food-waste-and-emissions-in-food-retail/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311387171351842817</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6222,127 +6222,127 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Smart HVAC: 5 Must-Knows for Contractors</t>
+          <t>Dennis Appel to Lead New Controls and Thermal Management Division in Danfoss Climate Solutions</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Copeland offers expert tips to get started March 27, 2025</t>
+          <t>Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division. This new division unites the expertise of heat exchangers with refrigeration, cooling, and air conditioning technologies to accelerate innovation and enhance efficiency.</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://www.achrnews.com/articles/164354-smart-hvac-5-must-knows-for-contractors</t>
+          <t>https://hvacinsider.com/dennis-appel-to-lead-new-controls-and-thermal-management-division-in-danfoss-climate-solutions/</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Fl</t>
+          <t>Last week at ISH 2025, Michael Nagler introduced the BOCK® HG88 compressor—our largest semi-hermetic compressor. \udd</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve">We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Flexo – designed to make fan coil unit installations faster and easier, with a pre-assembled, compact connection set. With the newly introduced ‘right-hand’ version we increase the many possibilities even further. 705 AB-QM 4.0 CO6 Flexo – the 3rd price winner of the Best of SHK Award in the category ‘Installation’ is a reliable and service-friendly </t>
+          <t xml:space="preserve">Last week at ISH 2025, Michael Nagler introduced the BOCK® HG88 compressor—our largest semi-hermetic compressor.  Featuring an 8-cylinder reciprocating design, it offers the highest swept volume on the market, providing higher cooling capacity, improved efficiency, and stable performance in large systems: up to 281 m³/h at 50 Hz, and 337 m³/h at 60 Hz  Designed for industrial and district heat pump applications, it features optimized refrigerant flow, reducing </t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311024235601145856</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311356411748233216</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>The 2025 Canadian Produce Marketing Association (CPMA) tradeshow is quickly approaching on April 9-10. We look forward to sharin</t>
+          <t>We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4...</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>The 2025 Canadian Produce Marketing Association (CPMA) tradeshow is quickly approaching on April 9-10. We look forward to sharing our latest temperature monitoring and oversight software and services solutions in booth #1124. Visit us in our booth for a chance to win a Solo Stove. Experience our energy-efficient systems designed to minimize waste, lower emissions and maximize food quality.Register today: https://ow.ly/bEIH50VphBT#CPMA2025 #CPMA #2025NPS</t>
+          <t xml:space="preserve">We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Flexo – designed to make fan coil unit installations faster and easier, with a pre-assembled, compact connection set. With the newly introduced ‘right-hand’ version we increase the many possibilities even further. 705 AB-QM 4.0 CO6 Flexo – the 3rd price winner of the Best of SHK Award in the category ‘Installation’ is a reliable and service-friendly </t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311009628127928320</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311024235601145856</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Danfoss and Microsoft: An AI-powered alliance to drive sustainability ambitions</t>
+          <t>DORIN USA: Focusing on CO₂</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate the development and deployment of AI and cloud-based solutions that enable the industry to optimize energy consumption, reduce food waste, and lower emissions across food retail.</t>
+          <t>TEKO Refrigeration Americas and Weston S.A.S showcase DORIN CO₂ compressors powering a cutting-edge refrigeration system for over 10,000 m² of refrigerated space.</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/cf/danfoss-and-microsoft-an-ai-powered-alliance-to-drive-sustainability-ambitions/</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7312368683853479936</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innova</t>
+          <t>Danfoss and Microsoft expand AI collaboration to cut food waste and emissions in food retail</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innovation in industrial</t>
+          <t xml:space="preserve"> Danfoss and Microsoft have announced an expanded partnership aimed at accelerating the use of artificial intelligence and cloud-based technologies in food retail.</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310985758343913474</t>
+          <t>https://refindustry.com/news/market-news/danfoss-and-microsoft-expand-ai-collaboration-to-cut-food-waste-and-emissions-in-food-retail/</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innova</t>
+          <t>Smart HVAC: 5 Must-Knows for Contractors</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innovation in industrial #HeatPumps! Our partner Gebwell - puhdasta lämpöä has chosen Frascold for its latest brine-to-water G-Eco commercial heat pumps, designed for maximum efficiency and reliability. Running on #R290, with an ultra-low GWP, it’s a step forward for eco-friendly #heating.A collaboration that reflects a shared commitment to #innovation and #sustainab</t>
+          <t xml:space="preserve"> Copeland offers expert tips to get started March 27, 2025</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310985758343913474</t>
+          <t>https://www.achrnews.com/articles/164354-smart-hvac-5-must-knows-for-contractors</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6354,17 +6354,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Together with Microsoft, we’re enhancing our partnership to drive sustainability in food retail—leveraging AI and clou</t>
+          <t>We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Fl</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Together with Microsoft, we’re enhancing our partnership to drive sustainability in food retail—leveraging AI and cloud technology to cut energy use, reduce food waste, and lower emissions  Danfoss Alsense® our cloud-based supermarket solution, already delivers impact:705 Cuts food waste by up to 30%705 Reduces refrigeration energy use by up to 15%705 Provides 24/7 monitoring, real-time insights &amp; proactive issue detection  Now, with Microsoft’s AI, Alse</t>
+          <t xml:space="preserve">We’re looking back at ISH 2025 where Andrej Kastelic presented two standout additions to our PICV portfolio: 705 AB-QM 4.0 Flexo – designed to make fan coil unit installations faster and easier, with a pre-assembled, compact connection set. With the newly introduced ‘right-hand’ version we increase the many possibilities even further. 705 AB-QM 4.0 CO6 Flexo – the 3rd price winner of the Best of SHK Award in the category ‘Installation’ is a reliable and service-friendly </t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310964303321325568</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311024235601145856</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6376,17 +6376,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Day 1 Highlights from cippe China Snowman Group made a strong presence at Booth E3555, showcasing a range of innovative products</t>
+          <t>The 2025 Canadian Produce Marketing Association (CPMA) tradeshow is quickly approaching on April 9-10. We look forward to sharin</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Day 1 Highlights from cippe ChinaSnowman Group made a strong presence at Booth E3555, showcasing a range of innovative products and hosting a technical exchange session for new product technologies. Meanwhile, our experts shared insights on industry-leading topics at the forum, engaging with peers to explore the future of the industry.The exhibition is in full swing—come visit us and be part of the conversation on innovation in petrochemicals and mechanical equipment!#SnowmanGroup #SRM #SRM</t>
+          <t>The 2025 Canadian Produce Marketing Association (CPMA) tradeshow is quickly approaching on April 9-10. We look forward to sharing our latest temperature monitoring and oversight software and services solutions in booth #1124. Visit us in our booth for a chance to win a Solo Stove. Experience our energy-efficient systems designed to minimize waste, lower emissions and maximize food quality.Register today: https://ow.ly/bEIH50VphBT#CPMA2025 #CPMA #2025NPS</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310924925010108416</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7311009628127928320</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6398,17 +6398,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Kristian Strand folgt Jürgen Fischer als Präsident von Danfoss Climate Solutions</t>
+          <t>Danfoss and Microsoft: An AI-powered alliance to drive sustainability ambitions</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Kristian Strand wird neuer Präsident bei Danfoss Climate Solutions ( www.danfoss.de ). Er übernimmt von Jürgen Fischer, der sich nach 16 Jahren bei Danfoss in den Ruhestand verabschiedet. Strand, der bisher Präsident der Division Commercial Compressors bei Danfoss Climate Solutions war, hat seine neue Rolle zum 1. April 2025 angetreten und wurde damit auch Mitglied des Danfoss Vorstands. Zuvor leitete er die Division Refrigeration &amp; Air Conditioning Controls bei Danfoss Climate Solutions. Strand</t>
+          <t>Building on a successful collaboration established in 2019, Danfoss and Microsoft are expanding their partnership to accelerate the development and deployment of AI and cloud-based solutions that enable the industry to optimize energy consumption, reduce food waste, and lower emissions across food retail.</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://www.kka-online.info/artikel/kristian-strand-folgt-juergen-fischer-als-praesident-von-danfoss-climate-solutions-4225143.html</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/cf/danfoss-and-microsoft-an-ai-powered-alliance-to-drive-sustainability-ambitions/</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6420,17 +6420,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Join Snowman Group at China Refrigeration 2025!  Venue: Shanghai New International Expo Centre  Date: Ap</t>
+          <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innova</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Join Snowman Group at China Refrigeration 2025!  Venue: Shanghai New International Expo Centre Date: April 27-29, 2025 Booth: E1F15We’re excited to invite you to the 36th International Exhibition for Refrigeration, Air-Conditioning, Heating and Ventilation, Frozen Food Processing, Packaging, and Storage!Discover our latest technological breakthroughs and cutting-edge exhibition products designed to enhance efficiency and sustainability in the refrig</t>
+          <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innovation in industrial</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310820358016667651</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310985758343913474</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6442,193 +6442,193 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>At Chengdu Yinli Cold Storage Park, balancing safety regulations and energy efficiency was a key challenge. With national regula</t>
+          <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innova</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve">At Chengdu Yinli Cold Storage Park, balancing safety regulations and energy efficiency was a key challenge. With national regulations requiring a system charge below 10 tons, Yinli needed a reliable solution that ensured compliance while maintaining operational performance. To meet these requirements, NeoCharge was implemented, significantly reducing the ammonia charge while enhancing safety and efficiency. 705 Regulatory compliance – Meeting strict safety standards with confidence 705 </t>
+          <t>A week after ISH Frankfurt 2025, we’re still thrilled to see our #Frascold Z-AXH semi-hermetic #compressors powering innovation in industrial #HeatPumps! Our partner Gebwell - puhdasta lämpöä has chosen Frascold for its latest brine-to-water G-Eco commercial heat pumps, designed for maximum efficiency and reliability. Running on #R290, with an ultra-low GWP, it’s a step forward for eco-friendly #heating.A collaboration that reflects a shared commitment to #innovation and #sustainab</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310631971062243332</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310985758343913474</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>#Frascold at ISH Frankfurt 2025: Innovation in Action! Looking back at #ISH 2025, we’re proud to see our Frascold #Aluminiu</t>
+          <t>Together with Microsoft, we’re enhancing our partnership to drive sustainability in food retail—leveraging AI and clou</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>#Frascold at ISH Frankfurt 2025: Innovation in Action!Looking back at #ISH 2025, we’re proud to see our Frascold #Aluminium #compressors integrated into Zudek air-cooled #chiller, a solution designed to meet the evolving needs of the #HVAC industry.Why choose #ammonia? The market increasingly demands #natural #refrigerants that deliver energy efficiency, low noise levels and maximum reliability.With Frascold’s technology, the risk of refrigerant leaks is eliminated, ensuring a safer</t>
+          <t>Together with Microsoft, we’re enhancing our partnership to drive sustainability in food retail—leveraging AI and cloud technology to cut energy use, reduce food waste, and lower emissions  Danfoss Alsense® our cloud-based supermarket solution, already delivers impact:705 Cuts food waste by up to 30%705 Reduces refrigeration energy use by up to 15%705 Provides 24/7 monitoring, real-time insights &amp; proactive issue detection  Now, with Microsoft’s AI, Alse</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310609017930756096</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310964303321325568</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Copeland Suzhou is celebrating 25 years of operational excellence and innovation. Established in 1999, the facility is a part of</t>
+          <t>Day 1 Highlights from cippe China Snowman Group made a strong presence at Booth E3555, showcasing a range of innovative products</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Copeland Suzhou is celebrating 25 years of operational excellence and innovation. Established in 1999, the facility is a part of our global manufacturing network and R&amp;D innovation hub, supporting the APAC region and beyond.This milestone celebration brought together senior leaders, including Meisel Seth from Blackstone, Copeland CEO Ross B. Shuster, Chief Transformation and Sustainability Officer Tracy Reiter and Asia Pacific President Michael Toh, alongside the Copeland China team, industry partners a</t>
+          <t>Day 1 Highlights from cippe ChinaSnowman Group made a strong presence at Booth E3555, showcasing a range of innovative products and hosting a technical exchange session for new product technologies. Meanwhile, our experts shared insights on industry-leading topics at the forum, engaging with peers to explore the future of the industry.The exhibition is in full swing—come visit us and be part of the conversation on innovation in petrochemicals and mechanical equipment!#SnowmanGroup #SRM #SRM</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310450565925203969</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310924925010108416</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Danfoss announces production launch of Editron ED3 onboard charger and ePTO, bringing rapid AC charging to off-highway applicati</t>
+          <t>Kristian Strand folgt Jürgen Fischer als Präsident von Danfoss Climate Solutions</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>– Danfoss Power Solutions today announced the production launch of its Editron ED3 onboard charger and electric power take-off (ePTO). Initially designed for on-highway applications and currently in use in thousands of Volvo electric trucks, the ED3 has now been standardized with communication protocols, software, and documentation for off-highway applications. The ED3 enables rapid overnight and opportunity charging for heavy-duty electric machinery using readily available AC chargers. Its three-in-on</t>
+          <t>Kristian Strand wird neuer Präsident bei Danfoss Climate Solutions ( www.danfoss.de ). Er übernimmt von Jürgen Fischer, der sich nach 16 Jahren bei Danfoss in den Ruhestand verabschiedet. Strand, der bisher Präsident der Division Commercial Compressors bei Danfoss Climate Solutions war, hat seine neue Rolle zum 1. April 2025 angetreten und wurde damit auch Mitglied des Danfoss Vorstands. Zuvor leitete er die Division Refrigeration &amp; Air Conditioning Controls bei Danfoss Climate Solutions. Strand</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-announces-production-launch-of-editron-ed3-onboard-charger-and-epto-bringing-rapid-ac-charging-to-off-highway-applications/</t>
+          <t>https://www.kka-online.info/artikel/kristian-strand-folgt-juergen-fischer-als-praesident-von-danfoss-climate-solutions-4225143.html</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Imagine a sustainable future for commercial buildings. The key to reducing carbon emissions and increasing energy efficiency lie</t>
+          <t>Join Snowman Group at China Refrigeration 2025!  Venue: Shanghai New International Expo Centre  Date: Ap</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Imagine a sustainable future for commercial buildings. The key to reducing carbon emissions and increasing energy efficiency lies in retrofitting. Even small improvements in how energy flows through a building can make a significant impact.  Did you know?– Over 30% of the EU’s energy-related greenhouse gas (GHG) emissions come from buildings. – 80% of energy supplied to buildings is still derived from fossil fuel sources. An effective retrofit strategy looks at ho</t>
+          <t>Join Snowman Group at China Refrigeration 2025!  Venue: Shanghai New International Expo Centre Date: April 27-29, 2025 Booth: E1F15We’re excited to invite you to the 36th International Exhibition for Refrigeration, Air-Conditioning, Heating and Ventilation, Frozen Food Processing, Packaging, and Storage!Discover our latest technological breakthroughs and cutting-edge exhibition products designed to enhance efficiency and sustainability in the refrig</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310299508360314880</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310820358016667651</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Do you know what it costs just to roll an empty truck? Join us at Air Conditioning Contractors of America (ACCA) to find out. On</t>
+          <t>At Chengdu Yinli Cold Storage Park, balancing safety regulations and energy efficiency was a key challenge. With national regula</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Do you know what it costs just to roll an empty truck? Join us at Air Conditioning Contractors of America (ACCA) to find out.On Thursday, March 27, 2025, from 9:45 AM – 10:45 AM, hear from Jim Fultz of Copeland as he breaks down the hidden costs of unoptimized operations in his session, The Cost of Rolling a Truck (How to Lose Money Without Trying). Discover how to tip the scales toward profit and make smarter decisions for your business every single day.#ACCA2025</t>
+          <t xml:space="preserve">At Chengdu Yinli Cold Storage Park, balancing safety regulations and energy efficiency was a key challenge. With national regulations requiring a system charge below 10 tons, Yinli needed a reliable solution that ensured compliance while maintaining operational performance. To meet these requirements, NeoCharge was implemented, significantly reducing the ammonia charge while enhancing safety and efficiency. 705 Regulatory compliance – Meeting strict safety standards with confidence 705 </t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310284833765658624</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310631971062243332</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Copeland: Interview with Copeland CTO on R&amp;D on Compressors</t>
+          <t>#Frascold at ISH Frankfurt 2025: Innovation in Action! Looking back at #ISH 2025, we’re proud to see our Frascold #Aluminiu</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Aggressive R&amp;D: We’re investing at like 4% of revenue, which is quite significant, and the biggest portion of that pays for 2,300 engineers and researchers. That’s a big army of people.” Future Outlook: The acceleration toward variable speed will sharpen Copeland’s focus on its electronics and, longer term, he thinks natural or low-GWP refrigerants will be a major player in determining the direction of the market. At the Helix Innovation Center, a massive 40,000-square-foot research facility in Ohio, he said that’s one of the biggest focuses right now. “A very, very high percentage of the efforts at The Helix has gone into natural and low GWP,” Forsythe said. “It’s variable speed driving energy efficiency and natural or low GWP. That’s driven by regulatory, of course, but it’s also the right thing". Centrifugal Technology: Magnetic bearings have been more popular in high-efficiency compressors, but Copeland is shaking that up with its Aero-lift bearing. “We’ve come up with what I’d say is a different, and in many ways, better solution to a problem,” he said. The Aero-lift bearing can stand up to intense conditions, such as sudden power interruptions or rapid restarts, which is perfect in an application like oil-free centrifugal compressors.</t>
+          <t>#Frascold at ISH Frankfurt 2025: Innovation in Action!Looking back at #ISH 2025, we’re proud to see our Frascold #Aluminium #compressors integrated into Zudek air-cooled #chiller, a solution designed to meet the evolving needs of the #HVAC industry.Why choose #ammonia? The market increasingly demands #natural #refrigerants that deliver energy efficiency, low noise levels and maximum reliability.With Frascold’s technology, the risk of refrigerant leaks is eliminated, ensuring a safer</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://www.achrnews.com/articles/164332-copeland-cto-talks-innovation-companys-future</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310609017930756096</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Join Snowman Middle East at SaudiFood Manufacturing 2025!   Venue: Riyadh Front, Saudi</t>
+          <t>Copeland Suzhou is celebrating 25 years of operational excellence and innovation. Established in 1999, the facility is a part of</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Join Snowman Middle East at SaudiFood Manufacturing 2025!  Venue: Riyadh Front, Saudi Arabia  Date: April 13-15, 2025  Stand: Hall 2, G2-58We’re excited to showcase our latest refrigeration and food processing solutions at SaudiFood Manufacturing 2025—the leading event for the food and beverage industry in the region.Visit us to explore cutting-edge cooling and freezing technologies designed to optimize efficiency a</t>
+          <t>Copeland Suzhou is celebrating 25 years of operational excellence and innovation. Established in 1999, the facility is a part of our global manufacturing network and R&amp;D innovation hub, supporting the APAC region and beyond.This milestone celebration brought together senior leaders, including Meisel Seth from Blackstone, Copeland CEO Ross B. Shuster, Chief Transformation and Sustainability Officer Tracy Reiter and Asia Pacific President Michael Toh, alongside the Copeland China team, industry partners a</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310195238566825985</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310450565925203969</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Copeland’s Rayong plant in Thailand hosted our global and APAC executives for a Townhall meeting and facility tour. This vi</t>
+          <t>Danfoss announces production launch of Editron ED3 onboard charger and ePTO, bringing rapid AC charging to off-highway applicati</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Copeland’s Rayong plant in Thailand hosted our global and APAC executives for a Townhall meeting and facility tour. This visit underscored the site’s manufacturing excellence, operational strength and commitment to safety. Connecting with the leadership team, the Thai team shared their achievements and demonstrated Copeland’s dedication to operational excellence and innovation.#CopelandThailand #SafetyFirst</t>
+          <t>– Danfoss Power Solutions today announced the production launch of its Editron ED3 onboard charger and electric power take-off (ePTO). Initially designed for on-highway applications and currently in use in thousands of Volvo electric trucks, the ED3 has now been standardized with communication protocols, software, and documentation for off-highway applications. The ED3 enables rapid overnight and opportunity charging for heavy-duty electric machinery using readily available AC chargers. Its three-in-on</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310103229025894400</t>
+          <t>https://www.danfoss.com/en/about-danfoss/news/dps/danfoss-announces-production-launch-of-editron-ed3-onboard-charger-and-epto-bringing-rapid-ac-charging-to-off-highway-applications/</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6640,259 +6640,259 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Dennis Appel to Lead New Danfoss Controls and Thermal Management Division</t>
+          <t>Imagine a sustainable future for commercial buildings. The key to reducing carbon emissions and increasing energy efficiency lie</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> March 24, 2025 Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division.</t>
+          <t>Imagine a sustainable future for commercial buildings. The key to reducing carbon emissions and increasing energy efficiency lies in retrofitting. Even small improvements in how energy flows through a building can make a significant impact.  Did you know?– Over 30% of the EU’s energy-related greenhouse gas (GHG) emissions come from buildings. – 80% of energy supplied to buildings is still derived from fossil fuel sources. An effective retrofit strategy looks at ho</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://www.achrnews.com/articles/164341-dennis-appel-to-lead-new-danfoss-controls-and-thermal-management-division</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310299508360314880</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Copeland Aggressively Expands Its Compressor Portfolio</t>
+          <t>Do you know what it costs just to roll an empty truck? Join us at Air Conditioning Contractors of America (ACCA) to find out. On</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In June 2023, Ross B. Shuster joined Copeland as chief executive officer (CEO), following the acquisition of the company by Blackstone from Emerson.</t>
+          <t>Do you know what it costs just to roll an empty truck? Join us at Air Conditioning Contractors of America (ACCA) to find out.On Thursday, March 27, 2025, from 9:45 AM – 10:45 AM, hear from Jim Fultz of Copeland as he breaks down the hidden costs of unoptimized operations in his session, The Cost of Rolling a Truck (How to Lose Money Without Trying). Discover how to tip the scales toward profit and make smarter decisions for your business every single day.#ACCA2025</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.ejarn.com/article/detail/87976</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310284833765658624</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>System complexity and rising costs don’t have to be a fact of life in the food retail business. Copeland is committed to yo</t>
+          <t>Copeland: Interview with Copeland CTO on R&amp;D on Compressors</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>System complexity and rising costs don’t have to be a fact of life in the food retail business. Copeland is committed to your sustainability goals — helping you optimize energy usage, achieve efficiency targets and capitalize on financial opportunities.With Copeland’s CC200 case controller and the Cold Chain Connect app, case management is at your fingertips. Read our white paper to unlock an integrated control strategy for #CO2: https://ow.ly/AYGl50VmrOn</t>
+          <t>Aggressive R&amp;D: We’re investing at like 4% of revenue, which is quite significant, and the biggest portion of that pays for 2,300 engineers and researchers. That’s a big army of people.” Future Outlook: The acceleration toward variable speed will sharpen Copeland’s focus on its electronics and, longer term, he thinks natural or low-GWP refrigerants will be a major player in determining the direction of the market. At the Helix Innovation Center, a massive 40,000-square-foot research facility in Ohio, he said that’s one of the biggest focuses right now. “A very, very high percentage of the efforts at The Helix has gone into natural and low GWP,” Forsythe said. “It’s variable speed driving energy efficiency and natural or low GWP. That’s driven by regulatory, of course, but it’s also the right thing". Centrifugal Technology: Magnetic bearings have been more popular in high-efficiency compressors, but Copeland is shaking that up with its Aero-lift bearing. “We’ve come up with what I’d say is a different, and in many ways, better solution to a problem,” he said. The Aero-lift bearing can stand up to intense conditions, such as sudden power interruptions or rapid restarts, which is perfect in an application like oil-free centrifugal compressors.</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7309922411896807424</t>
+          <t>https://www.achrnews.com/articles/164332-copeland-cto-talks-innovation-companys-future</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve">At ISH 2025, Hrvoje Ulakovic reflects on how far we’ve come since the launch of the Bio 100 pump—and where the industry is </t>
+          <t>Join Snowman Middle East at SaudiFood Manufacturing 2025!   Venue: Riyadh Front, Saudi</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>At ISH 2025, Hrvoje Ulakovic reflects on how far we’ve come since the launch of the Bio 100 pump—and where the industry is heading.  Biofuel-ready heating is gaining traction as manufacturers respond to shifting regulations and rising demand for sustainable solutions.  While the market still adjusts to supply and performance concerns, early adopters and regulatory momentum are pushing things forward.  Danfoss sees biofuels as a key transitional solution on th</t>
+          <t>Join Snowman Middle East at SaudiFood Manufacturing 2025!  Venue: Riyadh Front, Saudi Arabia  Date: April 13-15, 2025  Stand: Hall 2, G2-58We’re excited to showcase our latest refrigeration and food processing solutions at SaudiFood Manufacturing 2025—the leading event for the food and beverage industry in the region.Visit us to explore cutting-edge cooling and freezing technologies designed to optimize efficiency a</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7309842669705310208</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310195238566825985</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Imagine, when the waste heat of the factory is no longer lost in vain, but converted into a steady stream of electricity, what k</t>
+          <t>Copeland’s Rayong plant in Thailand hosted our global and APAC executives for a Townhall meeting and facility tour. This vi</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Imagine, when the waste heat of the factory is no longer lost in vain, but converted into a steady stream of electricity, what kind of economic and environmental benefits will this bring to the company?Today is the "Earth Hour" in 2025. During the hour from 20:30 to 21:30Beijing Standard Time, the World Wildlife Fund calls on and advocates turning off unnecessary electricity.Every kilowatt-hour of electricity is hard-earned. From solid waste and hazardous waste treatment to petrochemical</t>
+          <t>Copeland’s Rayong plant in Thailand hosted our global and APAC executives for a Townhall meeting and facility tour. This visit underscored the site’s manufacturing excellence, operational strength and commitment to safety. Connecting with the leadership team, the Thai team shared their achievements and demonstrated Copeland’s dedication to operational excellence and innovation.#CopelandThailand #SafetyFirst</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7309182060424794113</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7310103229025894400</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-25</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>What an incredible week at ISH Frankfurt 2025! A huge th</t>
+          <t>Dennis Appel to Lead New Danfoss Controls and Thermal Management Division</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>What an incredible week at ISH Frankfurt 2025! A huge th</t>
+          <t xml:space="preserve"> March 24, 2025 Danfoss Climate Solutions has named Dennis Appel as Divisional President of its newly established Controls and Thermal Management division.</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308883856684650496</t>
+          <t>https://www.achrnews.com/articles/164341-dennis-appel-to-lead-new-danfoss-controls-and-thermal-management-division</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Are you registered to attend the Air Conditioning Contractors of America (ACCA) 2025 Conference from March 25-26 in Austin, TX? </t>
+          <t>Copeland Aggressively Expands Its Compressor Portfolio</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Are you registered to attend the Air Conditioning Contractors of America (ACCA) 2025 Conference from March 25-26 in Austin, TX?Copeland’s Shane Angle will be participating in the Manufacturer Leadership Forum on March 26, an interactive Q&amp;A session on current events in the HVACR industry: https://ow.ly/oWNq50Vms5p</t>
+          <t xml:space="preserve"> In June 2023, Ross B. Shuster joined Copeland as chief executive officer (CEO), following the acquisition of the company by Blackstone from Emerson.</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308940816671027201</t>
+          <t>https://www.ejarn.com/article/detail/87976</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>#ISH2025 is a wrap!   Thank you everyone for these amazing 5 days where we have discovered all our different technologies to ...</t>
+          <t>System complexity and rising costs don’t have to be a fact of life in the food retail business. Copeland is committed to yo</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t xml:space="preserve">#ISH2025 is a wrap! Thank you everyone for these amazing 5 days where we have discovered all our different technologies to enhance decarbonization in commercial and residential buildings and district energy grids.  We are also proud to announce that our AB-QM 4.0 CO6 Flexo and EvoFlat 4.0 were awarded the eBest of SHK Award 2025“    If you were not able to join us physically at the show you can still have a look at everything that happened in our </t>
+          <t>System complexity and rising costs don’t have to be a fact of life in the food retail business. Copeland is committed to your sustainability goals — helping you optimize energy usage, achieve efficiency targets and capitalize on financial opportunities.With Copeland’s CC200 case controller and the Cold Chain Connect app, case management is at your fingertips. Read our white paper to unlock an integrated control strategy for #CO2: https://ow.ly/AYGl50VmrOn</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308925383632998403</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7309922411896807424</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>What an incredible week at ISH Frankfurt 2025! A huge thank you to everyone who visited our stand, joined the discussions and ex</t>
+          <t xml:space="preserve">At ISH 2025, Hrvoje Ulakovic reflects on how far we’ve come since the launch of the Bio 100 pump—and where the industry is </t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>What an incredible week at ISH Frankfurt 2025! A huge thank you to everyone who visited our stand, joined the discussions and explored the ATEX-HT #compressor series with us.Relive the highlights, from exciting product showcases to valuable industry connections that are shaping the future of high-temperature #HeatPump technology.The innovation doesn’t stop here! Discover more about the ATEX-HT series and its game-changing potential: https://lnkd.in/drUgpFBP See you at the next event!</t>
+          <t>At ISH 2025, Hrvoje Ulakovic reflects on how far we’ve come since the launch of the Bio 100 pump—and where the industry is heading.  Biofuel-ready heating is gaining traction as manufacturers respond to shifting regulations and rising demand for sustainable solutions.  While the market still adjusts to supply and performance concerns, early adopters and regulatory momentum are pushing things forward.  Danfoss sees biofuels as a key transitional solution on th</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308883856684650496</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7309842669705310208</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit March 25</t>
+          <t>Imagine, when the waste heat of the factory is no longer lost in vain, but converted into a steady stream of electricity, what k</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit March 25-27 in Pittsburgh, PA . The free event offers refrigeration technicians diverse training opportunities on the latest #CO2 and #R290 technologies from leading industry experts. Copeland trainers Alain Mongrain, Michael Hill, Brent Cheshire and Michael J. Squires will lead sessions where attendees can gain valuable knowledge of the latest natural refrigerant capabilities to prepa</t>
+          <t>Imagine, when the waste heat of the factory is no longer lost in vain, but converted into a steady stream of electricity, what kind of economic and environmental benefits will this bring to the company?Today is the "Earth Hour" in 2025. During the hour from 20:30 to 21:30Beijing Standard Time, the World Wildlife Fund calls on and advocates turning off unnecessary electricity.Every kilowatt-hour of electricity is hard-earned. From solid waste and hazardous waste treatment to petrochemical</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308835482950324224</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7309182060424794113</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>At ISH 2025, Daniel Hiertz introduced the EvoFlat 4.0 PRO, designed to work perfectly with heat pumps. It enables building manag</t>
+          <t>What an incredible week at ISH Frankfurt 2025! A huge th</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>At ISH 2025, Daniel Hiertz introduced the EvoFlat 4.0 PRO, designed to work perfectly with heat pumps. It enables building managers to remotely monitor, control, and maintain their building’s heating system. 705 Remote monitoring, control, and predictive maintenance 705 Danfoss Icon2™ integration for energy-efficient floor heating 705 Lighter composite build—easy handling, powerful performance With EvoFlat 4.0 PRO, building owners can take control of their heating s</t>
+          <t>What an incredible week at ISH Frankfurt 2025! A huge th</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308833393905987586</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308883856684650496</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>With the HVAC market in India forecasted to grow double digits through 2030, this emerging market plays a critical role in Copel</t>
+          <t xml:space="preserve">Are you registered to attend the Air Conditioning Contractors of America (ACCA) 2025 Conference from March 25-26 in Austin, TX? </t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>With the HVAC market in India forecasted to grow double digits through 2030, this emerging market plays a critical role in Copeland’s growth strategy. Through our 0b9500 crore investment in India, Copeland is expanding our manufacturing capability in Atit to serve our customers in-region.On Tuesday, Copeland’s Chief Operating Officer, Darel Callis, was thrilled to visit Copeland manufacturing plant in Atit India to witness and sign the first “Make in India” pilot scroll compressor</t>
+          <t>Are you registered to attend the Air Conditioning Contractors of America (ACCA) 2025 Conference from March 25-26 in Austin, TX?Copeland’s Shane Angle will be participating in the Manufacturer Leadership Forum on March 26, an interactive Q&amp;A session on current events in the HVACR industry: https://ow.ly/oWNq50Vms5p</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308683838010925056</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308940816671027201</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6904,44 +6904,88 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>It’s Day 4 at ISH 2025, and Kristian Strand, President, Danfoss Commercial Compressors, is here in Frankfurt showcasing tha</t>
+          <t>#ISH2025 is a wrap!   Thank you everyone for these amazing 5 days where we have discovered all our different technologies to ...</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>It’s Day 4 at ISH 2025, and Kristian Strand, President, Danfoss Commercial Compressors, is here in Frankfurt showcasing that the decarbonization of buildings and district energy networks is possible thanks to Danfoss’ full range of solutions and expertise. No matter your approach, we have the technology to support it:  705 Portfolio for heat pumps, from residential to large industrial systems, and for heat recovery or heat generation – Broadest portfolio of compressors, valves, co</t>
+          <t xml:space="preserve">#ISH2025 is a wrap! Thank you everyone for these amazing 5 days where we have discovered all our different technologies to enhance decarbonization in commercial and residential buildings and district energy grids.  We are also proud to announce that our AB-QM 4.0 CO6 Flexo and EvoFlat 4.0 were awarded the eBest of SHK Award 2025“    If you were not able to join us physically at the show you can still have a look at everything that happened in our </t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308547916485267459</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308925383632998403</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Last week our sales team partecipated to the third edition of the “NATURAL REFRIGERANTS”, the event in Romania dedicat</t>
+          <t>What an incredible week at ISH Frankfurt 2025! A huge thank you to everyone who visited our stand, joined the discussions and ex</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Last week our sales team partecipated to the third edition of the “NATURAL REFRIGERANTS”, the event in Romania dedicated to the refrigeration industry.Special thanks go to our customer Adrian Balaoi MInstR, owner of AB TEHNIC PROFESIONAL for organising the conference and inviting us to exhibit our range of natural refrigerant compressors.#SRMTec</t>
+          <t>What an incredible week at ISH Frankfurt 2025! A huge thank you to everyone who visited our stand, joined the discussions and explored the ATEX-HT #compressor series with us.Relive the highlights, from exciting product showcases to valuable industry connections that are shaping the future of high-temperature #HeatPump technology.The innovation doesn’t stop here! Discover more about the ATEX-HT series and its game-changing potential: https://lnkd.in/drUgpFBP See you at the next event!</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308448128616071168</t>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308883856684650496</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit March 25</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Copeland is proud to sponsor the North American Sustainable Refrigeration Council (NASRC)’s #NatRefTraining Summit March 25-27 in Pittsburgh, PA . The free event offers refrigeration technicians diverse training opportunities on the latest #CO2 and #R290 technologies from leading industry experts. Copeland trainers Alain Mongrain, Michael Hill, Brent Cheshire and Michael J. Squires will lead sessions where attendees can gain valuable knowledge of the latest natural refrigerant capabilities to prepa</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308835482950324224</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>At ISH 2025, Daniel Hiertz introduced the EvoFlat 4.0 PRO, designed to work perfectly with heat pumps. It enables building manag</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>At ISH 2025, Daniel Hiertz introduced the EvoFlat 4.0 PRO, designed to work perfectly with heat pumps. It enables building managers to remotely monitor, control, and maintain their building’s heating system. 705 Remote monitoring, control, and predictive maintenance 705 Danfoss Icon2™ integration for energy-efficient floor heating 705 Lighter composite build—easy handling, powerful performance With EvoFlat 4.0 PRO, building owners can take control of their heating s</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7308833393905987586</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
         </is>
       </c>
     </row>

--- a/records.xlsx
+++ b/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6989,6 +6989,512 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Estamos prontos para a Fispal 2025! De 27 a 30 de maio, visite o estande da Copeland e conheça de perto as tecnologias que estão</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Estamos prontos para a Fispal 2025! De 27 a 30 de maio, visite o estande da Copeland e conheça de perto as tecnologias que estão impulsionando a transição energética e acelerando a adoção de...</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333250921482649602</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>In collaboration with North American Sustainable Refrigeration Council (NASRC)’s Natural Refrigerants Webinar Series, Copeland’s</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>In collaboration with North American Sustainable Refrigeration Council (NASRC)’s Natural Refrigerants Webinar Series, Copeland’s Andre Patenaude, CET and Henderson Engineers’ Trevor Jones will...</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333205626983985152</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>CO₂ refrigeration doesn’t have to be intimidating. Whether you’re new to it or building your skillset, Copeland is com</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>CO₂ refrigeration doesn’t have to be intimidating.Whether you’re new to it or building your skillset, Copeland is committed to easing the transition to CO₂ for all skill levels. A recent article by...</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333160353024942080</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Earlier in May, Copeland attended an inspiring #CIBF2025. This year’s event showcased our commitment to reshaping the green</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Earlier in May, Copeland attended an inspiring #CIBF2025. This year’s event showcased our commitment to reshaping the green future of the battery industry. With scalable, forward-thinking solutions,...</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333131185381941249</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Rail heat control in supermarket HVAC-R systems is often overlooked, yet it holds significant potential for energy savings. Join</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Rail heat control in supermarket HVAC-R systems is often overlooked, yet it holds significant potential for energy savings. Join our live event ‘Optimizing Rail Heat Control for Energy Efficient...</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333089370532384771</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>We’re thrilled to share that our #Frascold #compressors were showcased at REFRIGAIR EXPO in Casablanca, thanks to our partn</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>We’re thrilled to share that our #Frascold #compressors were showcased at REFRIGAIR EXPO in Casablanca, thanks to our partnership with #LeFroidPolaire and Tecumseh!An unmissable event for the...</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333057295955689472</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>DALLMER: Sicherer Umgang mit Wasser – von der Ver- zur Entsorgung</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01.07.2025 um 10:45 - 17:00 Uhr im Dorint Hotel Potsdam Infos zur Live Session Jeder Mensch hat andere Vorstellungen von seinem privaten Traumbad.</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://www.shk-journal.de/news/dallmer-sicherer-umgang-mit-wasser-von-der-ver-zur-entsorgung.html</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The IPS 8 Air Purger, a highly efficient solution in industrial refrigeration, is now available with propane (R290). Propane is </t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>The IPS 8 Air Purger, a highly efficient solution in industrial refrigeration, is now available with propane (R290). Propane is an environmentally friendly refrigerant with low GWP and high...</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7332675947566907393</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Copeland partners with Ecozen to aid agriculture sector</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Copeland, a global provider of sustainable heating, cooling, cold chain and industrial solutions, has partnered with Ecozen to develop an innovative solar-powered cold storage system to benefit...</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>http://fnbnews.com/Agriculture/copeland-partners-with-ecozen-to-aidagriculture-sector-82816</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Copeland Renovates Cudahy Facility for Vilter Industrial Compressors</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> On April 25, Copeland announced the completion of a significant renovation of its Vilter brand’s facility in Cudahy, Wisconsin.</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://www.ejarn.com/article/detail/88876</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Designed for liquid, suction, and hot gas lines with ammonia and fluorinated refrigerants, EVRAT 20 valves feature assisted lift</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Designed for liquid, suction, and hot gas lines with ammonia and fluorinated refrigerants, EVRAT 20 valves feature assisted lift and are specially crafted to open and remain open at a pressure drop...</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7331959686415409152</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Intelligent heating made simple: Danfoss and E.ON One join forces</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Danfoss and E.ON One present an all-in-one solution combining hardware and software that saves up to 30% energy and enables significant CO₂ reductions for both existing and new buildings.</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://www.danfoss.com/en/about-danfoss/news/cf/intelligent-heating-made-simple-danfoss-and-eon-one-join-forces/</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">From Pittsburgh (PA) in March, to Irwindale (CA) in April, and most recently St. Paul (MN), our journey with the North American </t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>From Pittsburgh (PA) in March, to Irwindale (CA) in April, and most recently St. Paul (MN), our journey with the North American Sustainable Refrigeration Council (NASRC) in occasion of the Natural...</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7331671573759717377</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Meet the new Burner Fuel Mobile Pump from Danfoss, engineered for compact mobile heating applications. Whether it’s high-pressur</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Meet the new Burner Fuel Mobile Pump from Danfoss, engineered for compact mobile heating applications. Whether it’s high-pressure cleaners, open-air heaters, or vehicle heating systems, the BFM pump...</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7331634923906269184</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Intelligent heating made simple: Danfoss and E.ON One join forces</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> May 22, 2025 Danfoss and E.ON One present an all-in-one solution combining hardware and software that saves up to 30% energy and enables significant CO₂ reductions for both existing and new...</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://www.ejarn.com/article/detail/88836</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Only 5 days left until our RETHINK Live session on retrofitting commercial buildings! Discover how the revised EPBD and Danfoss </t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Only 5 days left until our RETHINK Live session on retrofitting commercial buildings! Discover how the revised EPBD and Danfoss solutions can help you drive energy efficiency and support your...</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7331333039035158528</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Discover a new era of efficiency with Scout, the new AI-powered feature in Copeland Mobile designed to streamline your search fo</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Discover a new era of efficiency with Scout, the new AI-powered feature in Copeland Mobile designed to streamline your search for critical information. Scout delivers HVACR-specific insights sourced...</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7331325526495686656</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Thank you to everyone who joined our recent webinar with ACCA! It was an insightful presentation that covered:</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Thank you to everyone who joined our recent webinar with ACCA! It was an insightful presentation that covered:• Modulation and compressor selection• Why mixing A2L refrigerants and compressors isn’t...</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7331680362739183616</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Hanbell Sales in Q1 2025 have decreased by 19% compared to last year quarter</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Hanbell reports a decline in sales in the first quarter of 2025 (-19% compared to Q1 2024). The sales include both the compressor business, including air and refrigerant compressors, as well as...</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://www.hanbell.com.cn/financial-reports</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Danfoss and E.ON One are excited to announce a pioneering partnership that offers an all-in-one solution for intelligent heating</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Danfoss and E.ON One are excited to announce a pioneering partnership that offers an all-in-one solution for intelligent heating optimization. By integrating Danfoss’ Leanheat® Building software with...</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7331235301433970692</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Danfoss and E.ON One are excited to announce a pioneering partnership that offers an all-in-one solution for intelligent heating</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Danfoss and E.ON One are excited to announce a pioneering partnership that offers an all-in-one solution for intelligent heating optimization. By integrating Danfoss’s Leanheat® Building software...</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7331235301433970692</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>The transition to lower-GWP refrigerants can be a source of stress for small grocers who lack the resources and a clear action p</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>The transition to lower-GWP refrigerants can be a source of stress for small grocers who lack the resources and a clear action plan. Unsurprisingly, many are turning to their trusted contractors to...</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330956149606752256</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>NeoCharge offers a straightforward solution to enhance the efficiency of both new and existing industrial refrigeration systems.</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>NeoCharge offers a straightforward solution to enhance the efficiency of both new and existing industrial refrigeration systems. By minimizing ammonia charge, it improves system safety and...</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7330917839245082625</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records.xlsx
+++ b/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7495,6 +7495,336 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>At Copeland, we’re proud to advance sustainable, efficient, and safe production systems for compressors and heat pumps. Our</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>At Copeland, we’re proud to advance sustainable, efficient, and safe production systems for compressors and heat pumps. Our latest interview with Ong-art Veerachartyanukul, General Manager of our...</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7334126665112924160</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRMTec in 60 seconds: technology, precision, passion. We manufacture screw and piston compressors for refrigeration</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRMTec in 60 seconds: technology, precision, passion.We manufacture screw and piston compressors for refrigeration, fully designed and made in Italy. Each compressor is tested twice: performance and...</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7334111489491881984</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Our innovative technologies are driving the shift toward sustainable cooling by promoting low-energy consumption and environment</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Our innovative technologies are driving the shift toward sustainable cooling by promoting low-energy consumption and environmentally responsible refrigerants.From cutting-edge compressor designs to...</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7334073630852583424</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>We are excited to announce Andy Baker, MBA as Copeland’s Vice President of Commercial Excellence, a new role within Copeland tha</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>We are excited to announce Andy Baker, MBA as Copeland’s Vice President of Commercial Excellence, a new role within Copeland that will be responsible for leading the global implementation of...</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333915424494952450</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Industrial applications demand reliability, precision and efficiency. Copeland’s innovative Vilter single-screw compression</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Industrial applications demand reliability, precision and efficiency. Copeland’s innovative Vilter single-screw compression technology has proven to be up to the task, delivering superior performance...</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333885283546943490</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>We were thrilled to host the North Florida Refrigerating Engineers &amp; Technicians Association (RETA) - Official Page Chapter meet</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>We were thrilled to host the North Florida Refrigerating Engineers &amp; Technicians Association (RETA) - Official Page Chapter meeting at our #FrascoldUSA office, the first chapter meeting of the...</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333786437319819264</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Mark your calendars for June 12, 2025, at 11 am CET, as we’re hosting an online session – Retrofitting Commercial Buildings</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Mark your calendars for June 12, 2025, at 11 am CET, as we’re hosting an online session – Retrofitting Commercial Buildings with Modulating Room Control. Discover how transitioning from traditional...</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333779205492523008</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Copeland has partnered with Ecozen to deliver solar-powered cold room systems that enable efficient, off-grid refrigeration for </t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Copeland has partnered with Ecozen to deliver solar-powered cold room systems that enable efficient, off-grid refrigeration for the agricultural sector in India. Powered by our variable speed...</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333711238180327426</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Join Our Dynamic Team at Snowman Group!  We are excited to announce the following openings:  Sale</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Join Our Dynamic Team at Snowman Group! We are excited to announce the following openings: Sales Engineer (Food chain industry; Chemical, Oil &amp; Gas industry) After-sales Service EngineerIf you’re...</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333677525769895936</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Copeland Sensi Equipment Interface Module</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Copeland’s Sensi Equipment Interface Module (Indoor + Outdoor) is a new interface module that eliminates the need for pulling additional HVAC wiring to the thermostat, helping solve installation...</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://www.phcppros.com/articles/21585-copeland-sensi-equipment-interface-module</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Copeland Thailand Innovation Drives Sustainability, Efficiency, &amp; Safety Wins</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JARN interviewed Ong-Art Veerachartyanukul, general manager of Copeland’s facility in Rayong, Thailand, who talked about Copeland’s advancing</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://www.ejarn.com/article/detail/88911</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Innovations in refrigeration are shaping a more sustainable, efficient future across North America. On June 11 at the ATMOsphere</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Innovations in refrigeration are shaping a more sustainable, efficient future across North America. On June 11 at the ATMOsphere America Summit 2025 in Atlanta, Andre Patenaude, CET, director of...</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333477479543672832</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>NeoCharge is transforming industrial refrigeration by reducing refrigerant charge in both new and existing systems. With easy in</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>NeoCharge is transforming industrial refrigeration by reducing refrigerant charge in both new and existing systems. With easy installation, it offers significant energy savings and increased capacity...</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333454503226077184</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>From Deep-Sea Fishing to End-Point RetailSnowman Refrigeration Technology Locks in Every Bite of Freshness. See you at CHI</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>From Deep-Sea Fishing to End-Point RetailSnowman Refrigeration Technology Locks in Every Bite of Freshness.See you at CHINA (FUZHOU)INTERNATIONAL SEAFOOD &amp; FISHERIES EXPO!  Venue: Fuzhou Strait...</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333431848183730176</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Looking back on an inspiring day: “#Hydrocarbons in the Future of #HVACR” – Padua, May 23. The energ</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Looking back on an inspiring day: “#Hydrocarbons in the Future of #HVACR” – Padua, May 23.The energy, insights and meaningful exchanges of May 23 are still with us.A day that brought together...</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7333415061496958977</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records.xlsx
+++ b/records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7825,6 +7825,314 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>We are deeply saddened by the passing of Brent Schroeder, a friend, mentor, former colleague and a leader within the air-conditi</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>We are deeply saddened by the passing of Brent Schroeder, a friend, mentor, former colleague and a leader within the air-conditioning and refrigeration industry. Brent spent 35 years at Copeland...</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7335787631324057601</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The next innovation in demanding data center cooling, health care and large chiller applications is here! The Copeland oil-free </t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>The next innovation in demanding data center cooling, health care and large chiller applications is here! The Copeland oil-free centrifugal compressor with frictionless Aero-lift bearing technology...</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7335742157892255744</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Drive performance, efficiency, and innovation with Danfoss at iVT Expo Cologne 2025</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> June 3, 2025 June 2, 2025 — NORDBORG, DENMARK — Danfoss Power Solutions will highlight its latest technologies for off- and on-highway machinery at iVT Expo 2025, June 11-12, in Cologne, Germany.</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>https://www.ejarn.com/article/detail/89014</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>DOE Coolerchips’ Peter De Bock joins Eaton as VP of data center energy &amp; cooling</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> As ARPA-E faces dramatic cuts to its budget The head of the Department of Energy’s data center cooling research effort has left for equipment supplier Eaton.</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>https://www.datacenterdynamics.com/en/news/doe-coolerchips-peter-de-bock-joins-eaton-as-vp-of-data-center-energy-cooling/</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TX2-W-G04-Y and TX2-W-G04-Y/H are the Climaveneta branded water source chillers and reversible heat pumps, dedicated to process </t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>TX2-W-G04-Y and TX2-W-G04-Y/H are the Climaveneta branded water source chillers and reversible heat pumps, dedicated to process applications. The range, with capacity from 191 to 2069 kW, has...</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7335636602922110976</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Romanian hazelnut farm secures €4.6M for expansion</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dorin Bob, an entrepreneur from Transylvania, Romania, has secured €4.6 million in European funding to expand and modernize a major hazelnut plantation.</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>https://www.freshplaza.com/europe/article/9737382/romanian-hazelnut-farm-secures-eur4-6m-for-expansion/</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>On the occasion of China Refrigeration Expo, we interviewed Alvise Dina, Sales Director of #FrascoldChina, right at our booth. I</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>On the occasion of China Refrigeration Expo, we interviewed Alvise Dina, Sales Director of #FrascoldChina, right at our booth.In this short video, Alvise shares insights into #Frascold’s presence in...</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7335597810764894210</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>At Danfoss, we recognize waste heat as a pivotal element in our journey toward decarbonization. Discover how recovering and reus</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>At Danfoss, we recognize waste heat as a pivotal element in our journey toward decarbonization. Discover how recovering and reusing excess heat can significantly enhance energy efficiency and drive...</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7335587321536294913</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Food retail leaders globally are adopting solutions to meet sustainability and zero-emissions goals, supported by low-GWP refrig</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Food retail leaders globally are adopting solutions to meet sustainability and zero-emissions goals, supported by low-GWP refrigerants that reduce energy waste. Copeland’s CO₂ scroll refrigeration...</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7335545929338392577</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Explore Scout, the new AI feature in Copeland Mobile. Scout provides tailored results for Copeland products and continuously imp</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Explore Scout, the new AI feature in Copeland Mobile. Scout provides tailored results for Copeland products and continuously improves through advanced learning. Available 24/7 on mobile and desktop,...</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7335341999199264768</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Danfoss Opens Danfoss Nanjing Park</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> On April 23, the opening ceremony for Danfoss Nanjing Park was held in the Nanjing Economic Development Zone.</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://www.ejarn.com/article/detail/88976</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Hanbell Establishes a New Company for Reciprocating Compressors</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai Hanbell Reciprocating Machinery was officially established with a registered capital of RMB 10 million (about US$ 1.38 million). The business</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>https://www.ejarn.com/article/detail/88973</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Join Jamie Kitchen and guests Jörg Saar and John Broughton in the latest episode of "Taking the Temperature on HVACR." Discover </t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Join Jamie Kitchen and guests Jörg Saar and John Broughton in the latest episode of "Taking the Temperature on HVACR." Discover how temperature and pressure interact within refrigeration systems and...</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/feed/update/urn:li:activity:7334496373041455105</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Danfoss Delivers AC Drives for Finnish Navy’s Four Corvettes</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Vaasa, Finland-based Danfoss Drives is supplying variable-speed AC drives for the propulsion systems of the Finnish Navy’s four Pohjanmaa-class multi-role corvettes. Part of the Finnish Defense...</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>https://www.maritime-executive.com/corporate/danfoss-delivers-ac-drives-for-finnish-navy-s-four-corvettes</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
